--- a/backend/Books dataset.xlsx
+++ b/backend/Books dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -34,7 +34,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51Xhwv2+hZL._SX402_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>data types variable arrays  operators control statements classes objects methods method overloading  overriding inheritance local variable type inference interfaces packages exception handling multithreaded programming enumerations autoboxing annotations io classes generics lambda expressions modules string handling collections framework networking event handling awt swing concurrent api stream api regular expressions javabeans servlets</t>
+    <t>data types variable arrays  objectoriented operators control statements classes objects methods method overloading  overriding inheritance local variable type inference interfaces packages exception handling multithreaded programming enumerations autoboxing annotations io classes generics lambda expressions modules string handling collections framework networking event handling awt swing concurrent api stream api regular expressions javabeans servlets</t>
   </si>
   <si>
     <t>https://www.amazon.in/Java-Complete-Reference-Herbert-Schildt/dp/9390491622/ref=sr_1_1?crid=13TJYDM45BDNV&amp;dchild=1&amp;keywords=java+book&amp;qid=1619114639&amp;refinements=p_72%3A1318476031&amp;rnid=1318475031&amp;sprefix=java+%2Caps%2C314&amp;sr=8-1</t>
@@ -46,7 +46,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41Fji-VVHYL._SX380_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>language jvm ecosystem java language jvm java ecosystem brief history java jvm lifecycle java program frequently asked questions java security comparing java languages java compared c java compared c java compared php java compared javascript answering criticisms java overly verbose slow change performance problems insecure corporate  java syntax ground java programs top down lexical structure unicode character set case sensitivity whitespace comments reserved words identifiers literals punctuation primitive data types boolean type char type integer types floatingpoint types primitive type conversions expressions operators operator summary arithmetic operators string concatenation operator increment decrement operators comparison operators boolean operators bitwise shift operators assignment operators conditional operator instanceof operator special operators statements expression statements compound statements empty statement labeled statements local variable declaration statements ifelse statement switch statement statement statement statement foreach statement break statement continue statement return statement synchronized statement throw statement trycatchfinally statement trywithresources statement assert statement methods defining methods method modifiers checked unchecked exceptions variablelength argument lists introduction classes objects defining class creating object using object object literals lambda expressions arrays array types creating initializing arrays using arrays multidimensional arrays reference types reference versus primitive types manipulating objects reference copies comparing objects boxing unboxing conversions packages java namespace package declaration globally unique package names importing types importing static members java file structure defining running java programs summary  objectoriented programming java overview classes basic oo definitions reference types class definition syntax fields methods field declaration syntax class fields class methods instance fields instance methods reference works creating initializing objects defining constructor defining multiple constructors invoking one constructor field defaults initializers subclasses inheritance extending class superclasses object class hierarchy subclass constructors constructor chaining default constructor hiding superclass fields overriding superclass methods data hiding encapsulation access control data accessor methods abstract classes methods reference type conversions modifier summary  java type system interfaces defining interface extending interfaces implementing interface implementing multiple interfaces default methods marker interfaces java generics introduction generics generic types type parameters diamond syntax type erasure wildcards compile runtime typing enums annotations enums annotations defining custom annotations type annotations nested types static member types nonstatic member classes local classes lexical scoping local variables anonymous classes nested types work lambda expressions lambda expression conversion method references functional programming conclusion  introduction objectoriented design java java values important methods javalangobject tostring equals hashcode comparablecompareto clone aspects objectoriented design constants interfaces versus abstract classes instance methods class methods composition versus inheritance field inheritance accessors singleton exceptions exception handling safe java programming  javas approach memory concurrency basic concepts java memory management memory leaks java introducing mark sweep basic mark sweep algorithm jvm optimizes garbage collection evacuation hotspot heap collecting old generation collectors finalization finalization details javas support concurrency thread lifecycle visibility mutability exclusion protecting state volatile useful methods thread working threads summary ii working java platform  programming documentation conventions naming capitalization conventions practical naming java documentation comments structure doc comment doccomment tags inline doccomment tags crossreferences doc comments doc comments packages conventions portable programs  working java collections introduction collections api collection interface set interface list interface map interface queue blockingqueue interfaces adding elements queues removing elements queues querying utility methods specialcase collections arrays helper methods lambda expressions java collections functional approaches streams api conclusion  handling common data formats text special syntax strings string immutability regular expressions numbers math java represents integer types java floatingpoint numbers javas standard library mathematical functions java  date time introducing java  date time api queries adjusters legacy date time conclusion 0 file handling io classic java io files streams readers writers trywithresources revisited problems classic io modern java io files path nio channels buffers bytebuffer mapped byte buffers async io futurebased style callbackbased style watch services directory searching networking http tcp ip  classloading reflection method handles class files class objects metadata examples class objects class objects metadata phases classloading loading verification preparation resolution initialization secure programming classloading applied classloading classloader hierarchy reflection when use reflection use reflection dynamic proxies method handles methodtype method lookup invoking method handles  nashorn introduction nashorn nonjava languages jvm motivation executing javascript nashorn running command line using nashorn shell scripting jjs nashorn javaxscript introducing javaxscript nashorn advanced nashorn calling java nashorn nashorns javascript language extensions hood conclusion project avatar  platform tools profiles commandline tools visualvm java  profiles motivation compact profiles conclusion index</t>
+    <t xml:space="preserve">language jvm ecosystem java lifecycle program security php javascript verbose syntax ground java programs top down lexical unicode case sensitivity whitespace comments reserved words identifiers literals punctuation data boolean type char type integer floatingpoint primitive type conversions expressions operator summary arithmetic string concatenation increment decrement operators comparison operators boolean operators bitwise shift operators assignment operators conditional operator instanceof operator special operators expression compound empty statement labeled local variable declaration statements ifelse statement switch statement statement statement statement foreach statement break statement continue statement return statement synchronized statement throw statement trycatchfinally statement trywithresources statement assert statement methods method modifiers checked unchecked exceptions variablelength argument lists classes objects class object using object object literals lambda expressions array initializing multidimensionalprimitive manipulating objects reference copies comparing objects boxing unboxing conversions packages java namespace package declaration globally unique package names importing importing static members java file structure running java programs summary  objectoriented programming java overview classes basic oo definitions reference class definition syntax fields methods field declaration syntax class fields class methods instance fields instance methods reference works initializing objects constructor multiple constructors invoking one constructor field defaults initializers subclasses inheritance extending class superclasses object class hierarchy subclass constructors constructor chaining default constructor hiding superclass fields overriding superclass methods data hiding encapsulation access control data accessor methods abstract classes methods reference type conversions modifier java type system interfaces interface extending interfaces implementing interface implementing multiple interfaces default methods marker interfaces java generics generics generic parameters diamond syntax type erasure wildcards compile runtime typing enums annotations enums annotations custom annotations type annotations nested static member types nonstatic member classes local classes lexical scoping local variables anonymous classes nested work lambda expressions lambda expression conversion method references functional programming objectoriented design java java values important methods javalangobject tostring equals hashcode comparablecompareto clone aspects objectoriented design constants interfaces versus abstract classes instance methods </t>
   </si>
   <si>
     <t>https://www.amazon.in/Programming-Java-Balagurusamy/dp/9353162343/ref=sr_1_2?crid=13TJYDM45BDNV&amp;dchild=1&amp;keywords=java+book&amp;qid=1619114639&amp;refinements=p_72%3A1318476031&amp;rnid=1318475031&amp;sprefix=java+%2Caps%2C314&amp;sr=8-2</t>
@@ -70,7 +70,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51qwm20OYcL._SX346_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>data types  control instructions  object oriented programming  classes  objects  arrays  strings  inheritance  polymorphism  interfaces  packages exception handling  effective io  multithreading  synchronisation  generics  collection classes  gui using swing  database connectivity using jdbc</t>
+    <t>data  control instructions  object oriented programming  classes  objects  arrays  strings  inheritance  polymorphism  interfaces  packages exception handling  effective io  multithreading  synchronisation  generics  collection classes  gui using swing  database connectivity using jdbc</t>
   </si>
   <si>
     <t>https://www.amazon.in/Let-Java-Foundation-Programming-English/dp/9388176383/ref=sr_1_8?dchild=1&amp;keywords=java+book&amp;qid=1619274845&amp;sr=8-8</t>
@@ -154,7 +154,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/315IBehwHZL._SX331_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>book success c standards hosted freestanding environments typographical conventions order topics example programs deference higher authority address standard chapter  introduction c  form c program  functions  description example   programs  terminology  summary  exercises chapter  variables arithmetic  fundamentals  alphabet c  textual structure programs  keywords identifiers  declaration variables  real types  integral types  expressions arithmetic  constants 0 summary  exercises chapter  control flow logical expressions  task ahead  control flow  logical expressions  strange operators  summary  exercises chapter  functions  changes  type functions  recursion argument passing  linkage  summary  exercises chapter  arrays pointers  opening shots  arrays  pointers  character handling  sizeof storage allocation  pointers functions  expressions involving pointers  arrays  operator function declarations  summary 0 exercises chapter  structured data types  history  structures  unions  bitfields  enums  qualifiers derived types  initialization  summary  exercises chapter  preprocessor  effect standard  preprocessor works  directives  summary  exercises chapter  specialized areas c  government health warning  declarations definitions accessibility  typedef  const volatile  sequence points  summary chapter  libraries  introduction  diagnostics  character handling  localization  limits  mathematical functions  nonlocal jumps  signal handling  variable numbers arguments 0 input output  formatted io  character io  unformatted io  random access functions  general utilities  string handling  date time  summary chapter 0 complete programs c 0 putting together 0 arguments main 0 interpreting program arguments 0 pattern matching program</t>
+    <t>book success c standards hosted freestanding environments typographical conventions order topics example programs deference higher authority address standard chapter  introduction c  form c program  functions  description example   programs  terminology  summary  exercises chapter  variables arithmetic  fundamentals  alphabet c  textual structure programs  keywords identifiers  declaration variables  real integral expressions arithmetic  constants 0 summary  exercises chapter  control flow logical expressions  task ahead  control flow  logical expressions  strange operators  summary  exercises chapter  functions  changes  type functions  recursion argument passing  linkage  summary  exercises chapter  arrays pointers  opening shots  arrays  pointers  character handling  sizeof storage allocation  pointers functions  expressions involving pointers  arrays  operator function declarations  summary 0 exercises chapter  structured data structures  unions  bitfields  enums  qualifiers derived initialization  summary  exercises chapter  preprocessor  effect standard  preprocessor works  directives  summary  exercises chapter  specialized areas c  government health warning  declarations definitions accessibility  typedef  const volatile  sequence points  summary chapter  libraries  introduction  diagnostics  character handling  localization  limits  mathematical functions  nonlocal jumps  signal handling  variable numbers arguments 0 input output  formatted io  character io  unformatted io  random access functions  general utilities  string handling  date time  summary chapter complete programs putting together arguments main interpreting program arguments 0 pattern matching program</t>
   </si>
   <si>
     <t>https://www.amazon.in/Book-C-Pragati-Kumaar-Dhingra/dp/8193969308/ref=sr_1_4?dchild=1&amp;keywords=c+books&amp;qid=1619275243&amp;sr=8-4</t>
@@ -238,7 +238,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41sbWdpTgRL._SX371_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> introduction  characters used c  basic data types  c tokens  input–output statements  structure c program  escape sequence backslash character constants  operators expressions  flow control 0 arrays  structures  functions  io functions  strings  summary multiple choice questions answers exercises answers  pointers  introduction  pointer variables  pointers arrays  array pointers  pointers structures  dynamic allocation  summary multiple choice questions answers exercises answers  programming techniques survey  introduction  unstructured programming  structured programming  drawbacks structured programming  objectoriented programming  summary multiple choice questions answers exercises  classes objects  introduction objects  classes  declaration classes c  creating objects  array objects  objects function arguments  scope resolution operator  static data members  properties classes objects  summary multiple choice questions answers exercises  functions advanced concepts  polymorphism  function overloading  inline functions  friend functions  friend classes  recursion  summary multiple choice questions answers exercises answers  constructors destructors  constructors  types constructors  destructors  summary multiple choice questions answers exercises  inheritance extending classes  introduction code reuse  containership  inheritance  types inheritance  function overriding  role constructors destructors inheritance  virtual base class  summary multiple choice questions answers exercises  templates code sharing genericity  introduction code sharing  templates  generic classes  templates one generic parameter  summary multiple choice questions answers exercises  operator overloading  introduction  operator overloading  binary operators  unary operators  inputoutput operators  rules operator overloading  summary multiple choice questions answers exercises file handling c file concepts  files streams opening closing file text files opening files using function open  reading writing blocks objects binary files  detecting end file</t>
+    <t xml:space="preserve"> characters c basic data types c tokens input output statements structure c program escape sequence backslash character constants operators expressions flow control  arrays structures  functions io functions strings pointers pointer variables pointers arrays array pointers pointers structures dynamic allocation programming techniques unstructured programming structured programming structured programming classes objectsdeclaration classes c objects array objects objects function arguments scope resolution operator static data members properties classes objects  functions advanced concepts polymorphism  function overloading  inline functions  friend functions  friend classes  recursion constructors destructors constructors types constructors inheritance extending classes </t>
   </si>
   <si>
     <t>https://www.amazon.in/Object-Oriented-Programming-C-8th-Balagurusamy/dp/9389949181/ref=sr_1_1?dchild=1&amp;keywords=c%2B%2B+books&amp;qid=1619278895&amp;sr=8-1</t>
@@ -250,7 +250,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51Uqe5PHbML._SX381_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>overview c  expressions  statements  arrays nullterminated strings  pointers  functions  structures unions enumerations userdefined types  cstyle console io  file  preprocessor comments part  c  overview c  classes objects  arrays pointers references dynamic allocation operators  function overloading copy constructors default arguments  operator overloading  inheritance  virtual functions polymorphism  templates  exception handling 0 c io system basics  c file io  runtime type id casting operators  namespaces conversion functions advanced topics  introducing standard template library part  standard function library  cbased io functions  string character functions  mathematical functions  time date localization functions  dynamic allocation functions  utility functions  widecharacter functions part  standard c class library  standard c io classes  stl container classes  stl algorithms  stl iterators allocators function objects  string class  numeric classes  exception handling miscellaneous classes part   applying c  integrating new classes custom string class  objectoriented expression parser</t>
+    <t>overview c expressions statements arrays nullterminated strings pointers functions structures unions enumerations userdefined types cstyle console io file preprocessor comments part c classes objects arrays pointers references dynamic allocation operators function overloading copy constructors default arguments operator overloading  virtual functions polymorphism exception handling c io system basics c file io runtime type id casting operators namespaces conversion functions standard template library part standard function library io functions string character functions mathematical functions localization functions dynamic allocation functions utility functions widecharacter functions part standard c class library standard c io classes stl container classes stl algorithms stl iterators allocators function objects string class numeric classes exception handling applying c new classes custom string class parser</t>
   </si>
   <si>
     <t>https://www.amazon.in/C-Complete-Reference-Herbert-Schildt/dp/007053246X/ref=sr_1_2?dchild=1&amp;keywords=c%2B%2B+books&amp;qid=1619278895&amp;sr=8-2</t>
@@ -262,7 +262,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41lUVTg+ChL._SX357_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> introduction  characters used c  basic data types  c tokens  input–output statements  structure c program  escape sequence backslash character constants  operators expressions  flow control  arrays  structures  functions  io functions  strings  summary multiple choice questions answers exercises answers  pointers  introduction  pointer variables  pointers arrays  array pointers  pointers structures  dynamic allocation  summary multiple choice questions answers exercises answers  programming techniques survey  introduction  unstructured programming  structured programming  drawbacks structured programming  objectoriented programming  summary multiple choice questions answers exercises  classes objects  introduction objects  classes  declaration classes c  creating objects  array objects  objects function arguments  scope resolution operator  static data members  properties classes objects  summary multiple choice questions answers exercises  functions advanced concepts  polymorphism  function overloading  inline functions  friend functions  friend classes  recursion  summary multiple choice questions answers exercises answers  constructors destructors  constructors  types constructors  destructors  summary multiple choice questions answers exercises  inheritance extending classes  introduction code reuse  containership  inheritance  types inheritance  function overriding  role constructors destructors inheritance  virtual base class  summary multiple choice questions answers exercises  templates code sharing genericity  introduction code sharing  templates  generic classes  templates one generic parameter  summary multiple choice questions answers exercises  operator overloading  introduction  operator overloading  binary operators  unary operators  inputoutput operators  rules operator overloading  summary multiple choice questions answers exercises  file handling c  file concepts files streams  opening closing file text files  opening files using function open   reading writing blocks objects binary files  detecting end file  summary multiple choice questions answers exercises  exception handling  introduction  traditional error handling  exception handling c  summary multiple choice questions answers exercises  introduction uml  introduction uml  class diagrams static  use case diagrams static  behavioral diagrams dynamic  implementation diagrams  summary multiple choice questions answers exercises  polymorphism review  polymorphism  taxonomy polymorphism</t>
+    <t>characters c basic data types c tokens input–output structure c program escape sequence backslash character constants operators expressions flow control arrays structures functions io functions strings functions polymorphism function overloading inline functions friend functions friend classes recursion constructors destructors constructors types constructors  destructors extending classes introduction code reuse containership inheritance types function overriding role constructors destructors  virtual base class templates code sharing genericity generic classes parameter operator overloading binary operators unary operators inputoutput operators rules operator overloading file handling c file</t>
   </si>
   <si>
     <t>https://www.amazon.in/Object-Oriented-Programming-C-4e/dp/8131722821/ref=sr_1_3?dchild=1&amp;keywords=c%2B%2B+books&amp;qid=1619278895&amp;sr=8-3</t>
@@ -274,7 +274,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51YkwADIq5L._SX331_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> intro oop  graduating c  functions  classes objects  class intricacies  inheritance  polymorphism  input  output c  advanced features c 0 templates  exception handling  standard template library</t>
+    <t xml:space="preserve"> intro oop  graduating c  functions  classes objects  class intricacies  inheritance  polymorphism  input  output c  advanced features c  templates  exception handling  standard template library</t>
   </si>
   <si>
     <t>https://www.amazon.in/Let-Us-C-Kanetkar-Yashavant/dp/9388176642/ref=sr_1_4?dchild=1&amp;keywords=c%2B%2B+books&amp;qid=1619278895&amp;sr=8-4</t>
@@ -283,7 +283,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41LBD-XtzYL._SX377_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">    introduction chapter  big picture chapter  c programming basics   loops decisions   structures   functions   objects classes   arrays strings   operator overloading chapter  inheritance chapter  pointers chapter  virtual functions chapter  streams files chapter  multifile programs chapter  templates exceptions chapter  standard template library chapter  objectoriented software development appendix ascii chart appendix b c precedence table keywords appendix c microsoft visual  appendix  borland cbuilder appendix  console graphics lite appendix  stl algorithms member functions appendix  answers questions exercises appendix  bibliography index</t>
+    <t>c programming basics loops decisions structures functions objects classes arrays strings operator overloading pointers virtual functions streams files multifile programs templates exceptions standard template library objectoriented software development microsoft visual borland cbuilder console graphics lite stl algorithms member functions</t>
   </si>
   <si>
     <t>https://www.amazon.in/Object-Oriented-Programming-C-Balagurusamy/dp/9352607996/ref=sr_1_5?dchild=1&amp;keywords=c%2B%2B+books&amp;qid=1619278895&amp;sr=8-5</t>
@@ -331,7 +331,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41-W3W0t02L._SX378_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> computers problem solving strategies  introduction object oriented programming  basics python programming  decision control statements  functions  python strings revisited  file handling  data structures  classes objects 0 inheritance polymorphism  operator overloading  error exception handling</t>
+    <t xml:space="preserve"> computers problem solving strategies  introduction python pythonobject oriented programming  basics python programming  decision control statements  functions  python strings revisited  file handling  data structures  classes objects  inheritance polymorphism  operator overloading  error exception handling</t>
   </si>
   <si>
     <t>https://www.amazon.in/Python-Programming-Problem-Solving-Approach/dp/0199480176/ref=sr_1_1?dchild=1&amp;keywords=python+books&amp;qid=1619287976&amp;sr=8-1</t>
@@ -343,7 +343,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51y1U5JPfyL._SX417_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>python integrated objectorientated development language use computer programming text split distinct sections concentrating core angle language book contains sections web application development two popular uses python designed teach programmer use python explaining mechanics python appendixes offer quick guide main features python language additional guides nonessential systems idle development environment general guidelines migrating language</t>
+    <t>python integrated objectorientated development language use computer python pythonprogramming text split distinct sections concentrating core angle language book contains sections web application development two popular uses python designed teach programmer use python explaining mechanics python appendixes offer quick guide main features python language additional guides nonessential systems idle development environment general guidelines migrating language</t>
   </si>
   <si>
     <t>https://www.amazon.in/Python-Complete-Reference-Martin-Brown/dp/9387572943/ref=sr_1_2?dchild=1&amp;keywords=python+books&amp;qid=1619287976&amp;sr=8-2</t>
@@ -355,7 +355,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/41cPyemmgoL._SX331_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> core python programming teaches concept sample programs programming examples practice learn core features python advanced topics regular expressions multithreaded programming web frameworks django flask data visualization introduction network development gui development tkinter</t>
+    <t xml:space="preserve"> core python programming teaches concept sample programs programming examples practice learn python python core features python advanced topics regular expressions multithreaded programming web frameworks django flask data visualization introduction network development gui development tkinter</t>
   </si>
   <si>
     <t>https://www.amazon.in/Learn-Practice-Python-Programming-Ed2/dp/8194633400/ref=sr_1_3?dchild=1&amp;keywords=python+books&amp;qid=1619287976&amp;sr=8-3</t>
@@ -367,7 +367,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51R9msLhVrL._SX352_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>functions recursion iterative statements strings lists tuples dictionaries files exceptions classes objects methods inheritance linked lists stacks queues trees</t>
+    <t>functions recursion iterative statements strings lists tuples dictionaries files exceptions python python classes objects methods inheritance linked lists stacks queues trees</t>
   </si>
   <si>
     <t>https://www.amazon.in/Learning-Python-Allen-Downey/dp/9351198146/ref=sr_1_4?dchild=1&amp;keywords=python+books&amp;qid=1619287976&amp;sr=8-4</t>
@@ -379,7 +379,7 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51VE58GLDdL._SX338_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>data types control flow instructions console inputoutput strings lists  tubes list comprehension sets dictionaries dictionary comprehension functions  lambdas modules classes objects inheritance operator overloading exception handling file inputoutput iterators generators decorators command line parsing</t>
+    <t>data types control flow instructions console inputoutput strings lists  tubes list comprehension sets dictionaries python python dictionary comprehension functions  lambdas modules classes objects inheritance operator overloading exception handling file inputoutput iterators generators decorators command line parsing</t>
   </si>
   <si>
     <t>https://www.amazon.in/Let-Us-Python-Yashavant-Kanetkar/dp/9388511565/ref=sr_1_5?dchild=1&amp;keywords=python+books&amp;qid=1619287976&amp;sr=8-5</t>
@@ -499,46 +499,46 @@
     <t>https://m.media-amazon.com/images/I/51sprJ24mJL.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">walmart big data used drive supermarket performance  cern unravelling secrets universe big data  netflix used big data give us programmes want   rollsroyce big data used drive success manufacturing   shell big oil uses big data   apixio big data transforming healthcare   lotus f team big data essential success motorsport teams   pendleton  son butchers big data small business   us olympic womens cycling team big data analytics used optimize athletes performance zsl big data zoo protect animals   facebook facebook use big data understand customers   john deere big data applied farms   royal bank scotland using big data customer service personal   linkedin big data used fuel social media success   microsoft bringing big data masses   acxiom fuelling marketing big data immigration customs big data used keep passengers safe prevent terrorism   nest bringing internet things home  big data fueling industrial internet   etsy big data used crafty narrative science big data used tell storiebbc big data used media  milton keynes big data used create smarter cities   palantir big data used help cia detect bombs afghanistan   airbnb big data used disrupt hospitality industry   sprint profiling audiences using mobile network data   dickeys barbecue pit big data used gain performance insights one americas successful restaurant chains   caesars big data casino   fitbit big data personal fitness arena  0 ralph lauren big data fashion industry   zynga big data gaming industry   autodesk big data transforming software industry  walt disney parks resorts big data transforming family holidays   experian using big data lending decisions crack down identity fraud   transport london big data used improve manage public transport london   us government using big data run country   ibm watson teaching computers understand learn   google big data heart googles business model   terra seismic using big data predict earthquakes  apple big data centre business   twitter twitter ibm deliver customer insights big data   uber big data centre ubers transportation business   electronic arts big data video gaming   kaggle crowdsourcing data scientist  predictive analytics used degree view consumers </t>
+    <t>Big Data company MongoDB Hadoop MapReduce NoSQL Practice Organizations</t>
   </si>
   <si>
     <t>https://www.amazon.in/Big-Data-Practice-Successful-Extraordinary-ebook/dp/B01DCOYDUS/ref=sr_1_8?crid=1FHTHZ4SWSOX1&amp;dchild=1&amp;keywords=big+data+books&amp;qid=1619359567&amp;sprefix=big+data%2Caps%2C292&amp;sr=8-8</t>
   </si>
   <si>
-    <t>HISTORY OF FREEDOM STRUGGLE OF INDIA</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/411XZgs7-sL._SX324_BO1,204,203,200_.jpg</t>
-  </si>
-  <si>
-    <t>Indian History</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/HISTORY-FREEDOM-STRUGGLE-INDIA-Srivastava/dp/8180904121/ref=sr_1_2_sspa?dchild=1&amp;keywords=history+books&amp;qid=1620742282&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQ0I5NDRKM0FFS0xHJmVuY3J5cHRlZElkPUEwODkxMTM5NjFWNlUwN1hNU1hIJmVuY3J5cHRlZEFkSWQ9QTA0NDkxODgxNzdBSVBXWTNUSjZaJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
-  </si>
-  <si>
-    <t>Ancient and Medieval India(New edition)</t>
+    <t>History of Modern India</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/P/B07GWLQ26H.01._SCLZZZZZZZ_SX500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">history modern india book british india nationalist movement colonialism modern india historian bipan chandra contents colonialism nationalism country historians indian states society eighteenth century religious social reform struggle sawaraj nationalist movement european penetration british conquest social cultural awakening first half nineteenth century decline mughal empire revolt nationalist movement administrative changes  administrative organisation society cultural policy economic religious social india events modern indian establishment british east india company british india colonial rule exploit india means investment trade british rule independence country piece literature modern india </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/History-Modern-India-Bipan-Chandra/dp/8125036849</t>
+  </si>
+  <si>
+    <t>A Brief History of Modern India</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/518saTcnTvL._SX330_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>history modern india advent europeans consolidation british power india british conquest british power india resentment company rule british revolt reform movements socioreligious reform movements beginning modern nationalism india national congress national movement era militant nationalism first phase revolutionary activitiesfirst world war nationalist response unit  era mass nationalism gandhi noncooperation movement khilafat aandolan  swarajists socialist ideas revolutionary activities new forces simon commission nehru report civil disobedience movement round table conferences civil disobedience congress rule provinces freedom partition nationalist response world war ii quit india movement pakistan postwar national scenario independence development education chapter peasant movements working classindependence newborn nation indian states constitution india evolution nationalist foreign policy  first general elections developments nehrus leadership  chapter  nehru   appendices  personalities associated specific movements swadeshi movement noncooperation movement civil disobedience movement quit india movement  governorsgeneral viceroys india significant events rule  indian national congress annual sessions  socioreligious reform movementslate th mid0th century  famous trials nationalist period caste movements peasant movements newspapers journals</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Brief-History-Modern-2019-2020-Spectrum/dp/8179307212/ref=sr_1_3?dchild=1&amp;keywords=history&amp;qid=1621494949&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Ancient and Medieval India</t>
   </si>
   <si>
     <t>https://images-na.ssl-images-amazon.com/images/I/51OhBliQUjL._SX377_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">prehistoric india   harappan civilisation bronze age vedic age rig vedic later vedic  mahajanapadas indogangetic plain bce   buddhism jainism   maurya empire bce   political cultural developments during guptas vakatakas early medieval india age regional configurations  period  northern india   delhi sultanate  provincial kingdoms medieval india   mughals later mughals marathas provincial kingdoms   bhakti important religious movements   coming europeans  </t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Ancient-Medieval-India-Poonam-Dahiya/dp/9390113644/ref=sr_1_4?dchild=1&amp;keywords=history+books&amp;qid=1620742282&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Sapiens: A Brief History of Humankind</t>
-  </si>
-  <si>
-    <t>https://images-eu.ssl-images-amazon.com/images/I/41yu2qXhXXL._SY264_BO1,204,203,200_QL40_FMwebp_.jpg</t>
-  </si>
-  <si>
-    <t>science  life sciences  evolution history  civilization history  world</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Sapiens-Humankind-Yuval-Noah-Harari/dp/0099590085/ref=sr_1_5?dchild=1&amp;keywords=history+books&amp;qid=1620742282&amp;sr=8-5</t>
+    <t>prehistoric india harappan civilisation bronze age vedic age rig vedic mahajanapadas indogangetic plain buddhism jainism maurya empire political cultural developments during guptas vakatakas medieval india age regional configurations northern india delhi sultanate provincial kingdoms medieval india mughals mughals marathas provincial kingdoms bhakti religious movements europeans</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Ancient-Medieval-India-Poonam-Dahiya/dp/9390113644/ref=sr_1_8?dchild=1&amp;keywords=history&amp;qid=1621494949&amp;sr=8-8</t>
   </si>
   <si>
     <t>Indians: A Brief History of a Civilization</t>
@@ -547,46 +547,22 @@
     <t>https://images-na.ssl-images-amazon.com/images/I/51Q+5t6yN-L._SX307_BO1,204,203,200_.jpg</t>
   </si>
   <si>
-    <t>aryan migration theory debate so hot  people khajuraho carve erotic scenes temple walls monks nalanda eat dinner ideals beauty ever prefer dark skin indian civilization idea reality enigma</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Indians-History-Civilization-Namit-Arora/dp/0670090433/ref=sr_1_6?dchild=1&amp;keywords=history+books&amp;qid=1620742282&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Modern Indian History - Second Edition | For Civil Services Preliminary and Main</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51rZWBi39sL._SX378_BO1,204,203,200_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part colonial rule its impact  establishment british rule india  colonial economy  resistance colonial rule  sociocultural impact colonial rule india  economy  part ii indias struggle independence  early indian nationalism  interwar economy india  nationalism gandhi's leadership  strands national movement towards freedom </t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Modern-Indian-History-Preliminary-Examinations/dp/9390185750/ref=sr_1_12_sspa?dchild=1&amp;keywords=history+books&amp;qid=1620744198&amp;sr=8-12-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVFU2V0Y1NjBOMDZPJmVuY3J5cHRlZElkPUEwMDI0NDI4MUhWTjdXTTdPTFZQVCZlbmNyeXB0ZWRBZElkPUEwODI4Mzk2RzNWRVNOTVQ4UU5PJndpZGdldE5hbWU9c3BfbXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
-  </si>
-  <si>
-    <t>NTA UGC NET History Paper 2</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51bAPqopJEL._SX395_BO1,204,203,200_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entire syllabus revised edition divided  complete  theory syllabus accommodated recent changes  book concentrates theoretical practical parts equally  provides   designed according pattern suggested council  mock tests given practice university grants commission national eligibility test ugc net recently released notification assistant professor junior research fellowship jrf candidates appearing exam good grip subject presenting current edition prepared according updated syllabus applicable june  onwards book divided  chapters giving complete coverage syllabus every chapter book explained along latest facts  figures helping candidates better understanding subject besides theories solved papers model test papers given thorough practice features will ladder success preparation will open great future possibilities aspirants ancient history medieval india modern history </t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/NTA-UGC-NET-History-Paper/dp/9325296063/ref=sr_1_14?dchild=1&amp;keywords=history+books&amp;qid=1620744198&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>A Short History of the World</t>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/I/51Yt3WjnJbL._SX321_BO1,204,203,200_.jpg</t>
-  </si>
-  <si>
-    <t>story world story imperfectly known beginnings life spanning across age mammals evolving monkeys apes submen neanderthaler early days human adventure beginnings cultivations priests sages kings wars conquests material knowledge revolutions reconstruction world story life began evolved</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Short-History-World-H-Wells/dp/8175993197/ref=sr_1_15?dchild=1&amp;keywords=history+books&amp;qid=1620744198&amp;sr=8-15</t>
+    <t>lost worlds india mysteries dholavira megastheness india nagarjunakonda faxian xuanzang yijing india nalanda alberunis india enigma khajuraho marco polos india innovations vijayanagar hampi françois berniers india faiths varanasi indian history</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Indians-History-Civilization-Namit-Arora/dp/0670090433/ref=sr_1_10?dchild=1&amp;keywords=history&amp;qid=1621494949&amp;smid=AT95IG9ONZD7S&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>India's Struggle for Independence: 1857-1947</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51TD21I5k1L._SX317_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>revolt civil rebellions tribal uprisings peasant movements uprisings foundation congress myth foundation indian national congress reality socioreligious reforms national awakening economic critique colonialism fight press freedom propaganda legislatures swadeshi movement split congress revolutionary terrorism  world war indian nationalism ghadar home rule movement gandhiji‘s career activism noncooperation movement peasant movements nationalism indian working class national movement gurdwara reform temple years stagnation swarajists nochangers gandhiji bhagat singh surya sen revolutionary terrorists civil disobedience karachi wardha leftwing strategic debate twentyeight months congress rule peasant movements freedom struggle princely indian capitalists national movement nationalist foreign policy rise growth communalism  liberal phase jinnah golwalkar extreme communalism  crisis tripuri cripps mission quit india movement postwar national upsurge freedom partition strategy national movement indian national movement ideological</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Indias-Struggle-Independence-Bipan-Chandra/dp/0140107819</t>
   </si>
   <si>
     <t>Taxmann's Corporate Laws (Set of 2 Volumes) – The Most Authentic and Comprehensive Book on Corporate Laws in India</t>
@@ -623,13 +599,73 @@
   </si>
   <si>
     <t>https://www.amazon.in/Basics-Medical-Physiology-4-Venkatesh/dp/9387506533/ref=sr_1_1_sspa?crid=YCX2FMXUKBD2&amp;dchild=1&amp;keywords=psychology+books&amp;qid=1620744749&amp;sprefix=psychology%2Caps%2C283&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExM1NQRjkwSDkzUkU5JmVuY3J5cHRlZElkPUEwMjQ4OTIzUUxTTTQ1UU5UQVNYJmVuY3J5cHRlZEFkSWQ9QTA1MDYyMDAzTVdLUjFBSkhUUDlVJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
+  </si>
+  <si>
+    <t>Indian and World Geography For Civil Services Preliminary and Main Examinations</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51Fdqv1Mn2L._SX379_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geography universe solar system geomorphology earths four spheres interior earth rocks continental drift theory plate tectonics continental relief volcano earthquakes denudation climatology atmosphere atmospheric pressure atmospheric circulation horizontal distribution air pressure meridional circulation moisture atmosphere oceanography oceans biogeography biosphere ecosphere ecosystems earth soil system facts continents countries age dimensions earth africa antarctica asia australia oceania europe north america south america largest islands ocean trenches highest dams mega cities geography resource concept types energy resources mineral resources industrial regions agriculture feeding agricultural regions fishing forestry human geography first people major tribes indigenous people africa indigenous people asia indigenous people australia new zealand indigenous people eurasia indigenous people north america indigenous people south america population patterns international trade organisation indians geography indias physical size location drainage india major mountain passes india monsoon natural vegetation soils india water resources india natural hazards power resources mineral resources cotton textile industry iron steel industry national highways international trade indians population growth population sex ratio literacy rate religious composition major scheduled tribes india human globalization indian society land reforms watershed management sustainable agriculture ecofarming social forestry agroforestry programmes rural india sericulture india apiculture golden revolution marketing agricultural products india indian states union territories union territories    </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Indian-Geography-Services-Preliminary-Examinations/dp/938953822X/ref=sr_1_3?dchild=1&amp;keywords=geography+books&amp;qid=1621572989&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Geography of India - 9th Edition</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51AzMR4LumL._SX380_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geological structure formation india archaean formations precambrian dharwar system proterozoic formations cuddapah system purana group vindhyan system palaeozoic group cambrian carboniferous mesozoic era gondwana system cretaceous system deccan trap tertiary system cenozoic era quaternary pleistocene recent formations geodiversity geotourism fossil parks physiography physiographic divisions india himalayan region importance himalaya plains india importance great plains indian desert physiography peninsular india coastal plains indian islands vulcanicity drainage system india drainage system drainage patterns river basins india multiple river theory river systems himalayan drainage rivers peninsular india easterly rivers peninsular region shifting courses rivers saraswatithe mystery lost river types lakes lakes india interstate water disputes international agreements surface water resources national water grid ground water resources india national water policy waterfalls india  climate india indian monsoon indian monsoons tibet plateau jet stream indian monsoon elnino indian monsoon burst monsoon breaks monsoon seasons india tropical cyclones thunderstorms rainfall distribution variability rainfall climatic regions india koppens classification indian climate climatic divisions stamp kendrew trewarthas classification indian climate climatic divisions india rl singh droughts floods natural vegetation national parks floristic regions india spatial distribution forests india classification forests important species trees utility forest products utility problems indian forestry national forest policy social forestry existing position forest ecosystems forest conservation wildlife biosphere reserves mangroves soils controllers soil classification soils india problems indian soils consequences soil erosion soil conservation resources natural resources mineral resources biotic resources energy resources sources conventional energy coal deposits tertiary import nonconventional energy crisis energy conservation agriculture land utilisation problems indian agriculture determinants agriculture land reforms infrastructure agricultural inputs second green revolution white revolution blue revolution aquaculture apiculture beekeeping golden revolution sericulture poultry farming silver revolution horticulture dry farming agribusiness national commission farmers indian agriculture challenges prospects spatial organisation agriculture cropping patterns crop concentration agricultural productivity agricultural intensity crop combinations land capability contract farming agricultural regionalisation agroclimatic regions india agroecological regions india industries evolution industries industrial during fiveyear plans industrial policy cotton textile industry jute textile woollen textiles silk textile iron steel industry problems iron steel industry automobile industry fertiliser industry paper industry pharmaceutical industry cottage industries industrial regions india multinational corporations liberalisation industrial problems india special zone public sector undertaking tourism india ecotourism community ecotourism initiative native psychosocial impact ecotourism industrial houses india industrial complexes transport communications trade transport water transport air transport pipelines transportation metro rail system communications international trade salient features foreign trade balance trade balance payment trade policy indiaspace programme cultural setting origin mankind caste system racial ethnic diversity india minorities scheduled tribes scheduled castes total population cultural regions demographic indian population literacy rate age composition migration population problems health indicators human index india settlements classification settlements city region planning slums associated problems problems town planning india principles regional planning  fiveyear plans regional dimensions planning india integrated area integrated rural programme irdp backward areas command area watershed management area programmes national watershed project rainfed areas rainfed area programme radp multilevel planning damodar valley corporation national capital region national capital region poverty india geography regional planning regional planning island territories india–political aspects political geography structure indian federation regional consciousness national integration national integration india nationalism international boundaries india cross border terrorism indias role geopolitics south asia india geopolitics indian ocean contemporary issues environmental hazards natural disasters environmental pollution environmental awareness changes patterns land use environmental impact assessment environmental management population explosion food security disasters environmental degradation problems agrarian unrest industrial unrest regional disparities relationship population globalisation indian economy agriculture globalisation  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Geography-india-9th-Majid-Husain/dp/9390185718/ref=sr_1_4?dchild=1&amp;keywords=geography+books&amp;qid=1621572989&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>India A Comprehensive Geography</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/41ZyUVimq5L._SX385_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">land geological structure physiography drainage climate vegetation wildlife soils natural hazards disasters environment people natural population composition migration patterns rural settlements trends urbanization human development part economy water resources irrigation multipurpose projects livestock fisheries land utilization agriculture green revolution major crops mineral resources energy resources manufacturing industries transport foreign trade tourism                  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/India-Comprehensive-Geography-D-Khullar/dp/9327291484/ref=sr_1_2?dchild=1&amp;keywords=geography+of+india&amp;qid=1621573636&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Indian Polity - For Civil Services and Other State Examinations | 6th Edition</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51rKNmuSrsL._SX384_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constitutional framework historical background company rule crown rule constitution demand constituent assembly composition constituent assembly constituent committees enactment constitution enforcement constitution experts committee congress criticism constituent assembly important facts hindi text constitution salient constitution criticism constitution preamble constitution text preamble ingredients preamble key words preamble amendability preamble union territory union parliaments power reorganise exchange territories bangladesh evounion territories citizenship meaning constitutional provisions citizenship act single citizenship overseas citizenship india fundamental rights fundamental rights definition state laws inconsistent fundamental rights right equality right freedom right against exploitation right freedom religion cultural educational rights constitutional remedies writetypes scope armed forces fundamental rights martial law fundamental rights effecting certain fundamental rights present position right property exceptions fundamental rights criticism fundamental rights fundamental rights directive principles state policy directive principles classification directive principles sanction behind criticism directive principles utility directive principles conflict fundamental rights implementation fundamental duties swaran singh committee recommendations list fundamental fundamental duties criticism fundamental duties fundamental duties verma committee observations amendment constitution procedure amendment amendments criticism amendment procedure basic structure constitution emergence basic structure elements basic structure system government parliamentary system parliamentary government presidential government merits parliamentary system demerits parliamentary system reasons parliamentary system distinction indian british models federal constitution unitary constitution critical evaluation federal system centre–state relations legislative relations administrative relations financial relations trends centre–state relations interstate water disputes interstate councils public acts records judicial proceedings interstate trade commerce zonal councils emergency provisions national emergency presidents rule financial emergency criticism emergency provisions central government president election president qualifications oath term impeachment vacancy powers functions president veto power president ordinancemaking power president pardoning power president constitutional position president vicepresident election qualifications oath term vacancy powers functions indian american vicepresidents compared prime minister appointment prime minister oath term salary powers functions prime minister role descriptions relationship president chief ministers became prime ministers central council ministers constitutional provisions nature advice ministers appointment ministers oath salary ministers responsibility ministers composition council ministers council ministers vs cabinet role cabinet role kitchen cabinet committees cabinet committees list functions groups ministers parliament organisation parliament composition two houses system elections lok sabha duration two houses membership parliament presiding officers parliament leaders parliament sessions parliament devices parliamentary proceedings legislative procedure parliament joint sitting two houses budget parliament multifunctional role parliament ineffectiveness parliamentary control position rajya sabha parliamentary privileges sovereignty parliament parliamentary committees meaning classification financial committees departmental standing committees inquire committees scrutinise control committees relating daytoday business house housekeeping committees consultative committees parliamentary establishment composition forums functions forums parliamentary rationale composition objectives group functions group group ipu group cpa supreme court composition appointment qualifications oath salaries tenure removal acting adhoc retired judges seat procedure independence supreme court jurisdiction powers supreme court supreme court advocates judicial meaning judicial importance judicial constitutional provisions judicial scope judicial review judicial schedule judicial activism meaning judicial activism judicial review judicial activism justification judicial activism activators judicial activism apprehensions judicial activism judicial activism vs judicial restraint notes references public interest litigation meaning admitting pil state government appointment governor governors office 0contents xxv term governors office powers functions governor constitutional position governor chief minister appointment chief minister path term salary powers functions chief minister relationship governor state council ministers constitutional provisions nature advice ministers appointment ministers oath salary ministers responsibility ministers composition council ministers cabinet state legislature organisation state legislature composition two houses duration two houses membership state legislature presiding officers state legislature sessions state legislature legislative procedure state legislature position legislative council privileges state legislature high court composition appointment qualifications oath salaries tenure removal transfer acting additional retired judges independence high court jurisdiction powers high court administrative tribunals tribunals matters subordinate courts constitutional provisions structure jurisdiction national legal services authoritylok adalats permanent lok adalats family courts gram nyayalayas special provisions states provisions maharashtra gujarat provisions nagaland provisions assam manipur provisions andhra pradesh telangana provisions sikkim provisions mizoram provisions arunachal pradesh goa provisions karnataka local government panchayati raj panchayati raj rd amendment act compulsory voluntary provisions pesa act extension act finances panchayati raj reasons ineffective performance municipalities bodies governments municipal personnel municipal revenue central council local government partvi union territories special areas union territories creation special provisions delhi advisory committees union territories notes references scheduled tribal areas scheduled areas tribal areas constitutional bodies election composition independence powers functions vision mission principles notes references union public servicecompositioncremoval independence functions role state public service removal independence limitation joint state public service commission finance advisory role goods services tax council establishment council vision mission council composition council working national report national bcs establishment functions report powers special officer linguistic minorities constitutional provisions commissioner linguistic minorities role vision mission functions objectives comptroller auditor general india appointment term independence duties powers corporations applebys criticism attorney general india appointment term duties functions rights solicitor general india notes references advocate general state appointment term duties functions partviii nonconstitutional bodies niti aayog establishment rationale composition specialised wings cooperative federalism offices erstwhile planning commission national council notes references national human rights establishmentstate human rights composition functions human rights courts amendment act notes references central information tenure service powers functions state information tenure service powers functions rti amendment central vigilance establishment composition organisation functions jurisdiction working vigilance units ministries whistle blowers act central bureau investigation establishment cbi motto mission vision cbi organisation cbi composition cbi functions cbi provision prior permission cbi vs state police cbi academy lokpal lokayuktas global scenario position india lokpal lokpal lokayuktas act lokayuktas national investigation agency establishment nia rationale nia functions nia vision nia mission nia jurisdiction nia nia amendment act national disaster management authority establishment ndma objectives ndma functions ndma additional functions ndma state disaster management authority district disaster management authority partix constitutional dimensions cooperative societies constitutional provisions reasons amendment official regional judiciary texts laws special directives committee parliament official language classical status public services classification services constitutional provisions rights liabilities government property union states suits against government public officials special provisions relating certain classes rationale special provisions specification classes components special provisions partx political dynamics political parties meaning types party system india recognition national state parties role regional parties regional parties classification regional parties regional parties role regional parties dysfunctions regional parties elections electoral system election machinery election process election laws representation people act representation people act delimitation acts relating elections rules relating elections orders relating elections electoral reforms committees related electoral reforms electoral reforms electoral reforms electoral reforms electoral reforms voting behaviour meaning voting behaviour voting behaviour determinants voting behaviour role media elections voting behaviour coalition government meaning coalition government government formation coalition governments merits coalition demerits coalition government antidefection law provisions act evaluation meaning techniques pressure groups india meaning national integration obstacles national integration council national communal harmony foreign policy principles indian foreign policy objectives indian foreign policy gujral doctrine india nuclear doctrine india connect central asia policy india act east policy india contents working constitution national perception recommendations union state concurrent recedence constitutional amendments glance presidents vicepresidents prime ministers chairpersons national commission indian polity general  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Indian-Polity-Civil-Services-Examinations/dp/B07Y3CJJCR/ref=sr_1_3?dchild=1&amp;keywords=indian+polity&amp;qid=1621574302&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Objective Indian Polity</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/51ZPDvLvxEL._SX376_BO1,204,203,200_.jpg</t>
+  </si>
+  <si>
+    <t>constitutional framework two system government central government state government local government union territories special areas constitutional bodies nonconstitutional bodies constitutional dimensions political dynamics working constitution model</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Objective-Indian-Polity-General-Studies/dp/9339220838/ref=sr_1_3?crid=JNKVFB2FR7NK&amp;dchild=1&amp;keywords=objective+indian+polity&amp;qid=1621574698&amp;sprefix=objective+indian+pol%2Caps%2C319&amp;sr=8-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -639,7 +675,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="9.0"/>
@@ -685,13 +720,16 @@
       <name val="Merriweather"/>
     </font>
     <font>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="ProximaNova"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="10.0"/>
       <color rgb="FF0F1111"/>
       <name val="Arial"/>
     </font>
@@ -701,12 +739,24 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF4D5156"/>
+      <sz val="10.0"/>
+      <color rgb="FF0F1111"/>
+      <name val="&quot;Amazon Ember&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF0F1111"/>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF007185"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF4D5156"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -730,26 +780,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -758,11 +814,11 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -771,7 +827,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -782,31 +838,37 @@
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1154,7 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1103,7 +1165,7 @@
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1120,13 +1182,13 @@
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1143,7 +1205,7 @@
       <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1160,7 +1222,7 @@
       <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1171,13 +1233,13 @@
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1188,13 +1250,13 @@
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -1205,13 +1267,13 @@
       <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1222,7 +1284,7 @@
       <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1245,7 +1307,7 @@
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1256,13 +1318,13 @@
       <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1273,13 +1335,13 @@
       <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1290,13 +1352,13 @@
       <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1307,13 +1369,13 @@
       <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1324,13 +1386,13 @@
       <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1341,13 +1403,13 @@
       <c r="A19" s="3">
         <v>18.0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1358,13 +1420,13 @@
       <c r="A20" s="3">
         <v>19.0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1375,13 +1437,13 @@
       <c r="A21" s="3">
         <v>20.0</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1392,13 +1454,13 @@
       <c r="A22" s="3">
         <v>21.0</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1409,13 +1471,13 @@
       <c r="A23" s="3">
         <v>22.0</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1426,13 +1488,13 @@
       <c r="A24" s="3">
         <v>23.0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1443,13 +1505,13 @@
       <c r="A25" s="3">
         <v>24.0</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1460,13 +1522,13 @@
       <c r="A26" s="3">
         <v>25.0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1477,7 +1539,7 @@
       <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -1494,13 +1556,13 @@
       <c r="A28" s="3">
         <v>27.0</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1511,7 +1573,7 @@
       <c r="A29" s="3">
         <v>28.0</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1528,7 +1590,7 @@
       <c r="A30" s="3">
         <v>29.0</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1545,7 +1607,7 @@
       <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1562,13 +1624,13 @@
       <c r="A32" s="3">
         <v>31.0</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="8" t="s">
         <v>126</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1579,13 +1641,13 @@
       <c r="A33" s="3">
         <v>32.0</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -1596,13 +1658,13 @@
       <c r="A34" s="3">
         <v>33.0</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -1613,13 +1675,13 @@
       <c r="A35" s="3">
         <v>34.0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="12" t="s">
         <v>138</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -1630,13 +1692,13 @@
       <c r="A36" s="3">
         <v>35.0</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="17" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -1647,13 +1709,13 @@
       <c r="A37" s="3">
         <v>36.0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -1664,13 +1726,13 @@
       <c r="A38" s="3">
         <v>37.0</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -1681,13 +1743,13 @@
       <c r="A39" s="3">
         <v>38.0</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1698,13 +1760,13 @@
       <c r="A40" s="3">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>156</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -1715,13 +1777,13 @@
       <c r="A41" s="3">
         <v>40.0</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -1732,16 +1794,16 @@
       <c r="A42" s="3">
         <v>41.0</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="20" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1749,16 +1811,16 @@
       <c r="A43" s="3">
         <v>42.0</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="20" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1766,16 +1828,16 @@
       <c r="A44" s="3">
         <v>43.0</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="20" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1783,16 +1845,16 @@
       <c r="A45" s="3">
         <v>44.0</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="20" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1800,30 +1862,30 @@
       <c r="A46" s="3">
         <v>45.0</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="24">
         <v>46.0</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -1831,16 +1893,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="24">
         <v>47.0</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>188</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -1848,16 +1910,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="24">
         <v>48.0</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>192</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="25" t="s">
         <v>194</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -1865,4803 +1927,4819 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="24">
         <v>49.0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="20" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="24">
         <v>50.0</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="24">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="21"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="24">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="21"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="24">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="21"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="22"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="21"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="22"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="21"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="22"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="21"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="22"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="21"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="3"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="21"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="5"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
     </row>
     <row r="61">
-      <c r="A61" s="21"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="5"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
     </row>
     <row r="62">
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="24"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
     </row>
     <row r="63">
-      <c r="C63" s="24"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="24"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64">
-      <c r="C64" s="24"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="24"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
     </row>
     <row r="65">
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="24"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
     </row>
     <row r="66">
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="24"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
     </row>
     <row r="67">
-      <c r="C67" s="24"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="24"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
     </row>
     <row r="68">
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="24"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
     </row>
     <row r="69">
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="24"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="70">
-      <c r="C70" s="24"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="24"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71">
-      <c r="C71" s="24"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="24"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
     </row>
     <row r="72">
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="24"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
     </row>
     <row r="73">
-      <c r="C73" s="24"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="24"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
     </row>
     <row r="74">
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="24"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
     </row>
     <row r="75">
-      <c r="C75" s="24"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="24"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
     </row>
     <row r="76">
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="24"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
     </row>
     <row r="77">
-      <c r="C77" s="24"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="24"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
     </row>
     <row r="78">
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="24"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
     </row>
     <row r="79">
-      <c r="C79" s="24"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="24"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
     </row>
     <row r="80">
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="24"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
     </row>
     <row r="81">
-      <c r="C81" s="24"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="24"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
     </row>
     <row r="82">
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="24"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
     </row>
     <row r="83">
-      <c r="C83" s="24"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="24"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
     </row>
     <row r="84">
-      <c r="C84" s="24"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="24"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
     </row>
     <row r="85">
-      <c r="C85" s="24"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="24"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
     </row>
     <row r="86">
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="24"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
     </row>
     <row r="87">
-      <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="24"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
     </row>
     <row r="88">
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="24"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
     </row>
     <row r="89">
-      <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="24"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
     </row>
     <row r="90">
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="24"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
     </row>
     <row r="91">
-      <c r="C91" s="24"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="24"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
     </row>
     <row r="92">
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="24"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
     </row>
     <row r="93">
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="24"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
     </row>
     <row r="94">
-      <c r="C94" s="24"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="24"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
     </row>
     <row r="95">
-      <c r="C95" s="24"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="24"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
     </row>
     <row r="96">
-      <c r="C96" s="24"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="24"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
     </row>
     <row r="97">
-      <c r="C97" s="24"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="24"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
     </row>
     <row r="98">
-      <c r="C98" s="24"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="24"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
     </row>
     <row r="99">
-      <c r="C99" s="24"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="24"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
     </row>
     <row r="100">
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="24"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
     </row>
     <row r="101">
-      <c r="C101" s="24"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="24"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
     </row>
     <row r="102">
-      <c r="C102" s="24"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="24"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
     </row>
     <row r="103">
-      <c r="C103" s="24"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="24"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
     </row>
     <row r="104">
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="24"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
     </row>
     <row r="105">
-      <c r="C105" s="24"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="24"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
     </row>
     <row r="106">
-      <c r="C106" s="24"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="24"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
     </row>
     <row r="107">
-      <c r="C107" s="24"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="24"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
     </row>
     <row r="108">
-      <c r="C108" s="24"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="24"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
     </row>
     <row r="109">
-      <c r="C109" s="24"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="24"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
     </row>
     <row r="110">
-      <c r="C110" s="24"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="24"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
     </row>
     <row r="111">
-      <c r="C111" s="24"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="24"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
     </row>
     <row r="112">
-      <c r="C112" s="24"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="24"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113">
-      <c r="C113" s="24"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="24"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
     </row>
     <row r="114">
-      <c r="C114" s="24"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="24"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
     </row>
     <row r="115">
-      <c r="C115" s="24"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="24"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
     </row>
     <row r="116">
-      <c r="C116" s="24"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="24"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
     </row>
     <row r="117">
-      <c r="C117" s="24"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="24"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
     </row>
     <row r="118">
-      <c r="C118" s="24"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="24"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
     </row>
     <row r="119">
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="24"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
     </row>
     <row r="120">
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="24"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
     </row>
     <row r="121">
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="24"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
     </row>
     <row r="122">
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="24"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
     </row>
     <row r="123">
-      <c r="C123" s="24"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="24"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
     </row>
     <row r="124">
-      <c r="C124" s="24"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="24"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
     </row>
     <row r="125">
-      <c r="C125" s="24"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="24"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
     </row>
     <row r="126">
-      <c r="C126" s="24"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="24"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
     </row>
     <row r="127">
-      <c r="C127" s="24"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="24"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
     </row>
     <row r="128">
-      <c r="C128" s="24"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="24"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
     </row>
     <row r="129">
-      <c r="C129" s="24"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="24"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
     </row>
     <row r="130">
-      <c r="C130" s="24"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="24"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
     </row>
     <row r="131">
-      <c r="C131" s="24"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="24"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
     </row>
     <row r="132">
-      <c r="C132" s="24"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="24"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
     </row>
     <row r="133">
-      <c r="C133" s="24"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="24"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
     </row>
     <row r="134">
-      <c r="C134" s="24"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="24"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
     </row>
     <row r="135">
-      <c r="C135" s="24"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="24"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
     </row>
     <row r="136">
-      <c r="C136" s="24"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="24"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
     </row>
     <row r="137">
-      <c r="C137" s="24"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="24"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
     </row>
     <row r="138">
-      <c r="C138" s="24"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="24"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
     </row>
     <row r="139">
-      <c r="C139" s="24"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="24"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
     </row>
     <row r="140">
-      <c r="C140" s="24"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="24"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
     </row>
     <row r="141">
-      <c r="C141" s="24"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="24"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
     </row>
     <row r="142">
-      <c r="C142" s="24"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="24"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
     </row>
     <row r="143">
-      <c r="C143" s="24"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="24"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
     </row>
     <row r="144">
-      <c r="C144" s="24"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="24"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
     </row>
     <row r="145">
-      <c r="C145" s="24"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="24"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
     </row>
     <row r="146">
-      <c r="C146" s="24"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="24"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
     </row>
     <row r="147">
-      <c r="C147" s="24"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="24"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
     </row>
     <row r="148">
-      <c r="C148" s="24"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="24"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
     </row>
     <row r="149">
-      <c r="C149" s="24"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="24"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
     </row>
     <row r="150">
-      <c r="C150" s="24"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="24"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
     </row>
     <row r="151">
-      <c r="C151" s="24"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="24"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
     </row>
     <row r="152">
-      <c r="C152" s="24"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="24"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
     </row>
     <row r="153">
-      <c r="C153" s="24"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="24"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
     </row>
     <row r="154">
-      <c r="C154" s="24"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="24"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="29"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155">
-      <c r="C155" s="24"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="24"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="29"/>
+      <c r="E155" s="29"/>
     </row>
     <row r="156">
-      <c r="C156" s="24"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="24"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
     </row>
     <row r="157">
-      <c r="C157" s="24"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="24"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="29"/>
+      <c r="E157" s="29"/>
     </row>
     <row r="158">
-      <c r="C158" s="24"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="24"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
     </row>
     <row r="159">
-      <c r="C159" s="24"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="24"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
     </row>
     <row r="160">
-      <c r="C160" s="24"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="24"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="29"/>
+      <c r="E160" s="29"/>
     </row>
     <row r="161">
-      <c r="C161" s="24"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="24"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
     </row>
     <row r="162">
-      <c r="C162" s="24"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="24"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
     </row>
     <row r="163">
-      <c r="C163" s="24"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="24"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164">
-      <c r="C164" s="24"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="24"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="29"/>
+      <c r="E164" s="29"/>
     </row>
     <row r="165">
-      <c r="C165" s="24"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="24"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166">
-      <c r="C166" s="24"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="24"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="29"/>
+      <c r="E166" s="29"/>
     </row>
     <row r="167">
-      <c r="C167" s="24"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="24"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
     </row>
     <row r="168">
-      <c r="C168" s="24"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="24"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="29"/>
+      <c r="E168" s="29"/>
     </row>
     <row r="169">
-      <c r="C169" s="24"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="24"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
     </row>
     <row r="170">
-      <c r="C170" s="24"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="24"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
     </row>
     <row r="171">
-      <c r="C171" s="24"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="24"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
     </row>
     <row r="172">
-      <c r="C172" s="24"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="24"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173">
-      <c r="C173" s="24"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="24"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
     </row>
     <row r="174">
-      <c r="C174" s="24"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="24"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
     </row>
     <row r="175">
-      <c r="C175" s="24"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="24"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="29"/>
+      <c r="E175" s="29"/>
     </row>
     <row r="176">
-      <c r="C176" s="24"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="24"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="29"/>
+      <c r="E176" s="29"/>
     </row>
     <row r="177">
-      <c r="C177" s="24"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="24"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
     </row>
     <row r="178">
-      <c r="C178" s="24"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="24"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="29"/>
+      <c r="E178" s="29"/>
     </row>
     <row r="179">
-      <c r="C179" s="24"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="24"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
     </row>
     <row r="180">
-      <c r="C180" s="24"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="24"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181">
-      <c r="C181" s="24"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="24"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182">
-      <c r="C182" s="24"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="24"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="29"/>
+      <c r="E182" s="29"/>
     </row>
     <row r="183">
-      <c r="C183" s="24"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="24"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="29"/>
+      <c r="E183" s="29"/>
     </row>
     <row r="184">
-      <c r="C184" s="24"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="24"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
     </row>
     <row r="185">
-      <c r="C185" s="24"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="24"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="29"/>
+      <c r="E185" s="29"/>
     </row>
     <row r="186">
-      <c r="C186" s="24"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="24"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
     </row>
     <row r="187">
-      <c r="C187" s="24"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="24"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="29"/>
+      <c r="E187" s="29"/>
     </row>
     <row r="188">
-      <c r="C188" s="24"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="24"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="29"/>
+      <c r="E188" s="29"/>
     </row>
     <row r="189">
-      <c r="C189" s="24"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="24"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
     </row>
     <row r="190">
-      <c r="C190" s="24"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="24"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="29"/>
     </row>
     <row r="191">
-      <c r="C191" s="24"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="24"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
     </row>
     <row r="192">
-      <c r="C192" s="24"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="24"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="29"/>
     </row>
     <row r="193">
-      <c r="C193" s="24"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="24"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
     </row>
     <row r="194">
-      <c r="C194" s="24"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="24"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
     </row>
     <row r="195">
-      <c r="C195" s="24"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="24"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="29"/>
     </row>
     <row r="196">
-      <c r="C196" s="24"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="24"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
     </row>
     <row r="197">
-      <c r="C197" s="24"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="24"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198">
-      <c r="C198" s="24"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="24"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
     </row>
     <row r="199">
-      <c r="C199" s="24"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="24"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
     </row>
     <row r="200">
-      <c r="C200" s="24"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="24"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29"/>
     </row>
     <row r="201">
-      <c r="C201" s="24"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="24"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="29"/>
     </row>
     <row r="202">
-      <c r="C202" s="24"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="24"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="29"/>
     </row>
     <row r="203">
-      <c r="C203" s="24"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="24"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
     </row>
     <row r="204">
-      <c r="C204" s="24"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="24"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="29"/>
     </row>
     <row r="205">
-      <c r="C205" s="24"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="24"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="29"/>
     </row>
     <row r="206">
-      <c r="C206" s="24"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="24"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
     </row>
     <row r="207">
-      <c r="C207" s="24"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="24"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
     </row>
     <row r="208">
-      <c r="C208" s="24"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="24"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="29"/>
     </row>
     <row r="209">
-      <c r="C209" s="24"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="24"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="29"/>
     </row>
     <row r="210">
-      <c r="C210" s="24"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="24"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
     </row>
     <row r="211">
-      <c r="C211" s="24"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="24"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="29"/>
     </row>
     <row r="212">
-      <c r="C212" s="24"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="24"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
     </row>
     <row r="213">
-      <c r="C213" s="24"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="24"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
     </row>
     <row r="214">
-      <c r="C214" s="24"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="24"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="29"/>
     </row>
     <row r="215">
-      <c r="C215" s="24"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="24"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="29"/>
     </row>
     <row r="216">
-      <c r="C216" s="24"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="24"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="29"/>
     </row>
     <row r="217">
-      <c r="C217" s="24"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="24"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="29"/>
     </row>
     <row r="218">
-      <c r="C218" s="24"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="24"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="29"/>
     </row>
     <row r="219">
-      <c r="C219" s="24"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="24"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="29"/>
     </row>
     <row r="220">
-      <c r="C220" s="24"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="24"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="29"/>
     </row>
     <row r="221">
-      <c r="C221" s="24"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="24"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
     </row>
     <row r="222">
-      <c r="C222" s="24"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="24"/>
+      <c r="C222" s="29"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="29"/>
     </row>
     <row r="223">
-      <c r="C223" s="24"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="24"/>
+      <c r="C223" s="29"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="29"/>
     </row>
     <row r="224">
-      <c r="C224" s="24"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="24"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="29"/>
     </row>
     <row r="225">
-      <c r="C225" s="24"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="24"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="29"/>
     </row>
     <row r="226">
-      <c r="C226" s="24"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="24"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="29"/>
     </row>
     <row r="227">
-      <c r="C227" s="24"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="24"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
     </row>
     <row r="228">
-      <c r="C228" s="24"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="24"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="29"/>
     </row>
     <row r="229">
-      <c r="C229" s="24"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="24"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="29"/>
     </row>
     <row r="230">
-      <c r="C230" s="24"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="24"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
     </row>
     <row r="231">
-      <c r="C231" s="24"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="24"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="29"/>
     </row>
     <row r="232">
-      <c r="C232" s="24"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="24"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
     </row>
     <row r="233">
-      <c r="C233" s="24"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="24"/>
+      <c r="C233" s="29"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="29"/>
     </row>
     <row r="234">
-      <c r="C234" s="24"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="24"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="29"/>
     </row>
     <row r="235">
-      <c r="C235" s="24"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="24"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="29"/>
+      <c r="E235" s="29"/>
     </row>
     <row r="236">
-      <c r="C236" s="24"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="24"/>
+      <c r="C236" s="29"/>
+      <c r="D236" s="29"/>
+      <c r="E236" s="29"/>
     </row>
     <row r="237">
-      <c r="C237" s="24"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="24"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="29"/>
+      <c r="E237" s="29"/>
     </row>
     <row r="238">
-      <c r="C238" s="24"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="24"/>
+      <c r="C238" s="29"/>
+      <c r="D238" s="29"/>
+      <c r="E238" s="29"/>
     </row>
     <row r="239">
-      <c r="C239" s="24"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="24"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="29"/>
+      <c r="E239" s="29"/>
     </row>
     <row r="240">
-      <c r="C240" s="24"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="24"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="29"/>
     </row>
     <row r="241">
-      <c r="C241" s="24"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="24"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="29"/>
+      <c r="E241" s="29"/>
     </row>
     <row r="242">
-      <c r="C242" s="24"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="24"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
     </row>
     <row r="243">
-      <c r="C243" s="24"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="24"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
     </row>
     <row r="244">
-      <c r="C244" s="24"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="24"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="29"/>
+      <c r="E244" s="29"/>
     </row>
     <row r="245">
-      <c r="C245" s="24"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="24"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="29"/>
+      <c r="E245" s="29"/>
     </row>
     <row r="246">
-      <c r="C246" s="24"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="24"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29"/>
     </row>
     <row r="247">
-      <c r="C247" s="24"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="24"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
     </row>
     <row r="248">
-      <c r="C248" s="24"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="24"/>
+      <c r="C248" s="29"/>
+      <c r="D248" s="29"/>
+      <c r="E248" s="29"/>
     </row>
     <row r="249">
-      <c r="C249" s="24"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="24"/>
+      <c r="C249" s="29"/>
+      <c r="D249" s="29"/>
+      <c r="E249" s="29"/>
     </row>
     <row r="250">
-      <c r="C250" s="24"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="24"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="29"/>
+      <c r="E250" s="29"/>
     </row>
     <row r="251">
-      <c r="C251" s="24"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="24"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
     </row>
     <row r="252">
-      <c r="C252" s="24"/>
-      <c r="D252" s="25"/>
-      <c r="E252" s="24"/>
+      <c r="C252" s="29"/>
+      <c r="D252" s="29"/>
+      <c r="E252" s="29"/>
     </row>
     <row r="253">
-      <c r="C253" s="24"/>
-      <c r="D253" s="25"/>
-      <c r="E253" s="24"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="29"/>
     </row>
     <row r="254">
-      <c r="C254" s="24"/>
-      <c r="D254" s="25"/>
-      <c r="E254" s="24"/>
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
     </row>
     <row r="255">
-      <c r="C255" s="24"/>
-      <c r="D255" s="25"/>
-      <c r="E255" s="24"/>
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="29"/>
     </row>
     <row r="256">
-      <c r="C256" s="24"/>
-      <c r="D256" s="25"/>
-      <c r="E256" s="24"/>
+      <c r="C256" s="29"/>
+      <c r="D256" s="29"/>
+      <c r="E256" s="29"/>
     </row>
     <row r="257">
-      <c r="C257" s="24"/>
-      <c r="D257" s="25"/>
-      <c r="E257" s="24"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="29"/>
     </row>
     <row r="258">
-      <c r="C258" s="24"/>
-      <c r="D258" s="25"/>
-      <c r="E258" s="24"/>
+      <c r="C258" s="29"/>
+      <c r="D258" s="29"/>
+      <c r="E258" s="29"/>
     </row>
     <row r="259">
-      <c r="C259" s="24"/>
-      <c r="D259" s="25"/>
-      <c r="E259" s="24"/>
+      <c r="C259" s="29"/>
+      <c r="D259" s="29"/>
+      <c r="E259" s="29"/>
     </row>
     <row r="260">
-      <c r="C260" s="24"/>
-      <c r="D260" s="25"/>
-      <c r="E260" s="24"/>
+      <c r="C260" s="29"/>
+      <c r="D260" s="29"/>
+      <c r="E260" s="29"/>
     </row>
     <row r="261">
-      <c r="C261" s="24"/>
-      <c r="D261" s="25"/>
-      <c r="E261" s="24"/>
+      <c r="C261" s="29"/>
+      <c r="D261" s="29"/>
+      <c r="E261" s="29"/>
     </row>
     <row r="262">
-      <c r="C262" s="24"/>
-      <c r="D262" s="25"/>
-      <c r="E262" s="24"/>
+      <c r="C262" s="29"/>
+      <c r="D262" s="29"/>
+      <c r="E262" s="29"/>
     </row>
     <row r="263">
-      <c r="C263" s="24"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="24"/>
+      <c r="C263" s="29"/>
+      <c r="D263" s="29"/>
+      <c r="E263" s="29"/>
     </row>
     <row r="264">
-      <c r="C264" s="24"/>
-      <c r="D264" s="25"/>
-      <c r="E264" s="24"/>
+      <c r="C264" s="29"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29"/>
     </row>
     <row r="265">
-      <c r="C265" s="24"/>
-      <c r="D265" s="25"/>
-      <c r="E265" s="24"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="29"/>
     </row>
     <row r="266">
-      <c r="C266" s="24"/>
-      <c r="D266" s="25"/>
-      <c r="E266" s="24"/>
+      <c r="C266" s="29"/>
+      <c r="D266" s="29"/>
+      <c r="E266" s="29"/>
     </row>
     <row r="267">
-      <c r="C267" s="24"/>
-      <c r="D267" s="25"/>
-      <c r="E267" s="24"/>
+      <c r="C267" s="29"/>
+      <c r="D267" s="29"/>
+      <c r="E267" s="29"/>
     </row>
     <row r="268">
-      <c r="C268" s="24"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="24"/>
+      <c r="C268" s="29"/>
+      <c r="D268" s="29"/>
+      <c r="E268" s="29"/>
     </row>
     <row r="269">
-      <c r="C269" s="24"/>
-      <c r="D269" s="25"/>
-      <c r="E269" s="24"/>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
     </row>
     <row r="270">
-      <c r="C270" s="24"/>
-      <c r="D270" s="25"/>
-      <c r="E270" s="24"/>
+      <c r="C270" s="29"/>
+      <c r="D270" s="29"/>
+      <c r="E270" s="29"/>
     </row>
     <row r="271">
-      <c r="C271" s="24"/>
-      <c r="D271" s="25"/>
-      <c r="E271" s="24"/>
+      <c r="C271" s="29"/>
+      <c r="D271" s="29"/>
+      <c r="E271" s="29"/>
     </row>
     <row r="272">
-      <c r="C272" s="24"/>
-      <c r="D272" s="25"/>
-      <c r="E272" s="24"/>
+      <c r="C272" s="29"/>
+      <c r="D272" s="29"/>
+      <c r="E272" s="29"/>
     </row>
     <row r="273">
-      <c r="C273" s="24"/>
-      <c r="D273" s="25"/>
-      <c r="E273" s="24"/>
+      <c r="C273" s="29"/>
+      <c r="D273" s="29"/>
+      <c r="E273" s="29"/>
     </row>
     <row r="274">
-      <c r="C274" s="24"/>
-      <c r="D274" s="25"/>
-      <c r="E274" s="24"/>
+      <c r="C274" s="29"/>
+      <c r="D274" s="29"/>
+      <c r="E274" s="29"/>
     </row>
     <row r="275">
-      <c r="C275" s="24"/>
-      <c r="D275" s="25"/>
-      <c r="E275" s="24"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="29"/>
+      <c r="E275" s="29"/>
     </row>
     <row r="276">
-      <c r="C276" s="24"/>
-      <c r="D276" s="25"/>
-      <c r="E276" s="24"/>
+      <c r="C276" s="29"/>
+      <c r="D276" s="29"/>
+      <c r="E276" s="29"/>
     </row>
     <row r="277">
-      <c r="C277" s="24"/>
-      <c r="D277" s="25"/>
-      <c r="E277" s="24"/>
+      <c r="C277" s="29"/>
+      <c r="D277" s="29"/>
+      <c r="E277" s="29"/>
     </row>
     <row r="278">
-      <c r="C278" s="24"/>
-      <c r="D278" s="25"/>
-      <c r="E278" s="24"/>
+      <c r="C278" s="29"/>
+      <c r="D278" s="29"/>
+      <c r="E278" s="29"/>
     </row>
     <row r="279">
-      <c r="C279" s="24"/>
-      <c r="D279" s="25"/>
-      <c r="E279" s="24"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="29"/>
+      <c r="E279" s="29"/>
     </row>
     <row r="280">
-      <c r="C280" s="24"/>
-      <c r="D280" s="25"/>
-      <c r="E280" s="24"/>
+      <c r="C280" s="29"/>
+      <c r="D280" s="29"/>
+      <c r="E280" s="29"/>
     </row>
     <row r="281">
-      <c r="C281" s="24"/>
-      <c r="D281" s="25"/>
-      <c r="E281" s="24"/>
+      <c r="C281" s="29"/>
+      <c r="D281" s="29"/>
+      <c r="E281" s="29"/>
     </row>
     <row r="282">
-      <c r="C282" s="24"/>
-      <c r="D282" s="25"/>
-      <c r="E282" s="24"/>
+      <c r="C282" s="29"/>
+      <c r="D282" s="29"/>
+      <c r="E282" s="29"/>
     </row>
     <row r="283">
-      <c r="C283" s="24"/>
-      <c r="D283" s="25"/>
-      <c r="E283" s="24"/>
+      <c r="C283" s="29"/>
+      <c r="D283" s="29"/>
+      <c r="E283" s="29"/>
     </row>
     <row r="284">
-      <c r="C284" s="24"/>
-      <c r="D284" s="25"/>
-      <c r="E284" s="24"/>
+      <c r="C284" s="29"/>
+      <c r="D284" s="29"/>
+      <c r="E284" s="29"/>
     </row>
     <row r="285">
-      <c r="C285" s="24"/>
-      <c r="D285" s="25"/>
-      <c r="E285" s="24"/>
+      <c r="C285" s="29"/>
+      <c r="D285" s="29"/>
+      <c r="E285" s="29"/>
     </row>
     <row r="286">
-      <c r="C286" s="24"/>
-      <c r="D286" s="25"/>
-      <c r="E286" s="24"/>
+      <c r="C286" s="29"/>
+      <c r="D286" s="29"/>
+      <c r="E286" s="29"/>
     </row>
     <row r="287">
-      <c r="C287" s="24"/>
-      <c r="D287" s="25"/>
-      <c r="E287" s="24"/>
+      <c r="C287" s="29"/>
+      <c r="D287" s="29"/>
+      <c r="E287" s="29"/>
     </row>
     <row r="288">
-      <c r="C288" s="24"/>
-      <c r="D288" s="25"/>
-      <c r="E288" s="24"/>
+      <c r="C288" s="29"/>
+      <c r="D288" s="29"/>
+      <c r="E288" s="29"/>
     </row>
     <row r="289">
-      <c r="C289" s="24"/>
-      <c r="D289" s="25"/>
-      <c r="E289" s="24"/>
+      <c r="C289" s="29"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="29"/>
     </row>
     <row r="290">
-      <c r="C290" s="24"/>
-      <c r="D290" s="25"/>
-      <c r="E290" s="24"/>
+      <c r="C290" s="29"/>
+      <c r="D290" s="29"/>
+      <c r="E290" s="29"/>
     </row>
     <row r="291">
-      <c r="C291" s="24"/>
-      <c r="D291" s="25"/>
-      <c r="E291" s="24"/>
+      <c r="C291" s="29"/>
+      <c r="D291" s="29"/>
+      <c r="E291" s="29"/>
     </row>
     <row r="292">
-      <c r="C292" s="24"/>
-      <c r="D292" s="25"/>
-      <c r="E292" s="24"/>
+      <c r="C292" s="29"/>
+      <c r="D292" s="29"/>
+      <c r="E292" s="29"/>
     </row>
     <row r="293">
-      <c r="C293" s="24"/>
-      <c r="D293" s="25"/>
-      <c r="E293" s="24"/>
+      <c r="C293" s="29"/>
+      <c r="D293" s="29"/>
+      <c r="E293" s="29"/>
     </row>
     <row r="294">
-      <c r="C294" s="24"/>
-      <c r="D294" s="25"/>
-      <c r="E294" s="24"/>
+      <c r="C294" s="29"/>
+      <c r="D294" s="29"/>
+      <c r="E294" s="29"/>
     </row>
     <row r="295">
-      <c r="C295" s="24"/>
-      <c r="D295" s="25"/>
-      <c r="E295" s="24"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="29"/>
+      <c r="E295" s="29"/>
     </row>
     <row r="296">
-      <c r="C296" s="24"/>
-      <c r="D296" s="25"/>
-      <c r="E296" s="24"/>
+      <c r="C296" s="29"/>
+      <c r="D296" s="29"/>
+      <c r="E296" s="29"/>
     </row>
     <row r="297">
-      <c r="C297" s="24"/>
-      <c r="D297" s="25"/>
-      <c r="E297" s="24"/>
+      <c r="C297" s="29"/>
+      <c r="D297" s="29"/>
+      <c r="E297" s="29"/>
     </row>
     <row r="298">
-      <c r="C298" s="24"/>
-      <c r="D298" s="25"/>
-      <c r="E298" s="24"/>
+      <c r="C298" s="29"/>
+      <c r="D298" s="29"/>
+      <c r="E298" s="29"/>
     </row>
     <row r="299">
-      <c r="C299" s="24"/>
-      <c r="D299" s="25"/>
-      <c r="E299" s="24"/>
+      <c r="C299" s="29"/>
+      <c r="D299" s="29"/>
+      <c r="E299" s="29"/>
     </row>
     <row r="300">
-      <c r="C300" s="24"/>
-      <c r="D300" s="25"/>
-      <c r="E300" s="24"/>
+      <c r="C300" s="29"/>
+      <c r="D300" s="29"/>
+      <c r="E300" s="29"/>
     </row>
     <row r="301">
-      <c r="C301" s="24"/>
-      <c r="D301" s="25"/>
-      <c r="E301" s="24"/>
+      <c r="C301" s="29"/>
+      <c r="D301" s="29"/>
+      <c r="E301" s="29"/>
     </row>
     <row r="302">
-      <c r="C302" s="24"/>
-      <c r="D302" s="25"/>
-      <c r="E302" s="24"/>
+      <c r="C302" s="29"/>
+      <c r="D302" s="29"/>
+      <c r="E302" s="29"/>
     </row>
     <row r="303">
-      <c r="C303" s="24"/>
-      <c r="D303" s="25"/>
-      <c r="E303" s="24"/>
+      <c r="C303" s="29"/>
+      <c r="D303" s="29"/>
+      <c r="E303" s="29"/>
     </row>
     <row r="304">
-      <c r="C304" s="24"/>
-      <c r="D304" s="25"/>
-      <c r="E304" s="24"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="29"/>
+      <c r="E304" s="29"/>
     </row>
     <row r="305">
-      <c r="C305" s="24"/>
-      <c r="D305" s="25"/>
-      <c r="E305" s="24"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="29"/>
+      <c r="E305" s="29"/>
     </row>
     <row r="306">
-      <c r="C306" s="24"/>
-      <c r="D306" s="25"/>
-      <c r="E306" s="24"/>
+      <c r="C306" s="29"/>
+      <c r="D306" s="29"/>
+      <c r="E306" s="29"/>
     </row>
     <row r="307">
-      <c r="C307" s="24"/>
-      <c r="D307" s="25"/>
-      <c r="E307" s="24"/>
+      <c r="C307" s="29"/>
+      <c r="D307" s="29"/>
+      <c r="E307" s="29"/>
     </row>
     <row r="308">
-      <c r="C308" s="24"/>
-      <c r="D308" s="25"/>
-      <c r="E308" s="24"/>
+      <c r="C308" s="29"/>
+      <c r="D308" s="29"/>
+      <c r="E308" s="29"/>
     </row>
     <row r="309">
-      <c r="C309" s="24"/>
-      <c r="D309" s="25"/>
-      <c r="E309" s="24"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="29"/>
+      <c r="E309" s="29"/>
     </row>
     <row r="310">
-      <c r="C310" s="24"/>
-      <c r="D310" s="25"/>
-      <c r="E310" s="24"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="29"/>
     </row>
     <row r="311">
-      <c r="C311" s="24"/>
-      <c r="D311" s="25"/>
-      <c r="E311" s="24"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="29"/>
+      <c r="E311" s="29"/>
     </row>
     <row r="312">
-      <c r="C312" s="24"/>
-      <c r="D312" s="25"/>
-      <c r="E312" s="24"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="29"/>
+      <c r="E312" s="29"/>
     </row>
     <row r="313">
-      <c r="C313" s="24"/>
-      <c r="D313" s="25"/>
-      <c r="E313" s="24"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="29"/>
+      <c r="E313" s="29"/>
     </row>
     <row r="314">
-      <c r="C314" s="24"/>
-      <c r="D314" s="25"/>
-      <c r="E314" s="24"/>
+      <c r="C314" s="29"/>
+      <c r="D314" s="29"/>
+      <c r="E314" s="29"/>
     </row>
     <row r="315">
-      <c r="C315" s="24"/>
-      <c r="D315" s="25"/>
-      <c r="E315" s="24"/>
+      <c r="C315" s="29"/>
+      <c r="D315" s="29"/>
+      <c r="E315" s="29"/>
     </row>
     <row r="316">
-      <c r="C316" s="24"/>
-      <c r="D316" s="25"/>
-      <c r="E316" s="24"/>
+      <c r="C316" s="29"/>
+      <c r="D316" s="29"/>
+      <c r="E316" s="29"/>
     </row>
     <row r="317">
-      <c r="C317" s="24"/>
-      <c r="D317" s="25"/>
-      <c r="E317" s="24"/>
+      <c r="C317" s="29"/>
+      <c r="D317" s="29"/>
+      <c r="E317" s="29"/>
     </row>
     <row r="318">
-      <c r="C318" s="24"/>
-      <c r="D318" s="25"/>
-      <c r="E318" s="24"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="29"/>
+      <c r="E318" s="29"/>
     </row>
     <row r="319">
-      <c r="C319" s="24"/>
-      <c r="D319" s="25"/>
-      <c r="E319" s="24"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="29"/>
+      <c r="E319" s="29"/>
     </row>
     <row r="320">
-      <c r="C320" s="24"/>
-      <c r="D320" s="25"/>
-      <c r="E320" s="24"/>
+      <c r="C320" s="29"/>
+      <c r="D320" s="29"/>
+      <c r="E320" s="29"/>
     </row>
     <row r="321">
-      <c r="C321" s="24"/>
-      <c r="D321" s="25"/>
-      <c r="E321" s="24"/>
+      <c r="C321" s="29"/>
+      <c r="D321" s="29"/>
+      <c r="E321" s="29"/>
     </row>
     <row r="322">
-      <c r="C322" s="24"/>
-      <c r="D322" s="25"/>
-      <c r="E322" s="24"/>
+      <c r="C322" s="29"/>
+      <c r="D322" s="29"/>
+      <c r="E322" s="29"/>
     </row>
     <row r="323">
-      <c r="C323" s="24"/>
-      <c r="D323" s="25"/>
-      <c r="E323" s="24"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
+      <c r="E323" s="29"/>
     </row>
     <row r="324">
-      <c r="C324" s="24"/>
-      <c r="D324" s="25"/>
-      <c r="E324" s="24"/>
+      <c r="C324" s="29"/>
+      <c r="D324" s="29"/>
+      <c r="E324" s="29"/>
     </row>
     <row r="325">
-      <c r="C325" s="24"/>
-      <c r="D325" s="25"/>
-      <c r="E325" s="24"/>
+      <c r="C325" s="29"/>
+      <c r="D325" s="29"/>
+      <c r="E325" s="29"/>
     </row>
     <row r="326">
-      <c r="C326" s="24"/>
-      <c r="D326" s="25"/>
-      <c r="E326" s="24"/>
+      <c r="C326" s="29"/>
+      <c r="D326" s="29"/>
+      <c r="E326" s="29"/>
     </row>
     <row r="327">
-      <c r="C327" s="24"/>
-      <c r="D327" s="25"/>
-      <c r="E327" s="24"/>
+      <c r="C327" s="29"/>
+      <c r="D327" s="29"/>
+      <c r="E327" s="29"/>
     </row>
     <row r="328">
-      <c r="C328" s="24"/>
-      <c r="D328" s="25"/>
-      <c r="E328" s="24"/>
+      <c r="C328" s="29"/>
+      <c r="D328" s="29"/>
+      <c r="E328" s="29"/>
     </row>
     <row r="329">
-      <c r="C329" s="24"/>
-      <c r="D329" s="25"/>
-      <c r="E329" s="24"/>
+      <c r="C329" s="29"/>
+      <c r="D329" s="29"/>
+      <c r="E329" s="29"/>
     </row>
     <row r="330">
-      <c r="C330" s="24"/>
-      <c r="D330" s="25"/>
-      <c r="E330" s="24"/>
+      <c r="C330" s="29"/>
+      <c r="D330" s="29"/>
+      <c r="E330" s="29"/>
     </row>
     <row r="331">
-      <c r="C331" s="24"/>
-      <c r="D331" s="25"/>
-      <c r="E331" s="24"/>
+      <c r="C331" s="29"/>
+      <c r="D331" s="29"/>
+      <c r="E331" s="29"/>
     </row>
     <row r="332">
-      <c r="C332" s="24"/>
-      <c r="D332" s="25"/>
-      <c r="E332" s="24"/>
+      <c r="C332" s="29"/>
+      <c r="D332" s="29"/>
+      <c r="E332" s="29"/>
     </row>
     <row r="333">
-      <c r="C333" s="24"/>
-      <c r="D333" s="25"/>
-      <c r="E333" s="24"/>
+      <c r="C333" s="29"/>
+      <c r="D333" s="29"/>
+      <c r="E333" s="29"/>
     </row>
     <row r="334">
-      <c r="C334" s="24"/>
-      <c r="D334" s="25"/>
-      <c r="E334" s="24"/>
+      <c r="C334" s="29"/>
+      <c r="D334" s="29"/>
+      <c r="E334" s="29"/>
     </row>
     <row r="335">
-      <c r="C335" s="24"/>
-      <c r="D335" s="25"/>
-      <c r="E335" s="24"/>
+      <c r="C335" s="29"/>
+      <c r="D335" s="29"/>
+      <c r="E335" s="29"/>
     </row>
     <row r="336">
-      <c r="C336" s="24"/>
-      <c r="D336" s="25"/>
-      <c r="E336" s="24"/>
+      <c r="C336" s="29"/>
+      <c r="D336" s="29"/>
+      <c r="E336" s="29"/>
     </row>
     <row r="337">
-      <c r="C337" s="24"/>
-      <c r="D337" s="25"/>
-      <c r="E337" s="24"/>
+      <c r="C337" s="29"/>
+      <c r="D337" s="29"/>
+      <c r="E337" s="29"/>
     </row>
     <row r="338">
-      <c r="C338" s="24"/>
-      <c r="D338" s="25"/>
-      <c r="E338" s="24"/>
+      <c r="C338" s="29"/>
+      <c r="D338" s="29"/>
+      <c r="E338" s="29"/>
     </row>
     <row r="339">
-      <c r="C339" s="24"/>
-      <c r="D339" s="25"/>
-      <c r="E339" s="24"/>
+      <c r="C339" s="29"/>
+      <c r="D339" s="29"/>
+      <c r="E339" s="29"/>
     </row>
     <row r="340">
-      <c r="C340" s="24"/>
-      <c r="D340" s="25"/>
-      <c r="E340" s="24"/>
+      <c r="C340" s="29"/>
+      <c r="D340" s="29"/>
+      <c r="E340" s="29"/>
     </row>
     <row r="341">
-      <c r="C341" s="24"/>
-      <c r="D341" s="25"/>
-      <c r="E341" s="24"/>
+      <c r="C341" s="29"/>
+      <c r="D341" s="29"/>
+      <c r="E341" s="29"/>
     </row>
     <row r="342">
-      <c r="C342" s="24"/>
-      <c r="D342" s="25"/>
-      <c r="E342" s="24"/>
+      <c r="C342" s="29"/>
+      <c r="D342" s="29"/>
+      <c r="E342" s="29"/>
     </row>
     <row r="343">
-      <c r="C343" s="24"/>
-      <c r="D343" s="25"/>
-      <c r="E343" s="24"/>
+      <c r="C343" s="29"/>
+      <c r="D343" s="29"/>
+      <c r="E343" s="29"/>
     </row>
     <row r="344">
-      <c r="C344" s="24"/>
-      <c r="D344" s="25"/>
-      <c r="E344" s="24"/>
+      <c r="C344" s="29"/>
+      <c r="D344" s="29"/>
+      <c r="E344" s="29"/>
     </row>
     <row r="345">
-      <c r="C345" s="24"/>
-      <c r="D345" s="25"/>
-      <c r="E345" s="24"/>
+      <c r="C345" s="29"/>
+      <c r="D345" s="29"/>
+      <c r="E345" s="29"/>
     </row>
     <row r="346">
-      <c r="C346" s="24"/>
-      <c r="D346" s="25"/>
-      <c r="E346" s="24"/>
+      <c r="C346" s="29"/>
+      <c r="D346" s="29"/>
+      <c r="E346" s="29"/>
     </row>
     <row r="347">
-      <c r="C347" s="24"/>
-      <c r="D347" s="25"/>
-      <c r="E347" s="24"/>
+      <c r="C347" s="29"/>
+      <c r="D347" s="29"/>
+      <c r="E347" s="29"/>
     </row>
     <row r="348">
-      <c r="C348" s="24"/>
-      <c r="D348" s="25"/>
-      <c r="E348" s="24"/>
+      <c r="C348" s="29"/>
+      <c r="D348" s="29"/>
+      <c r="E348" s="29"/>
     </row>
     <row r="349">
-      <c r="C349" s="24"/>
-      <c r="D349" s="25"/>
-      <c r="E349" s="24"/>
+      <c r="C349" s="29"/>
+      <c r="D349" s="29"/>
+      <c r="E349" s="29"/>
     </row>
     <row r="350">
-      <c r="C350" s="24"/>
-      <c r="D350" s="25"/>
-      <c r="E350" s="24"/>
+      <c r="C350" s="29"/>
+      <c r="D350" s="29"/>
+      <c r="E350" s="29"/>
     </row>
     <row r="351">
-      <c r="C351" s="24"/>
-      <c r="D351" s="25"/>
-      <c r="E351" s="24"/>
+      <c r="C351" s="29"/>
+      <c r="D351" s="29"/>
+      <c r="E351" s="29"/>
     </row>
     <row r="352">
-      <c r="C352" s="24"/>
-      <c r="D352" s="25"/>
-      <c r="E352" s="24"/>
+      <c r="C352" s="29"/>
+      <c r="D352" s="29"/>
+      <c r="E352" s="29"/>
     </row>
     <row r="353">
-      <c r="C353" s="24"/>
-      <c r="D353" s="25"/>
-      <c r="E353" s="24"/>
+      <c r="C353" s="29"/>
+      <c r="D353" s="29"/>
+      <c r="E353" s="29"/>
     </row>
     <row r="354">
-      <c r="C354" s="24"/>
-      <c r="D354" s="25"/>
-      <c r="E354" s="24"/>
+      <c r="C354" s="29"/>
+      <c r="D354" s="29"/>
+      <c r="E354" s="29"/>
     </row>
     <row r="355">
-      <c r="C355" s="24"/>
-      <c r="D355" s="25"/>
-      <c r="E355" s="24"/>
+      <c r="C355" s="29"/>
+      <c r="D355" s="29"/>
+      <c r="E355" s="29"/>
     </row>
     <row r="356">
-      <c r="C356" s="24"/>
-      <c r="D356" s="25"/>
-      <c r="E356" s="24"/>
+      <c r="C356" s="29"/>
+      <c r="D356" s="29"/>
+      <c r="E356" s="29"/>
     </row>
     <row r="357">
-      <c r="C357" s="24"/>
-      <c r="D357" s="25"/>
-      <c r="E357" s="24"/>
+      <c r="C357" s="29"/>
+      <c r="D357" s="29"/>
+      <c r="E357" s="29"/>
     </row>
     <row r="358">
-      <c r="C358" s="24"/>
-      <c r="D358" s="25"/>
-      <c r="E358" s="24"/>
+      <c r="C358" s="29"/>
+      <c r="D358" s="29"/>
+      <c r="E358" s="29"/>
     </row>
     <row r="359">
-      <c r="C359" s="24"/>
-      <c r="D359" s="25"/>
-      <c r="E359" s="24"/>
+      <c r="C359" s="29"/>
+      <c r="D359" s="29"/>
+      <c r="E359" s="29"/>
     </row>
     <row r="360">
-      <c r="C360" s="24"/>
-      <c r="D360" s="25"/>
-      <c r="E360" s="24"/>
+      <c r="C360" s="29"/>
+      <c r="D360" s="29"/>
+      <c r="E360" s="29"/>
     </row>
     <row r="361">
-      <c r="C361" s="24"/>
-      <c r="D361" s="25"/>
-      <c r="E361" s="24"/>
+      <c r="C361" s="29"/>
+      <c r="D361" s="29"/>
+      <c r="E361" s="29"/>
     </row>
     <row r="362">
-      <c r="C362" s="24"/>
-      <c r="D362" s="25"/>
-      <c r="E362" s="24"/>
+      <c r="C362" s="29"/>
+      <c r="D362" s="29"/>
+      <c r="E362" s="29"/>
     </row>
     <row r="363">
-      <c r="C363" s="24"/>
-      <c r="D363" s="25"/>
-      <c r="E363" s="24"/>
+      <c r="C363" s="29"/>
+      <c r="D363" s="29"/>
+      <c r="E363" s="29"/>
     </row>
     <row r="364">
-      <c r="C364" s="24"/>
-      <c r="D364" s="25"/>
-      <c r="E364" s="24"/>
+      <c r="C364" s="29"/>
+      <c r="D364" s="29"/>
+      <c r="E364" s="29"/>
     </row>
     <row r="365">
-      <c r="C365" s="24"/>
-      <c r="D365" s="25"/>
-      <c r="E365" s="24"/>
+      <c r="C365" s="29"/>
+      <c r="D365" s="29"/>
+      <c r="E365" s="29"/>
     </row>
     <row r="366">
-      <c r="C366" s="24"/>
-      <c r="D366" s="25"/>
-      <c r="E366" s="24"/>
+      <c r="C366" s="29"/>
+      <c r="D366" s="29"/>
+      <c r="E366" s="29"/>
     </row>
     <row r="367">
-      <c r="C367" s="24"/>
-      <c r="D367" s="25"/>
-      <c r="E367" s="24"/>
+      <c r="C367" s="29"/>
+      <c r="D367" s="29"/>
+      <c r="E367" s="29"/>
     </row>
     <row r="368">
-      <c r="C368" s="24"/>
-      <c r="D368" s="25"/>
-      <c r="E368" s="24"/>
+      <c r="C368" s="29"/>
+      <c r="D368" s="29"/>
+      <c r="E368" s="29"/>
     </row>
     <row r="369">
-      <c r="C369" s="24"/>
-      <c r="D369" s="25"/>
-      <c r="E369" s="24"/>
+      <c r="C369" s="29"/>
+      <c r="D369" s="29"/>
+      <c r="E369" s="29"/>
     </row>
     <row r="370">
-      <c r="C370" s="24"/>
-      <c r="D370" s="25"/>
-      <c r="E370" s="24"/>
+      <c r="C370" s="29"/>
+      <c r="D370" s="29"/>
+      <c r="E370" s="29"/>
     </row>
     <row r="371">
-      <c r="C371" s="24"/>
-      <c r="D371" s="25"/>
-      <c r="E371" s="24"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="29"/>
+      <c r="E371" s="29"/>
     </row>
     <row r="372">
-      <c r="C372" s="24"/>
-      <c r="D372" s="25"/>
-      <c r="E372" s="24"/>
+      <c r="C372" s="29"/>
+      <c r="D372" s="29"/>
+      <c r="E372" s="29"/>
     </row>
     <row r="373">
-      <c r="C373" s="24"/>
-      <c r="D373" s="25"/>
-      <c r="E373" s="24"/>
+      <c r="C373" s="29"/>
+      <c r="D373" s="29"/>
+      <c r="E373" s="29"/>
     </row>
     <row r="374">
-      <c r="C374" s="24"/>
-      <c r="D374" s="25"/>
-      <c r="E374" s="24"/>
+      <c r="C374" s="29"/>
+      <c r="D374" s="29"/>
+      <c r="E374" s="29"/>
     </row>
     <row r="375">
-      <c r="C375" s="24"/>
-      <c r="D375" s="25"/>
-      <c r="E375" s="24"/>
+      <c r="C375" s="29"/>
+      <c r="D375" s="29"/>
+      <c r="E375" s="29"/>
     </row>
     <row r="376">
-      <c r="C376" s="24"/>
-      <c r="D376" s="25"/>
-      <c r="E376" s="24"/>
+      <c r="C376" s="29"/>
+      <c r="D376" s="29"/>
+      <c r="E376" s="29"/>
     </row>
     <row r="377">
-      <c r="C377" s="24"/>
-      <c r="D377" s="25"/>
-      <c r="E377" s="24"/>
+      <c r="C377" s="29"/>
+      <c r="D377" s="29"/>
+      <c r="E377" s="29"/>
     </row>
     <row r="378">
-      <c r="C378" s="24"/>
-      <c r="D378" s="25"/>
-      <c r="E378" s="24"/>
+      <c r="C378" s="29"/>
+      <c r="D378" s="29"/>
+      <c r="E378" s="29"/>
     </row>
     <row r="379">
-      <c r="C379" s="24"/>
-      <c r="D379" s="25"/>
-      <c r="E379" s="24"/>
+      <c r="C379" s="29"/>
+      <c r="D379" s="29"/>
+      <c r="E379" s="29"/>
     </row>
     <row r="380">
-      <c r="C380" s="24"/>
-      <c r="D380" s="25"/>
-      <c r="E380" s="24"/>
+      <c r="C380" s="29"/>
+      <c r="D380" s="29"/>
+      <c r="E380" s="29"/>
     </row>
     <row r="381">
-      <c r="C381" s="24"/>
-      <c r="D381" s="25"/>
-      <c r="E381" s="24"/>
+      <c r="C381" s="29"/>
+      <c r="D381" s="29"/>
+      <c r="E381" s="29"/>
     </row>
     <row r="382">
-      <c r="C382" s="24"/>
-      <c r="D382" s="25"/>
-      <c r="E382" s="24"/>
+      <c r="C382" s="29"/>
+      <c r="D382" s="29"/>
+      <c r="E382" s="29"/>
     </row>
     <row r="383">
-      <c r="C383" s="24"/>
-      <c r="D383" s="25"/>
-      <c r="E383" s="24"/>
+      <c r="C383" s="29"/>
+      <c r="D383" s="29"/>
+      <c r="E383" s="29"/>
     </row>
     <row r="384">
-      <c r="C384" s="24"/>
-      <c r="D384" s="25"/>
-      <c r="E384" s="24"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
     </row>
     <row r="385">
-      <c r="C385" s="24"/>
-      <c r="D385" s="25"/>
-      <c r="E385" s="24"/>
+      <c r="C385" s="29"/>
+      <c r="D385" s="29"/>
+      <c r="E385" s="29"/>
     </row>
     <row r="386">
-      <c r="C386" s="24"/>
-      <c r="D386" s="25"/>
-      <c r="E386" s="24"/>
+      <c r="C386" s="29"/>
+      <c r="D386" s="29"/>
+      <c r="E386" s="29"/>
     </row>
     <row r="387">
-      <c r="C387" s="24"/>
-      <c r="D387" s="25"/>
-      <c r="E387" s="24"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="29"/>
+      <c r="E387" s="29"/>
     </row>
     <row r="388">
-      <c r="C388" s="24"/>
-      <c r="D388" s="25"/>
-      <c r="E388" s="24"/>
+      <c r="C388" s="29"/>
+      <c r="D388" s="29"/>
+      <c r="E388" s="29"/>
     </row>
     <row r="389">
-      <c r="C389" s="24"/>
-      <c r="D389" s="25"/>
-      <c r="E389" s="24"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="29"/>
+      <c r="E389" s="29"/>
     </row>
     <row r="390">
-      <c r="C390" s="24"/>
-      <c r="D390" s="25"/>
-      <c r="E390" s="24"/>
+      <c r="C390" s="29"/>
+      <c r="D390" s="29"/>
+      <c r="E390" s="29"/>
     </row>
     <row r="391">
-      <c r="C391" s="24"/>
-      <c r="D391" s="25"/>
-      <c r="E391" s="24"/>
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+      <c r="E391" s="29"/>
     </row>
     <row r="392">
-      <c r="C392" s="24"/>
-      <c r="D392" s="25"/>
-      <c r="E392" s="24"/>
+      <c r="C392" s="29"/>
+      <c r="D392" s="29"/>
+      <c r="E392" s="29"/>
     </row>
     <row r="393">
-      <c r="C393" s="24"/>
-      <c r="D393" s="25"/>
-      <c r="E393" s="24"/>
+      <c r="C393" s="29"/>
+      <c r="D393" s="29"/>
+      <c r="E393" s="29"/>
     </row>
     <row r="394">
-      <c r="C394" s="24"/>
-      <c r="D394" s="25"/>
-      <c r="E394" s="24"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="29"/>
+      <c r="E394" s="29"/>
     </row>
     <row r="395">
-      <c r="C395" s="24"/>
-      <c r="D395" s="25"/>
-      <c r="E395" s="24"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="29"/>
+      <c r="E395" s="29"/>
     </row>
     <row r="396">
-      <c r="C396" s="24"/>
-      <c r="D396" s="25"/>
-      <c r="E396" s="24"/>
+      <c r="C396" s="29"/>
+      <c r="D396" s="29"/>
+      <c r="E396" s="29"/>
     </row>
     <row r="397">
-      <c r="C397" s="24"/>
-      <c r="D397" s="25"/>
-      <c r="E397" s="24"/>
+      <c r="C397" s="29"/>
+      <c r="D397" s="29"/>
+      <c r="E397" s="29"/>
     </row>
     <row r="398">
-      <c r="C398" s="24"/>
-      <c r="D398" s="25"/>
-      <c r="E398" s="24"/>
+      <c r="C398" s="29"/>
+      <c r="D398" s="29"/>
+      <c r="E398" s="29"/>
     </row>
     <row r="399">
-      <c r="C399" s="24"/>
-      <c r="D399" s="25"/>
-      <c r="E399" s="24"/>
+      <c r="C399" s="29"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="29"/>
     </row>
     <row r="400">
-      <c r="C400" s="24"/>
-      <c r="D400" s="25"/>
-      <c r="E400" s="24"/>
+      <c r="C400" s="29"/>
+      <c r="D400" s="29"/>
+      <c r="E400" s="29"/>
     </row>
     <row r="401">
-      <c r="C401" s="24"/>
-      <c r="D401" s="25"/>
-      <c r="E401" s="24"/>
+      <c r="C401" s="29"/>
+      <c r="D401" s="29"/>
+      <c r="E401" s="29"/>
     </row>
     <row r="402">
-      <c r="C402" s="24"/>
-      <c r="D402" s="25"/>
-      <c r="E402" s="24"/>
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29"/>
     </row>
     <row r="403">
-      <c r="C403" s="24"/>
-      <c r="D403" s="25"/>
-      <c r="E403" s="24"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+      <c r="E403" s="29"/>
     </row>
     <row r="404">
-      <c r="C404" s="24"/>
-      <c r="D404" s="25"/>
-      <c r="E404" s="24"/>
+      <c r="C404" s="29"/>
+      <c r="D404" s="29"/>
+      <c r="E404" s="29"/>
     </row>
     <row r="405">
-      <c r="C405" s="24"/>
-      <c r="D405" s="25"/>
-      <c r="E405" s="24"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29"/>
     </row>
     <row r="406">
-      <c r="C406" s="24"/>
-      <c r="D406" s="25"/>
-      <c r="E406" s="24"/>
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29"/>
     </row>
     <row r="407">
-      <c r="C407" s="24"/>
-      <c r="D407" s="25"/>
-      <c r="E407" s="24"/>
+      <c r="C407" s="29"/>
+      <c r="D407" s="29"/>
+      <c r="E407" s="29"/>
     </row>
     <row r="408">
-      <c r="C408" s="24"/>
-      <c r="D408" s="25"/>
-      <c r="E408" s="24"/>
+      <c r="C408" s="29"/>
+      <c r="D408" s="29"/>
+      <c r="E408" s="29"/>
     </row>
     <row r="409">
-      <c r="C409" s="24"/>
-      <c r="D409" s="25"/>
-      <c r="E409" s="24"/>
+      <c r="C409" s="29"/>
+      <c r="D409" s="29"/>
+      <c r="E409" s="29"/>
     </row>
     <row r="410">
-      <c r="C410" s="24"/>
-      <c r="D410" s="25"/>
-      <c r="E410" s="24"/>
+      <c r="C410" s="29"/>
+      <c r="D410" s="29"/>
+      <c r="E410" s="29"/>
     </row>
     <row r="411">
-      <c r="C411" s="24"/>
-      <c r="D411" s="25"/>
-      <c r="E411" s="24"/>
+      <c r="C411" s="29"/>
+      <c r="D411" s="29"/>
+      <c r="E411" s="29"/>
     </row>
     <row r="412">
-      <c r="C412" s="24"/>
-      <c r="D412" s="25"/>
-      <c r="E412" s="24"/>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+      <c r="E412" s="29"/>
     </row>
     <row r="413">
-      <c r="C413" s="24"/>
-      <c r="D413" s="25"/>
-      <c r="E413" s="24"/>
+      <c r="C413" s="29"/>
+      <c r="D413" s="29"/>
+      <c r="E413" s="29"/>
     </row>
     <row r="414">
-      <c r="C414" s="24"/>
-      <c r="D414" s="25"/>
-      <c r="E414" s="24"/>
+      <c r="C414" s="29"/>
+      <c r="D414" s="29"/>
+      <c r="E414" s="29"/>
     </row>
     <row r="415">
-      <c r="C415" s="24"/>
-      <c r="D415" s="25"/>
-      <c r="E415" s="24"/>
+      <c r="C415" s="29"/>
+      <c r="D415" s="29"/>
+      <c r="E415" s="29"/>
     </row>
     <row r="416">
-      <c r="C416" s="24"/>
-      <c r="D416" s="25"/>
-      <c r="E416" s="24"/>
+      <c r="C416" s="29"/>
+      <c r="D416" s="29"/>
+      <c r="E416" s="29"/>
     </row>
     <row r="417">
-      <c r="C417" s="24"/>
-      <c r="D417" s="25"/>
-      <c r="E417" s="24"/>
+      <c r="C417" s="29"/>
+      <c r="D417" s="29"/>
+      <c r="E417" s="29"/>
     </row>
     <row r="418">
-      <c r="C418" s="24"/>
-      <c r="D418" s="25"/>
-      <c r="E418" s="24"/>
+      <c r="C418" s="29"/>
+      <c r="D418" s="29"/>
+      <c r="E418" s="29"/>
     </row>
     <row r="419">
-      <c r="C419" s="24"/>
-      <c r="D419" s="25"/>
-      <c r="E419" s="24"/>
+      <c r="C419" s="29"/>
+      <c r="D419" s="29"/>
+      <c r="E419" s="29"/>
     </row>
     <row r="420">
-      <c r="C420" s="24"/>
-      <c r="D420" s="25"/>
-      <c r="E420" s="24"/>
+      <c r="C420" s="29"/>
+      <c r="D420" s="29"/>
+      <c r="E420" s="29"/>
     </row>
     <row r="421">
-      <c r="C421" s="24"/>
-      <c r="D421" s="25"/>
-      <c r="E421" s="24"/>
+      <c r="C421" s="29"/>
+      <c r="D421" s="29"/>
+      <c r="E421" s="29"/>
     </row>
     <row r="422">
-      <c r="C422" s="24"/>
-      <c r="D422" s="25"/>
-      <c r="E422" s="24"/>
+      <c r="C422" s="29"/>
+      <c r="D422" s="29"/>
+      <c r="E422" s="29"/>
     </row>
     <row r="423">
-      <c r="C423" s="24"/>
-      <c r="D423" s="25"/>
-      <c r="E423" s="24"/>
+      <c r="C423" s="29"/>
+      <c r="D423" s="29"/>
+      <c r="E423" s="29"/>
     </row>
     <row r="424">
-      <c r="C424" s="24"/>
-      <c r="D424" s="25"/>
-      <c r="E424" s="24"/>
+      <c r="C424" s="29"/>
+      <c r="D424" s="29"/>
+      <c r="E424" s="29"/>
     </row>
     <row r="425">
-      <c r="C425" s="24"/>
-      <c r="D425" s="25"/>
-      <c r="E425" s="24"/>
+      <c r="C425" s="29"/>
+      <c r="D425" s="29"/>
+      <c r="E425" s="29"/>
     </row>
     <row r="426">
-      <c r="C426" s="24"/>
-      <c r="D426" s="25"/>
-      <c r="E426" s="24"/>
+      <c r="C426" s="29"/>
+      <c r="D426" s="29"/>
+      <c r="E426" s="29"/>
     </row>
     <row r="427">
-      <c r="C427" s="24"/>
-      <c r="D427" s="25"/>
-      <c r="E427" s="24"/>
+      <c r="C427" s="29"/>
+      <c r="D427" s="29"/>
+      <c r="E427" s="29"/>
     </row>
     <row r="428">
-      <c r="C428" s="24"/>
-      <c r="D428" s="25"/>
-      <c r="E428" s="24"/>
+      <c r="C428" s="29"/>
+      <c r="D428" s="29"/>
+      <c r="E428" s="29"/>
     </row>
     <row r="429">
-      <c r="C429" s="24"/>
-      <c r="D429" s="25"/>
-      <c r="E429" s="24"/>
+      <c r="C429" s="29"/>
+      <c r="D429" s="29"/>
+      <c r="E429" s="29"/>
     </row>
     <row r="430">
-      <c r="C430" s="24"/>
-      <c r="D430" s="25"/>
-      <c r="E430" s="24"/>
+      <c r="C430" s="29"/>
+      <c r="D430" s="29"/>
+      <c r="E430" s="29"/>
     </row>
     <row r="431">
-      <c r="C431" s="24"/>
-      <c r="D431" s="25"/>
-      <c r="E431" s="24"/>
+      <c r="C431" s="29"/>
+      <c r="D431" s="29"/>
+      <c r="E431" s="29"/>
     </row>
     <row r="432">
-      <c r="C432" s="24"/>
-      <c r="D432" s="25"/>
-      <c r="E432" s="24"/>
+      <c r="C432" s="29"/>
+      <c r="D432" s="29"/>
+      <c r="E432" s="29"/>
     </row>
     <row r="433">
-      <c r="C433" s="24"/>
-      <c r="D433" s="25"/>
-      <c r="E433" s="24"/>
+      <c r="C433" s="29"/>
+      <c r="D433" s="29"/>
+      <c r="E433" s="29"/>
     </row>
     <row r="434">
-      <c r="C434" s="24"/>
-      <c r="D434" s="25"/>
-      <c r="E434" s="24"/>
+      <c r="C434" s="29"/>
+      <c r="D434" s="29"/>
+      <c r="E434" s="29"/>
     </row>
     <row r="435">
-      <c r="C435" s="24"/>
-      <c r="D435" s="25"/>
-      <c r="E435" s="24"/>
+      <c r="C435" s="29"/>
+      <c r="D435" s="29"/>
+      <c r="E435" s="29"/>
     </row>
     <row r="436">
-      <c r="C436" s="24"/>
-      <c r="D436" s="25"/>
-      <c r="E436" s="24"/>
+      <c r="C436" s="29"/>
+      <c r="D436" s="29"/>
+      <c r="E436" s="29"/>
     </row>
     <row r="437">
-      <c r="C437" s="24"/>
-      <c r="D437" s="25"/>
-      <c r="E437" s="24"/>
+      <c r="C437" s="29"/>
+      <c r="D437" s="29"/>
+      <c r="E437" s="29"/>
     </row>
     <row r="438">
-      <c r="C438" s="24"/>
-      <c r="D438" s="25"/>
-      <c r="E438" s="24"/>
+      <c r="C438" s="29"/>
+      <c r="D438" s="29"/>
+      <c r="E438" s="29"/>
     </row>
     <row r="439">
-      <c r="C439" s="24"/>
-      <c r="D439" s="25"/>
-      <c r="E439" s="24"/>
+      <c r="C439" s="29"/>
+      <c r="D439" s="29"/>
+      <c r="E439" s="29"/>
     </row>
     <row r="440">
-      <c r="C440" s="24"/>
-      <c r="D440" s="25"/>
-      <c r="E440" s="24"/>
+      <c r="C440" s="29"/>
+      <c r="D440" s="29"/>
+      <c r="E440" s="29"/>
     </row>
     <row r="441">
-      <c r="C441" s="24"/>
-      <c r="D441" s="25"/>
-      <c r="E441" s="24"/>
+      <c r="C441" s="29"/>
+      <c r="D441" s="29"/>
+      <c r="E441" s="29"/>
     </row>
     <row r="442">
-      <c r="C442" s="24"/>
-      <c r="D442" s="25"/>
-      <c r="E442" s="24"/>
+      <c r="C442" s="29"/>
+      <c r="D442" s="29"/>
+      <c r="E442" s="29"/>
     </row>
     <row r="443">
-      <c r="C443" s="24"/>
-      <c r="D443" s="25"/>
-      <c r="E443" s="24"/>
+      <c r="C443" s="29"/>
+      <c r="D443" s="29"/>
+      <c r="E443" s="29"/>
     </row>
     <row r="444">
-      <c r="C444" s="24"/>
-      <c r="D444" s="25"/>
-      <c r="E444" s="24"/>
+      <c r="C444" s="29"/>
+      <c r="D444" s="29"/>
+      <c r="E444" s="29"/>
     </row>
     <row r="445">
-      <c r="C445" s="24"/>
-      <c r="D445" s="25"/>
-      <c r="E445" s="24"/>
+      <c r="C445" s="29"/>
+      <c r="D445" s="29"/>
+      <c r="E445" s="29"/>
     </row>
     <row r="446">
-      <c r="C446" s="24"/>
-      <c r="D446" s="25"/>
-      <c r="E446" s="24"/>
+      <c r="C446" s="29"/>
+      <c r="D446" s="29"/>
+      <c r="E446" s="29"/>
     </row>
     <row r="447">
-      <c r="C447" s="24"/>
-      <c r="D447" s="25"/>
-      <c r="E447" s="24"/>
+      <c r="C447" s="29"/>
+      <c r="D447" s="29"/>
+      <c r="E447" s="29"/>
     </row>
     <row r="448">
-      <c r="C448" s="24"/>
-      <c r="D448" s="25"/>
-      <c r="E448" s="24"/>
+      <c r="C448" s="29"/>
+      <c r="D448" s="29"/>
+      <c r="E448" s="29"/>
     </row>
     <row r="449">
-      <c r="C449" s="24"/>
-      <c r="D449" s="25"/>
-      <c r="E449" s="24"/>
+      <c r="C449" s="29"/>
+      <c r="D449" s="29"/>
+      <c r="E449" s="29"/>
     </row>
     <row r="450">
-      <c r="C450" s="24"/>
-      <c r="D450" s="25"/>
-      <c r="E450" s="24"/>
+      <c r="C450" s="29"/>
+      <c r="D450" s="29"/>
+      <c r="E450" s="29"/>
     </row>
     <row r="451">
-      <c r="C451" s="24"/>
-      <c r="D451" s="25"/>
-      <c r="E451" s="24"/>
+      <c r="C451" s="29"/>
+      <c r="D451" s="29"/>
+      <c r="E451" s="29"/>
     </row>
     <row r="452">
-      <c r="C452" s="24"/>
-      <c r="D452" s="25"/>
-      <c r="E452" s="24"/>
+      <c r="C452" s="29"/>
+      <c r="D452" s="29"/>
+      <c r="E452" s="29"/>
     </row>
     <row r="453">
-      <c r="C453" s="24"/>
-      <c r="D453" s="25"/>
-      <c r="E453" s="24"/>
+      <c r="C453" s="29"/>
+      <c r="D453" s="29"/>
+      <c r="E453" s="29"/>
     </row>
     <row r="454">
-      <c r="C454" s="24"/>
-      <c r="D454" s="25"/>
-      <c r="E454" s="24"/>
+      <c r="C454" s="29"/>
+      <c r="D454" s="29"/>
+      <c r="E454" s="29"/>
     </row>
     <row r="455">
-      <c r="C455" s="24"/>
-      <c r="D455" s="25"/>
-      <c r="E455" s="24"/>
+      <c r="C455" s="29"/>
+      <c r="D455" s="29"/>
+      <c r="E455" s="29"/>
     </row>
     <row r="456">
-      <c r="C456" s="24"/>
-      <c r="D456" s="25"/>
-      <c r="E456" s="24"/>
+      <c r="C456" s="29"/>
+      <c r="D456" s="29"/>
+      <c r="E456" s="29"/>
     </row>
     <row r="457">
-      <c r="C457" s="24"/>
-      <c r="D457" s="25"/>
-      <c r="E457" s="24"/>
+      <c r="C457" s="29"/>
+      <c r="D457" s="29"/>
+      <c r="E457" s="29"/>
     </row>
     <row r="458">
-      <c r="C458" s="24"/>
-      <c r="D458" s="25"/>
-      <c r="E458" s="24"/>
+      <c r="C458" s="29"/>
+      <c r="D458" s="29"/>
+      <c r="E458" s="29"/>
     </row>
     <row r="459">
-      <c r="C459" s="24"/>
-      <c r="D459" s="25"/>
-      <c r="E459" s="24"/>
+      <c r="C459" s="29"/>
+      <c r="D459" s="29"/>
+      <c r="E459" s="29"/>
     </row>
     <row r="460">
-      <c r="C460" s="24"/>
-      <c r="D460" s="25"/>
-      <c r="E460" s="24"/>
+      <c r="C460" s="29"/>
+      <c r="D460" s="29"/>
+      <c r="E460" s="29"/>
     </row>
     <row r="461">
-      <c r="C461" s="24"/>
-      <c r="D461" s="25"/>
-      <c r="E461" s="24"/>
+      <c r="C461" s="29"/>
+      <c r="D461" s="29"/>
+      <c r="E461" s="29"/>
     </row>
     <row r="462">
-      <c r="C462" s="24"/>
-      <c r="D462" s="25"/>
-      <c r="E462" s="24"/>
+      <c r="C462" s="29"/>
+      <c r="D462" s="29"/>
+      <c r="E462" s="29"/>
     </row>
     <row r="463">
-      <c r="C463" s="24"/>
-      <c r="D463" s="25"/>
-      <c r="E463" s="24"/>
+      <c r="C463" s="29"/>
+      <c r="D463" s="29"/>
+      <c r="E463" s="29"/>
     </row>
     <row r="464">
-      <c r="C464" s="24"/>
-      <c r="D464" s="25"/>
-      <c r="E464" s="24"/>
+      <c r="C464" s="29"/>
+      <c r="D464" s="29"/>
+      <c r="E464" s="29"/>
     </row>
     <row r="465">
-      <c r="C465" s="24"/>
-      <c r="D465" s="25"/>
-      <c r="E465" s="24"/>
+      <c r="C465" s="29"/>
+      <c r="D465" s="29"/>
+      <c r="E465" s="29"/>
     </row>
     <row r="466">
-      <c r="C466" s="24"/>
-      <c r="D466" s="25"/>
-      <c r="E466" s="24"/>
+      <c r="C466" s="29"/>
+      <c r="D466" s="29"/>
+      <c r="E466" s="29"/>
     </row>
     <row r="467">
-      <c r="C467" s="24"/>
-      <c r="D467" s="25"/>
-      <c r="E467" s="24"/>
+      <c r="C467" s="29"/>
+      <c r="D467" s="29"/>
+      <c r="E467" s="29"/>
     </row>
     <row r="468">
-      <c r="C468" s="24"/>
-      <c r="D468" s="25"/>
-      <c r="E468" s="24"/>
+      <c r="C468" s="29"/>
+      <c r="D468" s="29"/>
+      <c r="E468" s="29"/>
     </row>
     <row r="469">
-      <c r="C469" s="24"/>
-      <c r="D469" s="25"/>
-      <c r="E469" s="24"/>
+      <c r="C469" s="29"/>
+      <c r="D469" s="29"/>
+      <c r="E469" s="29"/>
     </row>
     <row r="470">
-      <c r="C470" s="24"/>
-      <c r="D470" s="25"/>
-      <c r="E470" s="24"/>
+      <c r="C470" s="29"/>
+      <c r="D470" s="29"/>
+      <c r="E470" s="29"/>
     </row>
     <row r="471">
-      <c r="C471" s="24"/>
-      <c r="D471" s="25"/>
-      <c r="E471" s="24"/>
+      <c r="C471" s="29"/>
+      <c r="D471" s="29"/>
+      <c r="E471" s="29"/>
     </row>
     <row r="472">
-      <c r="C472" s="24"/>
-      <c r="D472" s="25"/>
-      <c r="E472" s="24"/>
+      <c r="C472" s="29"/>
+      <c r="D472" s="29"/>
+      <c r="E472" s="29"/>
     </row>
     <row r="473">
-      <c r="C473" s="24"/>
-      <c r="D473" s="25"/>
-      <c r="E473" s="24"/>
+      <c r="C473" s="29"/>
+      <c r="D473" s="29"/>
+      <c r="E473" s="29"/>
     </row>
     <row r="474">
-      <c r="C474" s="24"/>
-      <c r="D474" s="25"/>
-      <c r="E474" s="24"/>
+      <c r="C474" s="29"/>
+      <c r="D474" s="29"/>
+      <c r="E474" s="29"/>
     </row>
     <row r="475">
-      <c r="C475" s="24"/>
-      <c r="D475" s="25"/>
-      <c r="E475" s="24"/>
+      <c r="C475" s="29"/>
+      <c r="D475" s="29"/>
+      <c r="E475" s="29"/>
     </row>
     <row r="476">
-      <c r="C476" s="24"/>
-      <c r="D476" s="25"/>
-      <c r="E476" s="24"/>
+      <c r="C476" s="29"/>
+      <c r="D476" s="29"/>
+      <c r="E476" s="29"/>
     </row>
     <row r="477">
-      <c r="C477" s="24"/>
-      <c r="D477" s="25"/>
-      <c r="E477" s="24"/>
+      <c r="C477" s="29"/>
+      <c r="D477" s="29"/>
+      <c r="E477" s="29"/>
     </row>
     <row r="478">
-      <c r="C478" s="24"/>
-      <c r="D478" s="25"/>
-      <c r="E478" s="24"/>
+      <c r="C478" s="29"/>
+      <c r="D478" s="29"/>
+      <c r="E478" s="29"/>
     </row>
     <row r="479">
-      <c r="C479" s="24"/>
-      <c r="D479" s="25"/>
-      <c r="E479" s="24"/>
+      <c r="C479" s="29"/>
+      <c r="D479" s="29"/>
+      <c r="E479" s="29"/>
     </row>
     <row r="480">
-      <c r="C480" s="24"/>
-      <c r="D480" s="25"/>
-      <c r="E480" s="24"/>
+      <c r="C480" s="29"/>
+      <c r="D480" s="29"/>
+      <c r="E480" s="29"/>
     </row>
     <row r="481">
-      <c r="C481" s="24"/>
-      <c r="D481" s="25"/>
-      <c r="E481" s="24"/>
+      <c r="C481" s="29"/>
+      <c r="D481" s="29"/>
+      <c r="E481" s="29"/>
     </row>
     <row r="482">
-      <c r="C482" s="24"/>
-      <c r="D482" s="25"/>
-      <c r="E482" s="24"/>
+      <c r="C482" s="29"/>
+      <c r="D482" s="29"/>
+      <c r="E482" s="29"/>
     </row>
     <row r="483">
-      <c r="C483" s="24"/>
-      <c r="D483" s="25"/>
-      <c r="E483" s="24"/>
+      <c r="C483" s="29"/>
+      <c r="D483" s="29"/>
+      <c r="E483" s="29"/>
     </row>
     <row r="484">
-      <c r="C484" s="24"/>
-      <c r="D484" s="25"/>
-      <c r="E484" s="24"/>
+      <c r="C484" s="29"/>
+      <c r="D484" s="29"/>
+      <c r="E484" s="29"/>
     </row>
     <row r="485">
-      <c r="C485" s="24"/>
-      <c r="D485" s="25"/>
-      <c r="E485" s="24"/>
+      <c r="C485" s="29"/>
+      <c r="D485" s="29"/>
+      <c r="E485" s="29"/>
     </row>
     <row r="486">
-      <c r="C486" s="24"/>
-      <c r="D486" s="25"/>
-      <c r="E486" s="24"/>
+      <c r="C486" s="29"/>
+      <c r="D486" s="29"/>
+      <c r="E486" s="29"/>
     </row>
     <row r="487">
-      <c r="C487" s="24"/>
-      <c r="D487" s="25"/>
-      <c r="E487" s="24"/>
+      <c r="C487" s="29"/>
+      <c r="D487" s="29"/>
+      <c r="E487" s="29"/>
     </row>
     <row r="488">
-      <c r="C488" s="24"/>
-      <c r="D488" s="25"/>
-      <c r="E488" s="24"/>
+      <c r="C488" s="29"/>
+      <c r="D488" s="29"/>
+      <c r="E488" s="29"/>
     </row>
     <row r="489">
-      <c r="C489" s="24"/>
-      <c r="D489" s="25"/>
-      <c r="E489" s="24"/>
+      <c r="C489" s="29"/>
+      <c r="D489" s="29"/>
+      <c r="E489" s="29"/>
     </row>
     <row r="490">
-      <c r="C490" s="24"/>
-      <c r="D490" s="25"/>
-      <c r="E490" s="24"/>
+      <c r="C490" s="29"/>
+      <c r="D490" s="29"/>
+      <c r="E490" s="29"/>
     </row>
     <row r="491">
-      <c r="C491" s="24"/>
-      <c r="D491" s="25"/>
-      <c r="E491" s="24"/>
+      <c r="C491" s="29"/>
+      <c r="D491" s="29"/>
+      <c r="E491" s="29"/>
     </row>
     <row r="492">
-      <c r="C492" s="24"/>
-      <c r="D492" s="25"/>
-      <c r="E492" s="24"/>
+      <c r="C492" s="29"/>
+      <c r="D492" s="29"/>
+      <c r="E492" s="29"/>
     </row>
     <row r="493">
-      <c r="C493" s="24"/>
-      <c r="D493" s="25"/>
-      <c r="E493" s="24"/>
+      <c r="C493" s="29"/>
+      <c r="D493" s="29"/>
+      <c r="E493" s="29"/>
     </row>
     <row r="494">
-      <c r="C494" s="24"/>
-      <c r="D494" s="25"/>
-      <c r="E494" s="24"/>
+      <c r="C494" s="29"/>
+      <c r="D494" s="29"/>
+      <c r="E494" s="29"/>
     </row>
     <row r="495">
-      <c r="C495" s="24"/>
-      <c r="D495" s="25"/>
-      <c r="E495" s="24"/>
+      <c r="C495" s="29"/>
+      <c r="D495" s="29"/>
+      <c r="E495" s="29"/>
     </row>
     <row r="496">
-      <c r="C496" s="24"/>
-      <c r="D496" s="25"/>
-      <c r="E496" s="24"/>
+      <c r="C496" s="29"/>
+      <c r="D496" s="29"/>
+      <c r="E496" s="29"/>
     </row>
     <row r="497">
-      <c r="C497" s="24"/>
-      <c r="D497" s="25"/>
-      <c r="E497" s="24"/>
+      <c r="C497" s="29"/>
+      <c r="D497" s="29"/>
+      <c r="E497" s="29"/>
     </row>
     <row r="498">
-      <c r="C498" s="24"/>
-      <c r="D498" s="25"/>
-      <c r="E498" s="24"/>
+      <c r="C498" s="29"/>
+      <c r="D498" s="29"/>
+      <c r="E498" s="29"/>
     </row>
     <row r="499">
-      <c r="C499" s="24"/>
-      <c r="D499" s="25"/>
-      <c r="E499" s="24"/>
+      <c r="C499" s="29"/>
+      <c r="D499" s="29"/>
+      <c r="E499" s="29"/>
     </row>
     <row r="500">
-      <c r="C500" s="24"/>
-      <c r="D500" s="25"/>
-      <c r="E500" s="24"/>
+      <c r="C500" s="29"/>
+      <c r="D500" s="29"/>
+      <c r="E500" s="29"/>
     </row>
     <row r="501">
-      <c r="C501" s="24"/>
-      <c r="D501" s="25"/>
-      <c r="E501" s="24"/>
+      <c r="C501" s="29"/>
+      <c r="D501" s="29"/>
+      <c r="E501" s="29"/>
     </row>
     <row r="502">
-      <c r="C502" s="24"/>
-      <c r="D502" s="25"/>
-      <c r="E502" s="24"/>
+      <c r="C502" s="29"/>
+      <c r="D502" s="29"/>
+      <c r="E502" s="29"/>
     </row>
     <row r="503">
-      <c r="C503" s="24"/>
-      <c r="D503" s="25"/>
-      <c r="E503" s="24"/>
+      <c r="C503" s="29"/>
+      <c r="D503" s="29"/>
+      <c r="E503" s="29"/>
     </row>
     <row r="504">
-      <c r="C504" s="24"/>
-      <c r="D504" s="25"/>
-      <c r="E504" s="24"/>
+      <c r="C504" s="29"/>
+      <c r="D504" s="29"/>
+      <c r="E504" s="29"/>
     </row>
     <row r="505">
-      <c r="C505" s="24"/>
-      <c r="D505" s="25"/>
-      <c r="E505" s="24"/>
+      <c r="C505" s="29"/>
+      <c r="D505" s="29"/>
+      <c r="E505" s="29"/>
     </row>
     <row r="506">
-      <c r="C506" s="24"/>
-      <c r="D506" s="25"/>
-      <c r="E506" s="24"/>
+      <c r="C506" s="29"/>
+      <c r="D506" s="29"/>
+      <c r="E506" s="29"/>
     </row>
     <row r="507">
-      <c r="C507" s="24"/>
-      <c r="D507" s="25"/>
-      <c r="E507" s="24"/>
+      <c r="C507" s="29"/>
+      <c r="D507" s="29"/>
+      <c r="E507" s="29"/>
     </row>
     <row r="508">
-      <c r="C508" s="24"/>
-      <c r="D508" s="25"/>
-      <c r="E508" s="24"/>
+      <c r="C508" s="29"/>
+      <c r="D508" s="29"/>
+      <c r="E508" s="29"/>
     </row>
     <row r="509">
-      <c r="C509" s="24"/>
-      <c r="D509" s="25"/>
-      <c r="E509" s="24"/>
+      <c r="C509" s="29"/>
+      <c r="D509" s="29"/>
+      <c r="E509" s="29"/>
     </row>
     <row r="510">
-      <c r="C510" s="24"/>
-      <c r="D510" s="25"/>
-      <c r="E510" s="24"/>
+      <c r="C510" s="29"/>
+      <c r="D510" s="29"/>
+      <c r="E510" s="29"/>
     </row>
     <row r="511">
-      <c r="C511" s="24"/>
-      <c r="D511" s="25"/>
-      <c r="E511" s="24"/>
+      <c r="C511" s="29"/>
+      <c r="D511" s="29"/>
+      <c r="E511" s="29"/>
     </row>
     <row r="512">
-      <c r="C512" s="24"/>
-      <c r="D512" s="25"/>
-      <c r="E512" s="24"/>
+      <c r="C512" s="29"/>
+      <c r="D512" s="29"/>
+      <c r="E512" s="29"/>
     </row>
     <row r="513">
-      <c r="C513" s="24"/>
-      <c r="D513" s="25"/>
-      <c r="E513" s="24"/>
+      <c r="C513" s="29"/>
+      <c r="D513" s="29"/>
+      <c r="E513" s="29"/>
     </row>
     <row r="514">
-      <c r="C514" s="24"/>
-      <c r="D514" s="25"/>
-      <c r="E514" s="24"/>
+      <c r="C514" s="29"/>
+      <c r="D514" s="29"/>
+      <c r="E514" s="29"/>
     </row>
     <row r="515">
-      <c r="C515" s="24"/>
-      <c r="D515" s="25"/>
-      <c r="E515" s="24"/>
+      <c r="C515" s="29"/>
+      <c r="D515" s="29"/>
+      <c r="E515" s="29"/>
     </row>
     <row r="516">
-      <c r="C516" s="24"/>
-      <c r="D516" s="25"/>
-      <c r="E516" s="24"/>
+      <c r="C516" s="29"/>
+      <c r="D516" s="29"/>
+      <c r="E516" s="29"/>
     </row>
     <row r="517">
-      <c r="C517" s="24"/>
-      <c r="D517" s="25"/>
-      <c r="E517" s="24"/>
+      <c r="C517" s="29"/>
+      <c r="D517" s="29"/>
+      <c r="E517" s="29"/>
     </row>
     <row r="518">
-      <c r="C518" s="24"/>
-      <c r="D518" s="25"/>
-      <c r="E518" s="24"/>
+      <c r="C518" s="29"/>
+      <c r="D518" s="29"/>
+      <c r="E518" s="29"/>
     </row>
     <row r="519">
-      <c r="C519" s="24"/>
-      <c r="D519" s="25"/>
-      <c r="E519" s="24"/>
+      <c r="C519" s="29"/>
+      <c r="D519" s="29"/>
+      <c r="E519" s="29"/>
     </row>
     <row r="520">
-      <c r="C520" s="24"/>
-      <c r="D520" s="25"/>
-      <c r="E520" s="24"/>
+      <c r="C520" s="29"/>
+      <c r="D520" s="29"/>
+      <c r="E520" s="29"/>
     </row>
     <row r="521">
-      <c r="C521" s="24"/>
-      <c r="D521" s="25"/>
-      <c r="E521" s="24"/>
+      <c r="C521" s="29"/>
+      <c r="D521" s="29"/>
+      <c r="E521" s="29"/>
     </row>
     <row r="522">
-      <c r="C522" s="24"/>
-      <c r="D522" s="25"/>
-      <c r="E522" s="24"/>
+      <c r="C522" s="29"/>
+      <c r="D522" s="29"/>
+      <c r="E522" s="29"/>
     </row>
     <row r="523">
-      <c r="C523" s="24"/>
-      <c r="D523" s="25"/>
-      <c r="E523" s="24"/>
+      <c r="C523" s="29"/>
+      <c r="D523" s="29"/>
+      <c r="E523" s="29"/>
     </row>
     <row r="524">
-      <c r="C524" s="24"/>
-      <c r="D524" s="25"/>
-      <c r="E524" s="24"/>
+      <c r="C524" s="29"/>
+      <c r="D524" s="29"/>
+      <c r="E524" s="29"/>
     </row>
     <row r="525">
-      <c r="C525" s="24"/>
-      <c r="D525" s="25"/>
-      <c r="E525" s="24"/>
+      <c r="C525" s="29"/>
+      <c r="D525" s="29"/>
+      <c r="E525" s="29"/>
     </row>
     <row r="526">
-      <c r="C526" s="24"/>
-      <c r="D526" s="25"/>
-      <c r="E526" s="24"/>
+      <c r="C526" s="29"/>
+      <c r="D526" s="29"/>
+      <c r="E526" s="29"/>
     </row>
     <row r="527">
-      <c r="C527" s="24"/>
-      <c r="D527" s="25"/>
-      <c r="E527" s="24"/>
+      <c r="C527" s="29"/>
+      <c r="D527" s="29"/>
+      <c r="E527" s="29"/>
     </row>
     <row r="528">
-      <c r="C528" s="24"/>
-      <c r="D528" s="25"/>
-      <c r="E528" s="24"/>
+      <c r="C528" s="29"/>
+      <c r="D528" s="29"/>
+      <c r="E528" s="29"/>
     </row>
     <row r="529">
-      <c r="C529" s="24"/>
-      <c r="D529" s="25"/>
-      <c r="E529" s="24"/>
+      <c r="C529" s="29"/>
+      <c r="D529" s="29"/>
+      <c r="E529" s="29"/>
     </row>
     <row r="530">
-      <c r="C530" s="24"/>
-      <c r="D530" s="25"/>
-      <c r="E530" s="24"/>
+      <c r="C530" s="29"/>
+      <c r="D530" s="29"/>
+      <c r="E530" s="29"/>
     </row>
     <row r="531">
-      <c r="C531" s="24"/>
-      <c r="D531" s="25"/>
-      <c r="E531" s="24"/>
+      <c r="C531" s="29"/>
+      <c r="D531" s="29"/>
+      <c r="E531" s="29"/>
     </row>
     <row r="532">
-      <c r="C532" s="24"/>
-      <c r="D532" s="25"/>
-      <c r="E532" s="24"/>
+      <c r="C532" s="29"/>
+      <c r="D532" s="29"/>
+      <c r="E532" s="29"/>
     </row>
     <row r="533">
-      <c r="C533" s="24"/>
-      <c r="D533" s="25"/>
-      <c r="E533" s="24"/>
+      <c r="C533" s="29"/>
+      <c r="D533" s="29"/>
+      <c r="E533" s="29"/>
     </row>
     <row r="534">
-      <c r="C534" s="24"/>
-      <c r="D534" s="25"/>
-      <c r="E534" s="24"/>
+      <c r="C534" s="29"/>
+      <c r="D534" s="29"/>
+      <c r="E534" s="29"/>
     </row>
     <row r="535">
-      <c r="C535" s="24"/>
-      <c r="D535" s="25"/>
-      <c r="E535" s="24"/>
+      <c r="C535" s="29"/>
+      <c r="D535" s="29"/>
+      <c r="E535" s="29"/>
     </row>
     <row r="536">
-      <c r="C536" s="24"/>
-      <c r="D536" s="25"/>
-      <c r="E536" s="24"/>
+      <c r="C536" s="29"/>
+      <c r="D536" s="29"/>
+      <c r="E536" s="29"/>
     </row>
     <row r="537">
-      <c r="C537" s="24"/>
-      <c r="D537" s="25"/>
-      <c r="E537" s="24"/>
+      <c r="C537" s="29"/>
+      <c r="D537" s="29"/>
+      <c r="E537" s="29"/>
     </row>
     <row r="538">
-      <c r="C538" s="24"/>
-      <c r="D538" s="25"/>
-      <c r="E538" s="24"/>
+      <c r="C538" s="29"/>
+      <c r="D538" s="29"/>
+      <c r="E538" s="29"/>
     </row>
     <row r="539">
-      <c r="C539" s="24"/>
-      <c r="D539" s="25"/>
-      <c r="E539" s="24"/>
+      <c r="C539" s="29"/>
+      <c r="D539" s="29"/>
+      <c r="E539" s="29"/>
     </row>
     <row r="540">
-      <c r="C540" s="24"/>
-      <c r="D540" s="25"/>
-      <c r="E540" s="24"/>
+      <c r="C540" s="29"/>
+      <c r="D540" s="29"/>
+      <c r="E540" s="29"/>
     </row>
     <row r="541">
-      <c r="C541" s="24"/>
-      <c r="D541" s="25"/>
-      <c r="E541" s="24"/>
+      <c r="C541" s="29"/>
+      <c r="D541" s="29"/>
+      <c r="E541" s="29"/>
     </row>
     <row r="542">
-      <c r="C542" s="24"/>
-      <c r="D542" s="25"/>
-      <c r="E542" s="24"/>
+      <c r="C542" s="29"/>
+      <c r="D542" s="29"/>
+      <c r="E542" s="29"/>
     </row>
     <row r="543">
-      <c r="C543" s="24"/>
-      <c r="D543" s="25"/>
-      <c r="E543" s="24"/>
+      <c r="C543" s="29"/>
+      <c r="D543" s="29"/>
+      <c r="E543" s="29"/>
     </row>
     <row r="544">
-      <c r="C544" s="24"/>
-      <c r="D544" s="25"/>
-      <c r="E544" s="24"/>
+      <c r="C544" s="29"/>
+      <c r="D544" s="29"/>
+      <c r="E544" s="29"/>
     </row>
     <row r="545">
-      <c r="C545" s="24"/>
-      <c r="D545" s="25"/>
-      <c r="E545" s="24"/>
+      <c r="C545" s="29"/>
+      <c r="D545" s="29"/>
+      <c r="E545" s="29"/>
     </row>
     <row r="546">
-      <c r="C546" s="24"/>
-      <c r="D546" s="25"/>
-      <c r="E546" s="24"/>
+      <c r="C546" s="29"/>
+      <c r="D546" s="29"/>
+      <c r="E546" s="29"/>
     </row>
     <row r="547">
-      <c r="C547" s="24"/>
-      <c r="D547" s="25"/>
-      <c r="E547" s="24"/>
+      <c r="C547" s="29"/>
+      <c r="D547" s="29"/>
+      <c r="E547" s="29"/>
     </row>
     <row r="548">
-      <c r="C548" s="24"/>
-      <c r="D548" s="25"/>
-      <c r="E548" s="24"/>
+      <c r="C548" s="29"/>
+      <c r="D548" s="29"/>
+      <c r="E548" s="29"/>
     </row>
     <row r="549">
-      <c r="C549" s="24"/>
-      <c r="D549" s="25"/>
-      <c r="E549" s="24"/>
+      <c r="C549" s="29"/>
+      <c r="D549" s="29"/>
+      <c r="E549" s="29"/>
     </row>
     <row r="550">
-      <c r="C550" s="24"/>
-      <c r="D550" s="25"/>
-      <c r="E550" s="24"/>
+      <c r="C550" s="29"/>
+      <c r="D550" s="29"/>
+      <c r="E550" s="29"/>
     </row>
     <row r="551">
-      <c r="C551" s="24"/>
-      <c r="D551" s="25"/>
-      <c r="E551" s="24"/>
+      <c r="C551" s="29"/>
+      <c r="D551" s="29"/>
+      <c r="E551" s="29"/>
     </row>
     <row r="552">
-      <c r="C552" s="24"/>
-      <c r="D552" s="25"/>
-      <c r="E552" s="24"/>
+      <c r="C552" s="29"/>
+      <c r="D552" s="29"/>
+      <c r="E552" s="29"/>
     </row>
     <row r="553">
-      <c r="C553" s="24"/>
-      <c r="D553" s="25"/>
-      <c r="E553" s="24"/>
+      <c r="C553" s="29"/>
+      <c r="D553" s="29"/>
+      <c r="E553" s="29"/>
     </row>
     <row r="554">
-      <c r="C554" s="24"/>
-      <c r="D554" s="25"/>
-      <c r="E554" s="24"/>
+      <c r="C554" s="29"/>
+      <c r="D554" s="29"/>
+      <c r="E554" s="29"/>
     </row>
     <row r="555">
-      <c r="C555" s="24"/>
-      <c r="D555" s="25"/>
-      <c r="E555" s="24"/>
+      <c r="C555" s="29"/>
+      <c r="D555" s="29"/>
+      <c r="E555" s="29"/>
     </row>
     <row r="556">
-      <c r="C556" s="24"/>
-      <c r="D556" s="25"/>
-      <c r="E556" s="24"/>
+      <c r="C556" s="29"/>
+      <c r="D556" s="29"/>
+      <c r="E556" s="29"/>
     </row>
     <row r="557">
-      <c r="C557" s="24"/>
-      <c r="D557" s="25"/>
-      <c r="E557" s="24"/>
+      <c r="C557" s="29"/>
+      <c r="D557" s="29"/>
+      <c r="E557" s="29"/>
     </row>
     <row r="558">
-      <c r="C558" s="24"/>
-      <c r="D558" s="25"/>
-      <c r="E558" s="24"/>
+      <c r="C558" s="29"/>
+      <c r="D558" s="29"/>
+      <c r="E558" s="29"/>
     </row>
     <row r="559">
-      <c r="C559" s="24"/>
-      <c r="D559" s="25"/>
-      <c r="E559" s="24"/>
+      <c r="C559" s="29"/>
+      <c r="D559" s="29"/>
+      <c r="E559" s="29"/>
     </row>
     <row r="560">
-      <c r="C560" s="24"/>
-      <c r="D560" s="25"/>
-      <c r="E560" s="24"/>
+      <c r="C560" s="29"/>
+      <c r="D560" s="29"/>
+      <c r="E560" s="29"/>
     </row>
     <row r="561">
-      <c r="C561" s="24"/>
-      <c r="D561" s="25"/>
-      <c r="E561" s="24"/>
+      <c r="C561" s="29"/>
+      <c r="D561" s="29"/>
+      <c r="E561" s="29"/>
     </row>
     <row r="562">
-      <c r="C562" s="24"/>
-      <c r="D562" s="25"/>
-      <c r="E562" s="24"/>
+      <c r="C562" s="29"/>
+      <c r="D562" s="29"/>
+      <c r="E562" s="29"/>
     </row>
     <row r="563">
-      <c r="C563" s="24"/>
-      <c r="D563" s="25"/>
-      <c r="E563" s="24"/>
+      <c r="C563" s="29"/>
+      <c r="D563" s="29"/>
+      <c r="E563" s="29"/>
     </row>
     <row r="564">
-      <c r="C564" s="24"/>
-      <c r="D564" s="25"/>
-      <c r="E564" s="24"/>
+      <c r="C564" s="29"/>
+      <c r="D564" s="29"/>
+      <c r="E564" s="29"/>
     </row>
     <row r="565">
-      <c r="C565" s="24"/>
-      <c r="D565" s="25"/>
-      <c r="E565" s="24"/>
+      <c r="C565" s="29"/>
+      <c r="D565" s="29"/>
+      <c r="E565" s="29"/>
     </row>
     <row r="566">
-      <c r="C566" s="24"/>
-      <c r="D566" s="25"/>
-      <c r="E566" s="24"/>
+      <c r="C566" s="29"/>
+      <c r="D566" s="29"/>
+      <c r="E566" s="29"/>
     </row>
     <row r="567">
-      <c r="C567" s="24"/>
-      <c r="D567" s="25"/>
-      <c r="E567" s="24"/>
+      <c r="C567" s="29"/>
+      <c r="D567" s="29"/>
+      <c r="E567" s="29"/>
     </row>
     <row r="568">
-      <c r="C568" s="24"/>
-      <c r="D568" s="25"/>
-      <c r="E568" s="24"/>
+      <c r="C568" s="29"/>
+      <c r="D568" s="29"/>
+      <c r="E568" s="29"/>
     </row>
     <row r="569">
-      <c r="C569" s="24"/>
-      <c r="D569" s="25"/>
-      <c r="E569" s="24"/>
+      <c r="C569" s="29"/>
+      <c r="D569" s="29"/>
+      <c r="E569" s="29"/>
     </row>
     <row r="570">
-      <c r="C570" s="24"/>
-      <c r="D570" s="25"/>
-      <c r="E570" s="24"/>
+      <c r="C570" s="29"/>
+      <c r="D570" s="29"/>
+      <c r="E570" s="29"/>
     </row>
     <row r="571">
-      <c r="C571" s="24"/>
-      <c r="D571" s="25"/>
-      <c r="E571" s="24"/>
+      <c r="C571" s="29"/>
+      <c r="D571" s="29"/>
+      <c r="E571" s="29"/>
     </row>
     <row r="572">
-      <c r="C572" s="24"/>
-      <c r="D572" s="25"/>
-      <c r="E572" s="24"/>
+      <c r="C572" s="29"/>
+      <c r="D572" s="29"/>
+      <c r="E572" s="29"/>
     </row>
     <row r="573">
-      <c r="C573" s="24"/>
-      <c r="D573" s="25"/>
-      <c r="E573" s="24"/>
+      <c r="C573" s="29"/>
+      <c r="D573" s="29"/>
+      <c r="E573" s="29"/>
     </row>
     <row r="574">
-      <c r="C574" s="24"/>
-      <c r="D574" s="25"/>
-      <c r="E574" s="24"/>
+      <c r="C574" s="29"/>
+      <c r="D574" s="29"/>
+      <c r="E574" s="29"/>
     </row>
     <row r="575">
-      <c r="C575" s="24"/>
-      <c r="D575" s="25"/>
-      <c r="E575" s="24"/>
+      <c r="C575" s="29"/>
+      <c r="D575" s="29"/>
+      <c r="E575" s="29"/>
     </row>
     <row r="576">
-      <c r="C576" s="24"/>
-      <c r="D576" s="25"/>
-      <c r="E576" s="24"/>
+      <c r="C576" s="29"/>
+      <c r="D576" s="29"/>
+      <c r="E576" s="29"/>
     </row>
     <row r="577">
-      <c r="C577" s="24"/>
-      <c r="D577" s="25"/>
-      <c r="E577" s="24"/>
+      <c r="C577" s="29"/>
+      <c r="D577" s="29"/>
+      <c r="E577" s="29"/>
     </row>
     <row r="578">
-      <c r="C578" s="24"/>
-      <c r="D578" s="25"/>
-      <c r="E578" s="24"/>
+      <c r="C578" s="29"/>
+      <c r="D578" s="29"/>
+      <c r="E578" s="29"/>
     </row>
     <row r="579">
-      <c r="C579" s="24"/>
-      <c r="D579" s="25"/>
-      <c r="E579" s="24"/>
+      <c r="C579" s="29"/>
+      <c r="D579" s="29"/>
+      <c r="E579" s="29"/>
     </row>
     <row r="580">
-      <c r="C580" s="24"/>
-      <c r="D580" s="25"/>
-      <c r="E580" s="24"/>
+      <c r="C580" s="29"/>
+      <c r="D580" s="29"/>
+      <c r="E580" s="29"/>
     </row>
     <row r="581">
-      <c r="C581" s="24"/>
-      <c r="D581" s="25"/>
-      <c r="E581" s="24"/>
+      <c r="C581" s="29"/>
+      <c r="D581" s="29"/>
+      <c r="E581" s="29"/>
     </row>
     <row r="582">
-      <c r="C582" s="24"/>
-      <c r="D582" s="25"/>
-      <c r="E582" s="24"/>
+      <c r="C582" s="29"/>
+      <c r="D582" s="29"/>
+      <c r="E582" s="29"/>
     </row>
     <row r="583">
-      <c r="C583" s="24"/>
-      <c r="D583" s="25"/>
-      <c r="E583" s="24"/>
+      <c r="C583" s="29"/>
+      <c r="D583" s="29"/>
+      <c r="E583" s="29"/>
     </row>
     <row r="584">
-      <c r="C584" s="24"/>
-      <c r="D584" s="25"/>
-      <c r="E584" s="24"/>
+      <c r="C584" s="29"/>
+      <c r="D584" s="29"/>
+      <c r="E584" s="29"/>
     </row>
     <row r="585">
-      <c r="C585" s="24"/>
-      <c r="D585" s="25"/>
-      <c r="E585" s="24"/>
+      <c r="C585" s="29"/>
+      <c r="D585" s="29"/>
+      <c r="E585" s="29"/>
     </row>
     <row r="586">
-      <c r="C586" s="24"/>
-      <c r="D586" s="25"/>
-      <c r="E586" s="24"/>
+      <c r="C586" s="29"/>
+      <c r="D586" s="29"/>
+      <c r="E586" s="29"/>
     </row>
     <row r="587">
-      <c r="C587" s="24"/>
-      <c r="D587" s="25"/>
-      <c r="E587" s="24"/>
+      <c r="C587" s="29"/>
+      <c r="D587" s="29"/>
+      <c r="E587" s="29"/>
     </row>
     <row r="588">
-      <c r="C588" s="24"/>
-      <c r="D588" s="25"/>
-      <c r="E588" s="24"/>
+      <c r="C588" s="29"/>
+      <c r="D588" s="29"/>
+      <c r="E588" s="29"/>
     </row>
     <row r="589">
-      <c r="C589" s="24"/>
-      <c r="D589" s="25"/>
-      <c r="E589" s="24"/>
+      <c r="C589" s="29"/>
+      <c r="D589" s="29"/>
+      <c r="E589" s="29"/>
     </row>
     <row r="590">
-      <c r="C590" s="24"/>
-      <c r="D590" s="25"/>
-      <c r="E590" s="24"/>
+      <c r="C590" s="29"/>
+      <c r="D590" s="29"/>
+      <c r="E590" s="29"/>
     </row>
     <row r="591">
-      <c r="C591" s="24"/>
-      <c r="D591" s="25"/>
-      <c r="E591" s="24"/>
+      <c r="C591" s="29"/>
+      <c r="D591" s="29"/>
+      <c r="E591" s="29"/>
     </row>
     <row r="592">
-      <c r="C592" s="24"/>
-      <c r="D592" s="25"/>
-      <c r="E592" s="24"/>
+      <c r="C592" s="29"/>
+      <c r="D592" s="29"/>
+      <c r="E592" s="29"/>
     </row>
     <row r="593">
-      <c r="C593" s="24"/>
-      <c r="D593" s="25"/>
-      <c r="E593" s="24"/>
+      <c r="C593" s="29"/>
+      <c r="D593" s="29"/>
+      <c r="E593" s="29"/>
     </row>
     <row r="594">
-      <c r="C594" s="24"/>
-      <c r="D594" s="25"/>
-      <c r="E594" s="24"/>
+      <c r="C594" s="29"/>
+      <c r="D594" s="29"/>
+      <c r="E594" s="29"/>
     </row>
     <row r="595">
-      <c r="C595" s="24"/>
-      <c r="D595" s="25"/>
-      <c r="E595" s="24"/>
+      <c r="C595" s="29"/>
+      <c r="D595" s="29"/>
+      <c r="E595" s="29"/>
     </row>
     <row r="596">
-      <c r="C596" s="24"/>
-      <c r="D596" s="25"/>
-      <c r="E596" s="24"/>
+      <c r="C596" s="29"/>
+      <c r="D596" s="29"/>
+      <c r="E596" s="29"/>
     </row>
     <row r="597">
-      <c r="C597" s="24"/>
-      <c r="D597" s="25"/>
-      <c r="E597" s="24"/>
+      <c r="C597" s="29"/>
+      <c r="D597" s="29"/>
+      <c r="E597" s="29"/>
     </row>
     <row r="598">
-      <c r="C598" s="24"/>
-      <c r="D598" s="25"/>
-      <c r="E598" s="24"/>
+      <c r="C598" s="29"/>
+      <c r="D598" s="29"/>
+      <c r="E598" s="29"/>
     </row>
     <row r="599">
-      <c r="C599" s="24"/>
-      <c r="D599" s="25"/>
-      <c r="E599" s="24"/>
+      <c r="C599" s="29"/>
+      <c r="D599" s="29"/>
+      <c r="E599" s="29"/>
     </row>
     <row r="600">
-      <c r="C600" s="24"/>
-      <c r="D600" s="25"/>
-      <c r="E600" s="24"/>
+      <c r="C600" s="29"/>
+      <c r="D600" s="29"/>
+      <c r="E600" s="29"/>
     </row>
     <row r="601">
-      <c r="C601" s="24"/>
-      <c r="D601" s="25"/>
-      <c r="E601" s="24"/>
+      <c r="C601" s="29"/>
+      <c r="D601" s="29"/>
+      <c r="E601" s="29"/>
     </row>
     <row r="602">
-      <c r="C602" s="24"/>
-      <c r="D602" s="25"/>
-      <c r="E602" s="24"/>
+      <c r="C602" s="29"/>
+      <c r="D602" s="29"/>
+      <c r="E602" s="29"/>
     </row>
     <row r="603">
-      <c r="C603" s="24"/>
-      <c r="D603" s="25"/>
-      <c r="E603" s="24"/>
+      <c r="C603" s="29"/>
+      <c r="D603" s="29"/>
+      <c r="E603" s="29"/>
     </row>
     <row r="604">
-      <c r="C604" s="24"/>
-      <c r="D604" s="25"/>
-      <c r="E604" s="24"/>
+      <c r="C604" s="29"/>
+      <c r="D604" s="29"/>
+      <c r="E604" s="29"/>
     </row>
     <row r="605">
-      <c r="C605" s="24"/>
-      <c r="D605" s="25"/>
-      <c r="E605" s="24"/>
+      <c r="C605" s="29"/>
+      <c r="D605" s="29"/>
+      <c r="E605" s="29"/>
     </row>
     <row r="606">
-      <c r="C606" s="24"/>
-      <c r="D606" s="25"/>
-      <c r="E606" s="24"/>
+      <c r="C606" s="29"/>
+      <c r="D606" s="29"/>
+      <c r="E606" s="29"/>
     </row>
     <row r="607">
-      <c r="C607" s="24"/>
-      <c r="D607" s="25"/>
-      <c r="E607" s="24"/>
+      <c r="C607" s="29"/>
+      <c r="D607" s="29"/>
+      <c r="E607" s="29"/>
     </row>
     <row r="608">
-      <c r="C608" s="24"/>
-      <c r="D608" s="25"/>
-      <c r="E608" s="24"/>
+      <c r="C608" s="29"/>
+      <c r="D608" s="29"/>
+      <c r="E608" s="29"/>
     </row>
     <row r="609">
-      <c r="C609" s="24"/>
-      <c r="D609" s="25"/>
-      <c r="E609" s="24"/>
+      <c r="C609" s="29"/>
+      <c r="D609" s="29"/>
+      <c r="E609" s="29"/>
     </row>
     <row r="610">
-      <c r="C610" s="24"/>
-      <c r="D610" s="25"/>
-      <c r="E610" s="24"/>
+      <c r="C610" s="29"/>
+      <c r="D610" s="29"/>
+      <c r="E610" s="29"/>
     </row>
     <row r="611">
-      <c r="C611" s="24"/>
-      <c r="D611" s="25"/>
-      <c r="E611" s="24"/>
+      <c r="C611" s="29"/>
+      <c r="D611" s="29"/>
+      <c r="E611" s="29"/>
     </row>
     <row r="612">
-      <c r="C612" s="24"/>
-      <c r="D612" s="25"/>
-      <c r="E612" s="24"/>
+      <c r="C612" s="29"/>
+      <c r="D612" s="29"/>
+      <c r="E612" s="29"/>
     </row>
     <row r="613">
-      <c r="C613" s="24"/>
-      <c r="D613" s="25"/>
-      <c r="E613" s="24"/>
+      <c r="C613" s="29"/>
+      <c r="D613" s="29"/>
+      <c r="E613" s="29"/>
     </row>
     <row r="614">
-      <c r="C614" s="24"/>
-      <c r="D614" s="25"/>
-      <c r="E614" s="24"/>
+      <c r="C614" s="29"/>
+      <c r="D614" s="29"/>
+      <c r="E614" s="29"/>
     </row>
     <row r="615">
-      <c r="C615" s="24"/>
-      <c r="D615" s="25"/>
-      <c r="E615" s="24"/>
+      <c r="C615" s="29"/>
+      <c r="D615" s="29"/>
+      <c r="E615" s="29"/>
     </row>
     <row r="616">
-      <c r="C616" s="24"/>
-      <c r="D616" s="25"/>
-      <c r="E616" s="24"/>
+      <c r="C616" s="29"/>
+      <c r="D616" s="29"/>
+      <c r="E616" s="29"/>
     </row>
     <row r="617">
-      <c r="C617" s="24"/>
-      <c r="D617" s="25"/>
-      <c r="E617" s="24"/>
+      <c r="C617" s="29"/>
+      <c r="D617" s="29"/>
+      <c r="E617" s="29"/>
     </row>
     <row r="618">
-      <c r="C618" s="24"/>
-      <c r="D618" s="25"/>
-      <c r="E618" s="24"/>
+      <c r="C618" s="29"/>
+      <c r="D618" s="29"/>
+      <c r="E618" s="29"/>
     </row>
     <row r="619">
-      <c r="C619" s="24"/>
-      <c r="D619" s="25"/>
-      <c r="E619" s="24"/>
+      <c r="C619" s="29"/>
+      <c r="D619" s="29"/>
+      <c r="E619" s="29"/>
     </row>
     <row r="620">
-      <c r="C620" s="24"/>
-      <c r="D620" s="25"/>
-      <c r="E620" s="24"/>
+      <c r="C620" s="29"/>
+      <c r="D620" s="29"/>
+      <c r="E620" s="29"/>
     </row>
     <row r="621">
-      <c r="C621" s="24"/>
-      <c r="D621" s="25"/>
-      <c r="E621" s="24"/>
+      <c r="C621" s="29"/>
+      <c r="D621" s="29"/>
+      <c r="E621" s="29"/>
     </row>
     <row r="622">
-      <c r="C622" s="24"/>
-      <c r="D622" s="25"/>
-      <c r="E622" s="24"/>
+      <c r="C622" s="29"/>
+      <c r="D622" s="29"/>
+      <c r="E622" s="29"/>
     </row>
     <row r="623">
-      <c r="C623" s="24"/>
-      <c r="D623" s="25"/>
-      <c r="E623" s="24"/>
+      <c r="C623" s="29"/>
+      <c r="D623" s="29"/>
+      <c r="E623" s="29"/>
     </row>
     <row r="624">
-      <c r="C624" s="24"/>
-      <c r="D624" s="25"/>
-      <c r="E624" s="24"/>
+      <c r="C624" s="29"/>
+      <c r="D624" s="29"/>
+      <c r="E624" s="29"/>
     </row>
     <row r="625">
-      <c r="C625" s="24"/>
-      <c r="D625" s="25"/>
-      <c r="E625" s="24"/>
+      <c r="C625" s="29"/>
+      <c r="D625" s="29"/>
+      <c r="E625" s="29"/>
     </row>
     <row r="626">
-      <c r="C626" s="24"/>
-      <c r="D626" s="25"/>
-      <c r="E626" s="24"/>
+      <c r="C626" s="29"/>
+      <c r="D626" s="29"/>
+      <c r="E626" s="29"/>
     </row>
     <row r="627">
-      <c r="C627" s="24"/>
-      <c r="D627" s="25"/>
-      <c r="E627" s="24"/>
+      <c r="C627" s="29"/>
+      <c r="D627" s="29"/>
+      <c r="E627" s="29"/>
     </row>
     <row r="628">
-      <c r="C628" s="24"/>
-      <c r="D628" s="25"/>
-      <c r="E628" s="24"/>
+      <c r="C628" s="29"/>
+      <c r="D628" s="29"/>
+      <c r="E628" s="29"/>
     </row>
     <row r="629">
-      <c r="C629" s="24"/>
-      <c r="D629" s="25"/>
-      <c r="E629" s="24"/>
+      <c r="C629" s="29"/>
+      <c r="D629" s="29"/>
+      <c r="E629" s="29"/>
     </row>
     <row r="630">
-      <c r="C630" s="24"/>
-      <c r="D630" s="25"/>
-      <c r="E630" s="24"/>
+      <c r="C630" s="29"/>
+      <c r="D630" s="29"/>
+      <c r="E630" s="29"/>
     </row>
     <row r="631">
-      <c r="C631" s="24"/>
-      <c r="D631" s="25"/>
-      <c r="E631" s="24"/>
+      <c r="C631" s="29"/>
+      <c r="D631" s="29"/>
+      <c r="E631" s="29"/>
     </row>
     <row r="632">
-      <c r="C632" s="24"/>
-      <c r="D632" s="25"/>
-      <c r="E632" s="24"/>
+      <c r="C632" s="29"/>
+      <c r="D632" s="29"/>
+      <c r="E632" s="29"/>
     </row>
     <row r="633">
-      <c r="C633" s="24"/>
-      <c r="D633" s="25"/>
-      <c r="E633" s="24"/>
+      <c r="C633" s="29"/>
+      <c r="D633" s="29"/>
+      <c r="E633" s="29"/>
     </row>
     <row r="634">
-      <c r="C634" s="24"/>
-      <c r="D634" s="25"/>
-      <c r="E634" s="24"/>
+      <c r="C634" s="29"/>
+      <c r="D634" s="29"/>
+      <c r="E634" s="29"/>
     </row>
     <row r="635">
-      <c r="C635" s="24"/>
-      <c r="D635" s="25"/>
-      <c r="E635" s="24"/>
+      <c r="C635" s="29"/>
+      <c r="D635" s="29"/>
+      <c r="E635" s="29"/>
     </row>
     <row r="636">
-      <c r="C636" s="24"/>
-      <c r="D636" s="25"/>
-      <c r="E636" s="24"/>
+      <c r="C636" s="29"/>
+      <c r="D636" s="29"/>
+      <c r="E636" s="29"/>
     </row>
     <row r="637">
-      <c r="C637" s="24"/>
-      <c r="D637" s="25"/>
-      <c r="E637" s="24"/>
+      <c r="C637" s="29"/>
+      <c r="D637" s="29"/>
+      <c r="E637" s="29"/>
     </row>
     <row r="638">
-      <c r="C638" s="24"/>
-      <c r="D638" s="25"/>
-      <c r="E638" s="24"/>
+      <c r="C638" s="29"/>
+      <c r="D638" s="29"/>
+      <c r="E638" s="29"/>
     </row>
     <row r="639">
-      <c r="C639" s="24"/>
-      <c r="D639" s="25"/>
-      <c r="E639" s="24"/>
+      <c r="C639" s="29"/>
+      <c r="D639" s="29"/>
+      <c r="E639" s="29"/>
     </row>
     <row r="640">
-      <c r="C640" s="24"/>
-      <c r="D640" s="25"/>
-      <c r="E640" s="24"/>
+      <c r="C640" s="29"/>
+      <c r="D640" s="29"/>
+      <c r="E640" s="29"/>
     </row>
     <row r="641">
-      <c r="C641" s="24"/>
-      <c r="D641" s="25"/>
-      <c r="E641" s="24"/>
+      <c r="C641" s="29"/>
+      <c r="D641" s="29"/>
+      <c r="E641" s="29"/>
     </row>
     <row r="642">
-      <c r="C642" s="24"/>
-      <c r="D642" s="25"/>
-      <c r="E642" s="24"/>
+      <c r="C642" s="29"/>
+      <c r="D642" s="29"/>
+      <c r="E642" s="29"/>
     </row>
     <row r="643">
-      <c r="C643" s="24"/>
-      <c r="D643" s="25"/>
-      <c r="E643" s="24"/>
+      <c r="C643" s="29"/>
+      <c r="D643" s="29"/>
+      <c r="E643" s="29"/>
     </row>
     <row r="644">
-      <c r="C644" s="24"/>
-      <c r="D644" s="25"/>
-      <c r="E644" s="24"/>
+      <c r="C644" s="29"/>
+      <c r="D644" s="29"/>
+      <c r="E644" s="29"/>
     </row>
     <row r="645">
-      <c r="C645" s="24"/>
-      <c r="D645" s="25"/>
-      <c r="E645" s="24"/>
+      <c r="C645" s="29"/>
+      <c r="D645" s="29"/>
+      <c r="E645" s="29"/>
     </row>
     <row r="646">
-      <c r="C646" s="24"/>
-      <c r="D646" s="25"/>
-      <c r="E646" s="24"/>
+      <c r="C646" s="29"/>
+      <c r="D646" s="29"/>
+      <c r="E646" s="29"/>
     </row>
     <row r="647">
-      <c r="C647" s="24"/>
-      <c r="D647" s="25"/>
-      <c r="E647" s="24"/>
+      <c r="C647" s="29"/>
+      <c r="D647" s="29"/>
+      <c r="E647" s="29"/>
     </row>
     <row r="648">
-      <c r="C648" s="24"/>
-      <c r="D648" s="25"/>
-      <c r="E648" s="24"/>
+      <c r="C648" s="29"/>
+      <c r="D648" s="29"/>
+      <c r="E648" s="29"/>
     </row>
     <row r="649">
-      <c r="C649" s="24"/>
-      <c r="D649" s="25"/>
-      <c r="E649" s="24"/>
+      <c r="C649" s="29"/>
+      <c r="D649" s="29"/>
+      <c r="E649" s="29"/>
     </row>
     <row r="650">
-      <c r="C650" s="24"/>
-      <c r="D650" s="25"/>
-      <c r="E650" s="24"/>
+      <c r="C650" s="29"/>
+      <c r="D650" s="29"/>
+      <c r="E650" s="29"/>
     </row>
     <row r="651">
-      <c r="C651" s="24"/>
-      <c r="D651" s="25"/>
-      <c r="E651" s="24"/>
+      <c r="C651" s="29"/>
+      <c r="D651" s="29"/>
+      <c r="E651" s="29"/>
     </row>
     <row r="652">
-      <c r="C652" s="24"/>
-      <c r="D652" s="25"/>
-      <c r="E652" s="24"/>
+      <c r="C652" s="29"/>
+      <c r="D652" s="29"/>
+      <c r="E652" s="29"/>
     </row>
     <row r="653">
-      <c r="C653" s="24"/>
-      <c r="D653" s="25"/>
-      <c r="E653" s="24"/>
+      <c r="C653" s="29"/>
+      <c r="D653" s="29"/>
+      <c r="E653" s="29"/>
     </row>
     <row r="654">
-      <c r="C654" s="24"/>
-      <c r="D654" s="25"/>
-      <c r="E654" s="24"/>
+      <c r="C654" s="29"/>
+      <c r="D654" s="29"/>
+      <c r="E654" s="29"/>
     </row>
     <row r="655">
-      <c r="C655" s="24"/>
-      <c r="D655" s="25"/>
-      <c r="E655" s="24"/>
+      <c r="C655" s="29"/>
+      <c r="D655" s="29"/>
+      <c r="E655" s="29"/>
     </row>
     <row r="656">
-      <c r="C656" s="24"/>
-      <c r="D656" s="25"/>
-      <c r="E656" s="24"/>
+      <c r="C656" s="29"/>
+      <c r="D656" s="29"/>
+      <c r="E656" s="29"/>
     </row>
     <row r="657">
-      <c r="C657" s="24"/>
-      <c r="D657" s="25"/>
-      <c r="E657" s="24"/>
+      <c r="C657" s="29"/>
+      <c r="D657" s="29"/>
+      <c r="E657" s="29"/>
     </row>
     <row r="658">
-      <c r="C658" s="24"/>
-      <c r="D658" s="25"/>
-      <c r="E658" s="24"/>
+      <c r="C658" s="29"/>
+      <c r="D658" s="29"/>
+      <c r="E658" s="29"/>
     </row>
     <row r="659">
-      <c r="C659" s="24"/>
-      <c r="D659" s="25"/>
-      <c r="E659" s="24"/>
+      <c r="C659" s="29"/>
+      <c r="D659" s="29"/>
+      <c r="E659" s="29"/>
     </row>
     <row r="660">
-      <c r="C660" s="24"/>
-      <c r="D660" s="25"/>
-      <c r="E660" s="24"/>
+      <c r="C660" s="29"/>
+      <c r="D660" s="29"/>
+      <c r="E660" s="29"/>
     </row>
     <row r="661">
-      <c r="C661" s="24"/>
-      <c r="D661" s="25"/>
-      <c r="E661" s="24"/>
+      <c r="C661" s="29"/>
+      <c r="D661" s="29"/>
+      <c r="E661" s="29"/>
     </row>
     <row r="662">
-      <c r="C662" s="24"/>
-      <c r="D662" s="25"/>
-      <c r="E662" s="24"/>
+      <c r="C662" s="29"/>
+      <c r="D662" s="29"/>
+      <c r="E662" s="29"/>
     </row>
     <row r="663">
-      <c r="C663" s="24"/>
-      <c r="D663" s="25"/>
-      <c r="E663" s="24"/>
+      <c r="C663" s="29"/>
+      <c r="D663" s="29"/>
+      <c r="E663" s="29"/>
     </row>
     <row r="664">
-      <c r="C664" s="24"/>
-      <c r="D664" s="25"/>
-      <c r="E664" s="24"/>
+      <c r="C664" s="29"/>
+      <c r="D664" s="29"/>
+      <c r="E664" s="29"/>
     </row>
     <row r="665">
-      <c r="C665" s="24"/>
-      <c r="D665" s="25"/>
-      <c r="E665" s="24"/>
+      <c r="C665" s="29"/>
+      <c r="D665" s="29"/>
+      <c r="E665" s="29"/>
     </row>
     <row r="666">
-      <c r="C666" s="24"/>
-      <c r="D666" s="25"/>
-      <c r="E666" s="24"/>
+      <c r="C666" s="29"/>
+      <c r="D666" s="29"/>
+      <c r="E666" s="29"/>
     </row>
     <row r="667">
-      <c r="C667" s="24"/>
-      <c r="D667" s="25"/>
-      <c r="E667" s="24"/>
+      <c r="C667" s="29"/>
+      <c r="D667" s="29"/>
+      <c r="E667" s="29"/>
     </row>
     <row r="668">
-      <c r="C668" s="24"/>
-      <c r="D668" s="25"/>
-      <c r="E668" s="24"/>
+      <c r="C668" s="29"/>
+      <c r="D668" s="29"/>
+      <c r="E668" s="29"/>
     </row>
     <row r="669">
-      <c r="C669" s="24"/>
-      <c r="D669" s="25"/>
-      <c r="E669" s="24"/>
+      <c r="C669" s="29"/>
+      <c r="D669" s="29"/>
+      <c r="E669" s="29"/>
     </row>
     <row r="670">
-      <c r="C670" s="24"/>
-      <c r="D670" s="25"/>
-      <c r="E670" s="24"/>
+      <c r="C670" s="29"/>
+      <c r="D670" s="29"/>
+      <c r="E670" s="29"/>
     </row>
     <row r="671">
-      <c r="C671" s="24"/>
-      <c r="D671" s="25"/>
-      <c r="E671" s="24"/>
+      <c r="C671" s="29"/>
+      <c r="D671" s="29"/>
+      <c r="E671" s="29"/>
     </row>
     <row r="672">
-      <c r="C672" s="24"/>
-      <c r="D672" s="25"/>
-      <c r="E672" s="24"/>
+      <c r="C672" s="29"/>
+      <c r="D672" s="29"/>
+      <c r="E672" s="29"/>
     </row>
     <row r="673">
-      <c r="C673" s="24"/>
-      <c r="D673" s="25"/>
-      <c r="E673" s="24"/>
+      <c r="C673" s="29"/>
+      <c r="D673" s="29"/>
+      <c r="E673" s="29"/>
     </row>
     <row r="674">
-      <c r="C674" s="24"/>
-      <c r="D674" s="25"/>
-      <c r="E674" s="24"/>
+      <c r="C674" s="29"/>
+      <c r="D674" s="29"/>
+      <c r="E674" s="29"/>
     </row>
     <row r="675">
-      <c r="C675" s="24"/>
-      <c r="D675" s="25"/>
-      <c r="E675" s="24"/>
+      <c r="C675" s="29"/>
+      <c r="D675" s="29"/>
+      <c r="E675" s="29"/>
     </row>
     <row r="676">
-      <c r="C676" s="24"/>
-      <c r="D676" s="25"/>
-      <c r="E676" s="24"/>
+      <c r="C676" s="29"/>
+      <c r="D676" s="29"/>
+      <c r="E676" s="29"/>
     </row>
     <row r="677">
-      <c r="C677" s="24"/>
-      <c r="D677" s="25"/>
-      <c r="E677" s="24"/>
+      <c r="C677" s="29"/>
+      <c r="D677" s="29"/>
+      <c r="E677" s="29"/>
     </row>
     <row r="678">
-      <c r="C678" s="24"/>
-      <c r="D678" s="25"/>
-      <c r="E678" s="24"/>
+      <c r="C678" s="29"/>
+      <c r="D678" s="29"/>
+      <c r="E678" s="29"/>
     </row>
     <row r="679">
-      <c r="C679" s="24"/>
-      <c r="D679" s="25"/>
-      <c r="E679" s="24"/>
+      <c r="C679" s="29"/>
+      <c r="D679" s="29"/>
+      <c r="E679" s="29"/>
     </row>
     <row r="680">
-      <c r="C680" s="24"/>
-      <c r="D680" s="25"/>
-      <c r="E680" s="24"/>
+      <c r="C680" s="29"/>
+      <c r="D680" s="29"/>
+      <c r="E680" s="29"/>
     </row>
     <row r="681">
-      <c r="C681" s="24"/>
-      <c r="D681" s="25"/>
-      <c r="E681" s="24"/>
+      <c r="C681" s="29"/>
+      <c r="D681" s="29"/>
+      <c r="E681" s="29"/>
     </row>
     <row r="682">
-      <c r="C682" s="24"/>
-      <c r="D682" s="25"/>
-      <c r="E682" s="24"/>
+      <c r="C682" s="29"/>
+      <c r="D682" s="29"/>
+      <c r="E682" s="29"/>
     </row>
     <row r="683">
-      <c r="C683" s="24"/>
-      <c r="D683" s="25"/>
-      <c r="E683" s="24"/>
+      <c r="C683" s="29"/>
+      <c r="D683" s="29"/>
+      <c r="E683" s="29"/>
     </row>
     <row r="684">
-      <c r="C684" s="24"/>
-      <c r="D684" s="25"/>
-      <c r="E684" s="24"/>
+      <c r="C684" s="29"/>
+      <c r="D684" s="29"/>
+      <c r="E684" s="29"/>
     </row>
     <row r="685">
-      <c r="C685" s="24"/>
-      <c r="D685" s="25"/>
-      <c r="E685" s="24"/>
+      <c r="C685" s="29"/>
+      <c r="D685" s="29"/>
+      <c r="E685" s="29"/>
     </row>
     <row r="686">
-      <c r="C686" s="24"/>
-      <c r="D686" s="25"/>
-      <c r="E686" s="24"/>
+      <c r="C686" s="29"/>
+      <c r="D686" s="29"/>
+      <c r="E686" s="29"/>
     </row>
     <row r="687">
-      <c r="C687" s="24"/>
-      <c r="D687" s="25"/>
-      <c r="E687" s="24"/>
+      <c r="C687" s="29"/>
+      <c r="D687" s="29"/>
+      <c r="E687" s="29"/>
     </row>
     <row r="688">
-      <c r="C688" s="24"/>
-      <c r="D688" s="25"/>
-      <c r="E688" s="24"/>
+      <c r="C688" s="29"/>
+      <c r="D688" s="29"/>
+      <c r="E688" s="29"/>
     </row>
     <row r="689">
-      <c r="C689" s="24"/>
-      <c r="D689" s="25"/>
-      <c r="E689" s="24"/>
+      <c r="C689" s="29"/>
+      <c r="D689" s="29"/>
+      <c r="E689" s="29"/>
     </row>
     <row r="690">
-      <c r="C690" s="24"/>
-      <c r="D690" s="25"/>
-      <c r="E690" s="24"/>
+      <c r="C690" s="29"/>
+      <c r="D690" s="29"/>
+      <c r="E690" s="29"/>
     </row>
     <row r="691">
-      <c r="C691" s="24"/>
-      <c r="D691" s="25"/>
-      <c r="E691" s="24"/>
+      <c r="C691" s="29"/>
+      <c r="D691" s="29"/>
+      <c r="E691" s="29"/>
     </row>
     <row r="692">
-      <c r="C692" s="24"/>
-      <c r="D692" s="25"/>
-      <c r="E692" s="24"/>
+      <c r="C692" s="29"/>
+      <c r="D692" s="29"/>
+      <c r="E692" s="29"/>
     </row>
     <row r="693">
-      <c r="C693" s="24"/>
-      <c r="D693" s="25"/>
-      <c r="E693" s="24"/>
+      <c r="C693" s="29"/>
+      <c r="D693" s="29"/>
+      <c r="E693" s="29"/>
     </row>
     <row r="694">
-      <c r="C694" s="24"/>
-      <c r="D694" s="25"/>
-      <c r="E694" s="24"/>
+      <c r="C694" s="29"/>
+      <c r="D694" s="29"/>
+      <c r="E694" s="29"/>
     </row>
     <row r="695">
-      <c r="C695" s="24"/>
-      <c r="D695" s="25"/>
-      <c r="E695" s="24"/>
+      <c r="C695" s="29"/>
+      <c r="D695" s="29"/>
+      <c r="E695" s="29"/>
     </row>
     <row r="696">
-      <c r="C696" s="24"/>
-      <c r="D696" s="25"/>
-      <c r="E696" s="24"/>
+      <c r="C696" s="29"/>
+      <c r="D696" s="29"/>
+      <c r="E696" s="29"/>
     </row>
     <row r="697">
-      <c r="C697" s="24"/>
-      <c r="D697" s="25"/>
-      <c r="E697" s="24"/>
+      <c r="C697" s="29"/>
+      <c r="D697" s="29"/>
+      <c r="E697" s="29"/>
     </row>
     <row r="698">
-      <c r="C698" s="24"/>
-      <c r="D698" s="25"/>
-      <c r="E698" s="24"/>
+      <c r="C698" s="29"/>
+      <c r="D698" s="29"/>
+      <c r="E698" s="29"/>
     </row>
     <row r="699">
-      <c r="C699" s="24"/>
-      <c r="D699" s="25"/>
-      <c r="E699" s="24"/>
+      <c r="C699" s="29"/>
+      <c r="D699" s="29"/>
+      <c r="E699" s="29"/>
     </row>
     <row r="700">
-      <c r="C700" s="24"/>
-      <c r="D700" s="25"/>
-      <c r="E700" s="24"/>
+      <c r="C700" s="29"/>
+      <c r="D700" s="29"/>
+      <c r="E700" s="29"/>
     </row>
     <row r="701">
-      <c r="C701" s="24"/>
-      <c r="D701" s="25"/>
-      <c r="E701" s="24"/>
+      <c r="C701" s="29"/>
+      <c r="D701" s="29"/>
+      <c r="E701" s="29"/>
     </row>
     <row r="702">
-      <c r="C702" s="24"/>
-      <c r="D702" s="25"/>
-      <c r="E702" s="24"/>
+      <c r="C702" s="29"/>
+      <c r="D702" s="29"/>
+      <c r="E702" s="29"/>
     </row>
     <row r="703">
-      <c r="C703" s="24"/>
-      <c r="D703" s="25"/>
-      <c r="E703" s="24"/>
+      <c r="C703" s="29"/>
+      <c r="D703" s="29"/>
+      <c r="E703" s="29"/>
     </row>
     <row r="704">
-      <c r="C704" s="24"/>
-      <c r="D704" s="25"/>
-      <c r="E704" s="24"/>
+      <c r="C704" s="29"/>
+      <c r="D704" s="29"/>
+      <c r="E704" s="29"/>
     </row>
     <row r="705">
-      <c r="C705" s="24"/>
-      <c r="D705" s="25"/>
-      <c r="E705" s="24"/>
+      <c r="C705" s="29"/>
+      <c r="D705" s="29"/>
+      <c r="E705" s="29"/>
     </row>
     <row r="706">
-      <c r="C706" s="24"/>
-      <c r="D706" s="25"/>
-      <c r="E706" s="24"/>
+      <c r="C706" s="29"/>
+      <c r="D706" s="29"/>
+      <c r="E706" s="29"/>
     </row>
     <row r="707">
-      <c r="C707" s="24"/>
-      <c r="D707" s="25"/>
-      <c r="E707" s="24"/>
+      <c r="C707" s="29"/>
+      <c r="D707" s="29"/>
+      <c r="E707" s="29"/>
     </row>
     <row r="708">
-      <c r="C708" s="24"/>
-      <c r="D708" s="25"/>
-      <c r="E708" s="24"/>
+      <c r="C708" s="29"/>
+      <c r="D708" s="29"/>
+      <c r="E708" s="29"/>
     </row>
     <row r="709">
-      <c r="C709" s="24"/>
-      <c r="D709" s="25"/>
-      <c r="E709" s="24"/>
+      <c r="C709" s="29"/>
+      <c r="D709" s="29"/>
+      <c r="E709" s="29"/>
     </row>
     <row r="710">
-      <c r="C710" s="24"/>
-      <c r="D710" s="25"/>
-      <c r="E710" s="24"/>
+      <c r="C710" s="29"/>
+      <c r="D710" s="29"/>
+      <c r="E710" s="29"/>
     </row>
     <row r="711">
-      <c r="C711" s="24"/>
-      <c r="D711" s="25"/>
-      <c r="E711" s="24"/>
+      <c r="C711" s="29"/>
+      <c r="D711" s="29"/>
+      <c r="E711" s="29"/>
     </row>
     <row r="712">
-      <c r="C712" s="24"/>
-      <c r="D712" s="25"/>
-      <c r="E712" s="24"/>
+      <c r="C712" s="29"/>
+      <c r="D712" s="29"/>
+      <c r="E712" s="29"/>
     </row>
     <row r="713">
-      <c r="C713" s="24"/>
-      <c r="D713" s="25"/>
-      <c r="E713" s="24"/>
+      <c r="C713" s="29"/>
+      <c r="D713" s="29"/>
+      <c r="E713" s="29"/>
     </row>
     <row r="714">
-      <c r="C714" s="24"/>
-      <c r="D714" s="25"/>
-      <c r="E714" s="24"/>
+      <c r="C714" s="29"/>
+      <c r="D714" s="29"/>
+      <c r="E714" s="29"/>
     </row>
     <row r="715">
-      <c r="C715" s="24"/>
-      <c r="D715" s="25"/>
-      <c r="E715" s="24"/>
+      <c r="C715" s="29"/>
+      <c r="D715" s="29"/>
+      <c r="E715" s="29"/>
     </row>
     <row r="716">
-      <c r="C716" s="24"/>
-      <c r="D716" s="25"/>
-      <c r="E716" s="24"/>
+      <c r="C716" s="29"/>
+      <c r="D716" s="29"/>
+      <c r="E716" s="29"/>
     </row>
     <row r="717">
-      <c r="C717" s="24"/>
-      <c r="D717" s="25"/>
-      <c r="E717" s="24"/>
+      <c r="C717" s="29"/>
+      <c r="D717" s="29"/>
+      <c r="E717" s="29"/>
     </row>
     <row r="718">
-      <c r="C718" s="24"/>
-      <c r="D718" s="25"/>
-      <c r="E718" s="24"/>
+      <c r="C718" s="29"/>
+      <c r="D718" s="29"/>
+      <c r="E718" s="29"/>
     </row>
     <row r="719">
-      <c r="C719" s="24"/>
-      <c r="D719" s="25"/>
-      <c r="E719" s="24"/>
+      <c r="C719" s="29"/>
+      <c r="D719" s="29"/>
+      <c r="E719" s="29"/>
     </row>
     <row r="720">
-      <c r="C720" s="24"/>
-      <c r="D720" s="25"/>
-      <c r="E720" s="24"/>
+      <c r="C720" s="29"/>
+      <c r="D720" s="29"/>
+      <c r="E720" s="29"/>
     </row>
     <row r="721">
-      <c r="C721" s="24"/>
-      <c r="D721" s="25"/>
-      <c r="E721" s="24"/>
+      <c r="C721" s="29"/>
+      <c r="D721" s="29"/>
+      <c r="E721" s="29"/>
     </row>
     <row r="722">
-      <c r="C722" s="24"/>
-      <c r="D722" s="25"/>
-      <c r="E722" s="24"/>
+      <c r="C722" s="29"/>
+      <c r="D722" s="29"/>
+      <c r="E722" s="29"/>
     </row>
     <row r="723">
-      <c r="C723" s="24"/>
-      <c r="D723" s="25"/>
-      <c r="E723" s="24"/>
+      <c r="C723" s="29"/>
+      <c r="D723" s="29"/>
+      <c r="E723" s="29"/>
     </row>
     <row r="724">
-      <c r="C724" s="24"/>
-      <c r="D724" s="25"/>
-      <c r="E724" s="24"/>
+      <c r="C724" s="29"/>
+      <c r="D724" s="29"/>
+      <c r="E724" s="29"/>
     </row>
     <row r="725">
-      <c r="C725" s="24"/>
-      <c r="D725" s="25"/>
-      <c r="E725" s="24"/>
+      <c r="C725" s="29"/>
+      <c r="D725" s="29"/>
+      <c r="E725" s="29"/>
     </row>
     <row r="726">
-      <c r="C726" s="24"/>
-      <c r="D726" s="25"/>
-      <c r="E726" s="24"/>
+      <c r="C726" s="29"/>
+      <c r="D726" s="29"/>
+      <c r="E726" s="29"/>
     </row>
     <row r="727">
-      <c r="C727" s="24"/>
-      <c r="D727" s="25"/>
-      <c r="E727" s="24"/>
+      <c r="C727" s="29"/>
+      <c r="D727" s="29"/>
+      <c r="E727" s="29"/>
     </row>
     <row r="728">
-      <c r="C728" s="24"/>
-      <c r="D728" s="25"/>
-      <c r="E728" s="24"/>
+      <c r="C728" s="29"/>
+      <c r="D728" s="29"/>
+      <c r="E728" s="29"/>
     </row>
     <row r="729">
-      <c r="C729" s="24"/>
-      <c r="D729" s="25"/>
-      <c r="E729" s="24"/>
+      <c r="C729" s="29"/>
+      <c r="D729" s="29"/>
+      <c r="E729" s="29"/>
     </row>
     <row r="730">
-      <c r="C730" s="24"/>
-      <c r="D730" s="25"/>
-      <c r="E730" s="24"/>
+      <c r="C730" s="29"/>
+      <c r="D730" s="29"/>
+      <c r="E730" s="29"/>
     </row>
     <row r="731">
-      <c r="C731" s="24"/>
-      <c r="D731" s="25"/>
-      <c r="E731" s="24"/>
+      <c r="C731" s="29"/>
+      <c r="D731" s="29"/>
+      <c r="E731" s="29"/>
     </row>
     <row r="732">
-      <c r="C732" s="24"/>
-      <c r="D732" s="25"/>
-      <c r="E732" s="24"/>
+      <c r="C732" s="29"/>
+      <c r="D732" s="29"/>
+      <c r="E732" s="29"/>
     </row>
     <row r="733">
-      <c r="C733" s="24"/>
-      <c r="D733" s="25"/>
-      <c r="E733" s="24"/>
+      <c r="C733" s="29"/>
+      <c r="D733" s="29"/>
+      <c r="E733" s="29"/>
     </row>
     <row r="734">
-      <c r="C734" s="24"/>
-      <c r="D734" s="25"/>
-      <c r="E734" s="24"/>
+      <c r="C734" s="29"/>
+      <c r="D734" s="29"/>
+      <c r="E734" s="29"/>
     </row>
     <row r="735">
-      <c r="C735" s="24"/>
-      <c r="D735" s="25"/>
-      <c r="E735" s="24"/>
+      <c r="C735" s="29"/>
+      <c r="D735" s="29"/>
+      <c r="E735" s="29"/>
     </row>
     <row r="736">
-      <c r="C736" s="24"/>
-      <c r="D736" s="25"/>
-      <c r="E736" s="24"/>
+      <c r="C736" s="29"/>
+      <c r="D736" s="29"/>
+      <c r="E736" s="29"/>
     </row>
     <row r="737">
-      <c r="C737" s="24"/>
-      <c r="D737" s="25"/>
-      <c r="E737" s="24"/>
+      <c r="C737" s="29"/>
+      <c r="D737" s="29"/>
+      <c r="E737" s="29"/>
     </row>
     <row r="738">
-      <c r="C738" s="24"/>
-      <c r="D738" s="25"/>
-      <c r="E738" s="24"/>
+      <c r="C738" s="29"/>
+      <c r="D738" s="29"/>
+      <c r="E738" s="29"/>
     </row>
     <row r="739">
-      <c r="C739" s="24"/>
-      <c r="D739" s="25"/>
-      <c r="E739" s="24"/>
+      <c r="C739" s="29"/>
+      <c r="D739" s="29"/>
+      <c r="E739" s="29"/>
     </row>
     <row r="740">
-      <c r="C740" s="24"/>
-      <c r="D740" s="25"/>
-      <c r="E740" s="24"/>
+      <c r="C740" s="29"/>
+      <c r="D740" s="29"/>
+      <c r="E740" s="29"/>
     </row>
     <row r="741">
-      <c r="C741" s="24"/>
-      <c r="D741" s="25"/>
-      <c r="E741" s="24"/>
+      <c r="C741" s="29"/>
+      <c r="D741" s="29"/>
+      <c r="E741" s="29"/>
     </row>
     <row r="742">
-      <c r="C742" s="24"/>
-      <c r="D742" s="25"/>
-      <c r="E742" s="24"/>
+      <c r="C742" s="29"/>
+      <c r="D742" s="29"/>
+      <c r="E742" s="29"/>
     </row>
     <row r="743">
-      <c r="C743" s="24"/>
-      <c r="D743" s="25"/>
-      <c r="E743" s="24"/>
+      <c r="C743" s="29"/>
+      <c r="D743" s="29"/>
+      <c r="E743" s="29"/>
     </row>
     <row r="744">
-      <c r="C744" s="24"/>
-      <c r="D744" s="25"/>
-      <c r="E744" s="24"/>
+      <c r="C744" s="29"/>
+      <c r="D744" s="29"/>
+      <c r="E744" s="29"/>
     </row>
     <row r="745">
-      <c r="C745" s="24"/>
-      <c r="D745" s="25"/>
-      <c r="E745" s="24"/>
+      <c r="C745" s="29"/>
+      <c r="D745" s="29"/>
+      <c r="E745" s="29"/>
     </row>
     <row r="746">
-      <c r="C746" s="24"/>
-      <c r="D746" s="25"/>
-      <c r="E746" s="24"/>
+      <c r="C746" s="29"/>
+      <c r="D746" s="29"/>
+      <c r="E746" s="29"/>
     </row>
     <row r="747">
-      <c r="C747" s="24"/>
-      <c r="D747" s="25"/>
-      <c r="E747" s="24"/>
+      <c r="C747" s="29"/>
+      <c r="D747" s="29"/>
+      <c r="E747" s="29"/>
     </row>
     <row r="748">
-      <c r="C748" s="24"/>
-      <c r="D748" s="25"/>
-      <c r="E748" s="24"/>
+      <c r="C748" s="29"/>
+      <c r="D748" s="29"/>
+      <c r="E748" s="29"/>
     </row>
     <row r="749">
-      <c r="C749" s="24"/>
-      <c r="D749" s="25"/>
-      <c r="E749" s="24"/>
+      <c r="C749" s="29"/>
+      <c r="D749" s="29"/>
+      <c r="E749" s="29"/>
     </row>
     <row r="750">
-      <c r="C750" s="24"/>
-      <c r="D750" s="25"/>
-      <c r="E750" s="24"/>
+      <c r="C750" s="29"/>
+      <c r="D750" s="29"/>
+      <c r="E750" s="29"/>
     </row>
     <row r="751">
-      <c r="C751" s="24"/>
-      <c r="D751" s="25"/>
-      <c r="E751" s="24"/>
+      <c r="C751" s="29"/>
+      <c r="D751" s="29"/>
+      <c r="E751" s="29"/>
     </row>
     <row r="752">
-      <c r="C752" s="24"/>
-      <c r="D752" s="25"/>
-      <c r="E752" s="24"/>
+      <c r="C752" s="29"/>
+      <c r="D752" s="29"/>
+      <c r="E752" s="29"/>
     </row>
     <row r="753">
-      <c r="C753" s="24"/>
-      <c r="D753" s="25"/>
-      <c r="E753" s="24"/>
+      <c r="C753" s="29"/>
+      <c r="D753" s="29"/>
+      <c r="E753" s="29"/>
     </row>
     <row r="754">
-      <c r="C754" s="24"/>
-      <c r="D754" s="25"/>
-      <c r="E754" s="24"/>
+      <c r="C754" s="29"/>
+      <c r="D754" s="29"/>
+      <c r="E754" s="29"/>
     </row>
     <row r="755">
-      <c r="C755" s="24"/>
-      <c r="D755" s="25"/>
-      <c r="E755" s="24"/>
+      <c r="C755" s="29"/>
+      <c r="D755" s="29"/>
+      <c r="E755" s="29"/>
     </row>
     <row r="756">
-      <c r="C756" s="24"/>
-      <c r="D756" s="25"/>
-      <c r="E756" s="24"/>
+      <c r="C756" s="29"/>
+      <c r="D756" s="29"/>
+      <c r="E756" s="29"/>
     </row>
     <row r="757">
-      <c r="C757" s="24"/>
-      <c r="D757" s="25"/>
-      <c r="E757" s="24"/>
+      <c r="C757" s="29"/>
+      <c r="D757" s="29"/>
+      <c r="E757" s="29"/>
     </row>
     <row r="758">
-      <c r="C758" s="24"/>
-      <c r="D758" s="25"/>
-      <c r="E758" s="24"/>
+      <c r="C758" s="29"/>
+      <c r="D758" s="29"/>
+      <c r="E758" s="29"/>
     </row>
     <row r="759">
-      <c r="C759" s="24"/>
-      <c r="D759" s="25"/>
-      <c r="E759" s="24"/>
+      <c r="C759" s="29"/>
+      <c r="D759" s="29"/>
+      <c r="E759" s="29"/>
     </row>
     <row r="760">
-      <c r="C760" s="24"/>
-      <c r="D760" s="25"/>
-      <c r="E760" s="24"/>
+      <c r="C760" s="29"/>
+      <c r="D760" s="29"/>
+      <c r="E760" s="29"/>
     </row>
     <row r="761">
-      <c r="C761" s="24"/>
-      <c r="D761" s="25"/>
-      <c r="E761" s="24"/>
+      <c r="C761" s="29"/>
+      <c r="D761" s="29"/>
+      <c r="E761" s="29"/>
     </row>
     <row r="762">
-      <c r="C762" s="24"/>
-      <c r="D762" s="25"/>
-      <c r="E762" s="24"/>
+      <c r="C762" s="29"/>
+      <c r="D762" s="29"/>
+      <c r="E762" s="29"/>
     </row>
     <row r="763">
-      <c r="C763" s="24"/>
-      <c r="D763" s="25"/>
-      <c r="E763" s="24"/>
+      <c r="C763" s="29"/>
+      <c r="D763" s="29"/>
+      <c r="E763" s="29"/>
     </row>
     <row r="764">
-      <c r="C764" s="24"/>
-      <c r="D764" s="25"/>
-      <c r="E764" s="24"/>
+      <c r="C764" s="29"/>
+      <c r="D764" s="29"/>
+      <c r="E764" s="29"/>
     </row>
     <row r="765">
-      <c r="C765" s="24"/>
-      <c r="D765" s="25"/>
-      <c r="E765" s="24"/>
+      <c r="C765" s="29"/>
+      <c r="D765" s="29"/>
+      <c r="E765" s="29"/>
     </row>
     <row r="766">
-      <c r="C766" s="24"/>
-      <c r="D766" s="25"/>
-      <c r="E766" s="24"/>
+      <c r="C766" s="29"/>
+      <c r="D766" s="29"/>
+      <c r="E766" s="29"/>
     </row>
     <row r="767">
-      <c r="C767" s="24"/>
-      <c r="D767" s="25"/>
-      <c r="E767" s="24"/>
+      <c r="C767" s="29"/>
+      <c r="D767" s="29"/>
+      <c r="E767" s="29"/>
     </row>
     <row r="768">
-      <c r="C768" s="24"/>
-      <c r="D768" s="25"/>
-      <c r="E768" s="24"/>
+      <c r="C768" s="29"/>
+      <c r="D768" s="29"/>
+      <c r="E768" s="29"/>
     </row>
     <row r="769">
-      <c r="C769" s="24"/>
-      <c r="D769" s="25"/>
-      <c r="E769" s="24"/>
+      <c r="C769" s="29"/>
+      <c r="D769" s="29"/>
+      <c r="E769" s="29"/>
     </row>
     <row r="770">
-      <c r="C770" s="24"/>
-      <c r="D770" s="25"/>
-      <c r="E770" s="24"/>
+      <c r="C770" s="29"/>
+      <c r="D770" s="29"/>
+      <c r="E770" s="29"/>
     </row>
     <row r="771">
-      <c r="C771" s="24"/>
-      <c r="D771" s="25"/>
-      <c r="E771" s="24"/>
+      <c r="C771" s="29"/>
+      <c r="D771" s="29"/>
+      <c r="E771" s="29"/>
     </row>
     <row r="772">
-      <c r="C772" s="24"/>
-      <c r="D772" s="25"/>
-      <c r="E772" s="24"/>
+      <c r="C772" s="29"/>
+      <c r="D772" s="29"/>
+      <c r="E772" s="29"/>
     </row>
     <row r="773">
-      <c r="C773" s="24"/>
-      <c r="D773" s="25"/>
-      <c r="E773" s="24"/>
+      <c r="C773" s="29"/>
+      <c r="D773" s="29"/>
+      <c r="E773" s="29"/>
     </row>
     <row r="774">
-      <c r="C774" s="24"/>
-      <c r="D774" s="25"/>
-      <c r="E774" s="24"/>
+      <c r="C774" s="29"/>
+      <c r="D774" s="29"/>
+      <c r="E774" s="29"/>
     </row>
     <row r="775">
-      <c r="C775" s="24"/>
-      <c r="D775" s="25"/>
-      <c r="E775" s="24"/>
+      <c r="C775" s="29"/>
+      <c r="D775" s="29"/>
+      <c r="E775" s="29"/>
     </row>
     <row r="776">
-      <c r="C776" s="24"/>
-      <c r="D776" s="25"/>
-      <c r="E776" s="24"/>
+      <c r="C776" s="29"/>
+      <c r="D776" s="29"/>
+      <c r="E776" s="29"/>
     </row>
     <row r="777">
-      <c r="C777" s="24"/>
-      <c r="D777" s="25"/>
-      <c r="E777" s="24"/>
+      <c r="C777" s="29"/>
+      <c r="D777" s="29"/>
+      <c r="E777" s="29"/>
     </row>
     <row r="778">
-      <c r="C778" s="24"/>
-      <c r="D778" s="25"/>
-      <c r="E778" s="24"/>
+      <c r="C778" s="29"/>
+      <c r="D778" s="29"/>
+      <c r="E778" s="29"/>
     </row>
     <row r="779">
-      <c r="C779" s="24"/>
-      <c r="D779" s="25"/>
-      <c r="E779" s="24"/>
+      <c r="C779" s="29"/>
+      <c r="D779" s="29"/>
+      <c r="E779" s="29"/>
     </row>
     <row r="780">
-      <c r="C780" s="24"/>
-      <c r="D780" s="25"/>
-      <c r="E780" s="24"/>
+      <c r="C780" s="29"/>
+      <c r="D780" s="29"/>
+      <c r="E780" s="29"/>
     </row>
     <row r="781">
-      <c r="C781" s="24"/>
-      <c r="D781" s="25"/>
-      <c r="E781" s="24"/>
+      <c r="C781" s="29"/>
+      <c r="D781" s="29"/>
+      <c r="E781" s="29"/>
     </row>
     <row r="782">
-      <c r="C782" s="24"/>
-      <c r="D782" s="25"/>
-      <c r="E782" s="24"/>
+      <c r="C782" s="29"/>
+      <c r="D782" s="29"/>
+      <c r="E782" s="29"/>
     </row>
     <row r="783">
-      <c r="C783" s="24"/>
-      <c r="D783" s="25"/>
-      <c r="E783" s="24"/>
+      <c r="C783" s="29"/>
+      <c r="D783" s="29"/>
+      <c r="E783" s="29"/>
     </row>
     <row r="784">
-      <c r="C784" s="24"/>
-      <c r="D784" s="25"/>
-      <c r="E784" s="24"/>
+      <c r="C784" s="29"/>
+      <c r="D784" s="29"/>
+      <c r="E784" s="29"/>
     </row>
     <row r="785">
-      <c r="C785" s="24"/>
-      <c r="D785" s="25"/>
-      <c r="E785" s="24"/>
+      <c r="C785" s="29"/>
+      <c r="D785" s="29"/>
+      <c r="E785" s="29"/>
     </row>
     <row r="786">
-      <c r="C786" s="24"/>
-      <c r="D786" s="25"/>
-      <c r="E786" s="24"/>
+      <c r="C786" s="29"/>
+      <c r="D786" s="29"/>
+      <c r="E786" s="29"/>
     </row>
     <row r="787">
-      <c r="C787" s="24"/>
-      <c r="D787" s="25"/>
-      <c r="E787" s="24"/>
+      <c r="C787" s="29"/>
+      <c r="D787" s="29"/>
+      <c r="E787" s="29"/>
     </row>
     <row r="788">
-      <c r="C788" s="24"/>
-      <c r="D788" s="25"/>
-      <c r="E788" s="24"/>
+      <c r="C788" s="29"/>
+      <c r="D788" s="29"/>
+      <c r="E788" s="29"/>
     </row>
     <row r="789">
-      <c r="C789" s="24"/>
-      <c r="D789" s="25"/>
-      <c r="E789" s="24"/>
+      <c r="C789" s="29"/>
+      <c r="D789" s="29"/>
+      <c r="E789" s="29"/>
     </row>
     <row r="790">
-      <c r="C790" s="24"/>
-      <c r="D790" s="25"/>
-      <c r="E790" s="24"/>
+      <c r="C790" s="29"/>
+      <c r="D790" s="29"/>
+      <c r="E790" s="29"/>
     </row>
     <row r="791">
-      <c r="C791" s="24"/>
-      <c r="D791" s="25"/>
-      <c r="E791" s="24"/>
+      <c r="C791" s="29"/>
+      <c r="D791" s="29"/>
+      <c r="E791" s="29"/>
     </row>
     <row r="792">
-      <c r="C792" s="24"/>
-      <c r="D792" s="25"/>
-      <c r="E792" s="24"/>
+      <c r="C792" s="29"/>
+      <c r="D792" s="29"/>
+      <c r="E792" s="29"/>
     </row>
     <row r="793">
-      <c r="C793" s="24"/>
-      <c r="D793" s="25"/>
-      <c r="E793" s="24"/>
+      <c r="C793" s="29"/>
+      <c r="D793" s="29"/>
+      <c r="E793" s="29"/>
     </row>
     <row r="794">
-      <c r="C794" s="24"/>
-      <c r="D794" s="25"/>
-      <c r="E794" s="24"/>
+      <c r="C794" s="29"/>
+      <c r="D794" s="29"/>
+      <c r="E794" s="29"/>
     </row>
     <row r="795">
-      <c r="C795" s="24"/>
-      <c r="D795" s="25"/>
-      <c r="E795" s="24"/>
+      <c r="C795" s="29"/>
+      <c r="D795" s="29"/>
+      <c r="E795" s="29"/>
     </row>
     <row r="796">
-      <c r="C796" s="24"/>
-      <c r="D796" s="25"/>
-      <c r="E796" s="24"/>
+      <c r="C796" s="29"/>
+      <c r="D796" s="29"/>
+      <c r="E796" s="29"/>
     </row>
     <row r="797">
-      <c r="C797" s="24"/>
-      <c r="D797" s="25"/>
-      <c r="E797" s="24"/>
+      <c r="C797" s="29"/>
+      <c r="D797" s="29"/>
+      <c r="E797" s="29"/>
     </row>
     <row r="798">
-      <c r="C798" s="24"/>
-      <c r="D798" s="25"/>
-      <c r="E798" s="24"/>
+      <c r="C798" s="29"/>
+      <c r="D798" s="29"/>
+      <c r="E798" s="29"/>
     </row>
     <row r="799">
-      <c r="C799" s="24"/>
-      <c r="D799" s="25"/>
-      <c r="E799" s="24"/>
+      <c r="C799" s="29"/>
+      <c r="D799" s="29"/>
+      <c r="E799" s="29"/>
     </row>
     <row r="800">
-      <c r="C800" s="24"/>
-      <c r="D800" s="25"/>
-      <c r="E800" s="24"/>
+      <c r="C800" s="29"/>
+      <c r="D800" s="29"/>
+      <c r="E800" s="29"/>
     </row>
     <row r="801">
-      <c r="C801" s="24"/>
-      <c r="D801" s="25"/>
-      <c r="E801" s="24"/>
+      <c r="C801" s="29"/>
+      <c r="D801" s="29"/>
+      <c r="E801" s="29"/>
     </row>
     <row r="802">
-      <c r="C802" s="24"/>
-      <c r="D802" s="25"/>
-      <c r="E802" s="24"/>
+      <c r="C802" s="29"/>
+      <c r="D802" s="29"/>
+      <c r="E802" s="29"/>
     </row>
     <row r="803">
-      <c r="C803" s="24"/>
-      <c r="D803" s="25"/>
-      <c r="E803" s="24"/>
+      <c r="C803" s="29"/>
+      <c r="D803" s="29"/>
+      <c r="E803" s="29"/>
     </row>
     <row r="804">
-      <c r="C804" s="24"/>
-      <c r="D804" s="25"/>
-      <c r="E804" s="24"/>
+      <c r="C804" s="29"/>
+      <c r="D804" s="29"/>
+      <c r="E804" s="29"/>
     </row>
     <row r="805">
-      <c r="C805" s="24"/>
-      <c r="D805" s="25"/>
-      <c r="E805" s="24"/>
+      <c r="C805" s="29"/>
+      <c r="D805" s="29"/>
+      <c r="E805" s="29"/>
     </row>
     <row r="806">
-      <c r="C806" s="24"/>
-      <c r="D806" s="25"/>
-      <c r="E806" s="24"/>
+      <c r="C806" s="29"/>
+      <c r="D806" s="29"/>
+      <c r="E806" s="29"/>
     </row>
     <row r="807">
-      <c r="C807" s="24"/>
-      <c r="D807" s="25"/>
-      <c r="E807" s="24"/>
+      <c r="C807" s="29"/>
+      <c r="D807" s="29"/>
+      <c r="E807" s="29"/>
     </row>
     <row r="808">
-      <c r="C808" s="24"/>
-      <c r="D808" s="25"/>
-      <c r="E808" s="24"/>
+      <c r="C808" s="29"/>
+      <c r="D808" s="29"/>
+      <c r="E808" s="29"/>
     </row>
     <row r="809">
-      <c r="C809" s="24"/>
-      <c r="D809" s="25"/>
-      <c r="E809" s="24"/>
+      <c r="C809" s="29"/>
+      <c r="D809" s="29"/>
+      <c r="E809" s="29"/>
     </row>
     <row r="810">
-      <c r="C810" s="24"/>
-      <c r="D810" s="25"/>
-      <c r="E810" s="24"/>
+      <c r="C810" s="29"/>
+      <c r="D810" s="29"/>
+      <c r="E810" s="29"/>
     </row>
     <row r="811">
-      <c r="C811" s="24"/>
-      <c r="D811" s="25"/>
-      <c r="E811" s="24"/>
+      <c r="C811" s="29"/>
+      <c r="D811" s="29"/>
+      <c r="E811" s="29"/>
     </row>
     <row r="812">
-      <c r="C812" s="24"/>
-      <c r="D812" s="25"/>
-      <c r="E812" s="24"/>
+      <c r="C812" s="29"/>
+      <c r="D812" s="29"/>
+      <c r="E812" s="29"/>
     </row>
     <row r="813">
-      <c r="C813" s="24"/>
-      <c r="D813" s="25"/>
-      <c r="E813" s="24"/>
+      <c r="C813" s="29"/>
+      <c r="D813" s="29"/>
+      <c r="E813" s="29"/>
     </row>
     <row r="814">
-      <c r="C814" s="24"/>
-      <c r="D814" s="25"/>
-      <c r="E814" s="24"/>
+      <c r="C814" s="29"/>
+      <c r="D814" s="29"/>
+      <c r="E814" s="29"/>
     </row>
     <row r="815">
-      <c r="C815" s="24"/>
-      <c r="D815" s="25"/>
-      <c r="E815" s="24"/>
+      <c r="C815" s="29"/>
+      <c r="D815" s="29"/>
+      <c r="E815" s="29"/>
     </row>
     <row r="816">
-      <c r="C816" s="24"/>
-      <c r="D816" s="25"/>
-      <c r="E816" s="24"/>
+      <c r="C816" s="29"/>
+      <c r="D816" s="29"/>
+      <c r="E816" s="29"/>
     </row>
     <row r="817">
-      <c r="C817" s="24"/>
-      <c r="D817" s="25"/>
-      <c r="E817" s="24"/>
+      <c r="C817" s="29"/>
+      <c r="D817" s="29"/>
+      <c r="E817" s="29"/>
     </row>
     <row r="818">
-      <c r="C818" s="24"/>
-      <c r="D818" s="25"/>
-      <c r="E818" s="24"/>
+      <c r="C818" s="29"/>
+      <c r="D818" s="29"/>
+      <c r="E818" s="29"/>
     </row>
     <row r="819">
-      <c r="C819" s="24"/>
-      <c r="D819" s="25"/>
-      <c r="E819" s="24"/>
+      <c r="C819" s="29"/>
+      <c r="D819" s="29"/>
+      <c r="E819" s="29"/>
     </row>
     <row r="820">
-      <c r="C820" s="24"/>
-      <c r="D820" s="25"/>
-      <c r="E820" s="24"/>
+      <c r="C820" s="29"/>
+      <c r="D820" s="29"/>
+      <c r="E820" s="29"/>
     </row>
     <row r="821">
-      <c r="C821" s="24"/>
-      <c r="D821" s="25"/>
-      <c r="E821" s="24"/>
+      <c r="C821" s="29"/>
+      <c r="D821" s="29"/>
+      <c r="E821" s="29"/>
     </row>
     <row r="822">
-      <c r="C822" s="24"/>
-      <c r="D822" s="25"/>
-      <c r="E822" s="24"/>
+      <c r="C822" s="29"/>
+      <c r="D822" s="29"/>
+      <c r="E822" s="29"/>
     </row>
     <row r="823">
-      <c r="C823" s="24"/>
-      <c r="D823" s="25"/>
-      <c r="E823" s="24"/>
+      <c r="C823" s="29"/>
+      <c r="D823" s="29"/>
+      <c r="E823" s="29"/>
     </row>
     <row r="824">
-      <c r="C824" s="24"/>
-      <c r="D824" s="25"/>
-      <c r="E824" s="24"/>
+      <c r="C824" s="29"/>
+      <c r="D824" s="29"/>
+      <c r="E824" s="29"/>
     </row>
     <row r="825">
-      <c r="C825" s="24"/>
-      <c r="D825" s="25"/>
-      <c r="E825" s="24"/>
+      <c r="C825" s="29"/>
+      <c r="D825" s="29"/>
+      <c r="E825" s="29"/>
     </row>
     <row r="826">
-      <c r="C826" s="24"/>
-      <c r="D826" s="25"/>
-      <c r="E826" s="24"/>
+      <c r="C826" s="29"/>
+      <c r="D826" s="29"/>
+      <c r="E826" s="29"/>
     </row>
     <row r="827">
-      <c r="C827" s="24"/>
-      <c r="D827" s="25"/>
-      <c r="E827" s="24"/>
+      <c r="C827" s="29"/>
+      <c r="D827" s="29"/>
+      <c r="E827" s="29"/>
     </row>
     <row r="828">
-      <c r="C828" s="24"/>
-      <c r="D828" s="25"/>
-      <c r="E828" s="24"/>
+      <c r="C828" s="29"/>
+      <c r="D828" s="29"/>
+      <c r="E828" s="29"/>
     </row>
     <row r="829">
-      <c r="C829" s="24"/>
-      <c r="D829" s="25"/>
-      <c r="E829" s="24"/>
+      <c r="C829" s="29"/>
+      <c r="D829" s="29"/>
+      <c r="E829" s="29"/>
     </row>
     <row r="830">
-      <c r="C830" s="24"/>
-      <c r="D830" s="25"/>
-      <c r="E830" s="24"/>
+      <c r="C830" s="29"/>
+      <c r="D830" s="29"/>
+      <c r="E830" s="29"/>
     </row>
     <row r="831">
-      <c r="C831" s="24"/>
-      <c r="D831" s="25"/>
-      <c r="E831" s="24"/>
+      <c r="C831" s="29"/>
+      <c r="D831" s="29"/>
+      <c r="E831" s="29"/>
     </row>
     <row r="832">
-      <c r="C832" s="24"/>
-      <c r="D832" s="25"/>
-      <c r="E832" s="24"/>
+      <c r="C832" s="29"/>
+      <c r="D832" s="29"/>
+      <c r="E832" s="29"/>
     </row>
     <row r="833">
-      <c r="C833" s="24"/>
-      <c r="D833" s="25"/>
-      <c r="E833" s="24"/>
+      <c r="C833" s="29"/>
+      <c r="D833" s="29"/>
+      <c r="E833" s="29"/>
     </row>
     <row r="834">
-      <c r="C834" s="24"/>
-      <c r="D834" s="25"/>
-      <c r="E834" s="24"/>
+      <c r="C834" s="29"/>
+      <c r="D834" s="29"/>
+      <c r="E834" s="29"/>
     </row>
     <row r="835">
-      <c r="C835" s="24"/>
-      <c r="D835" s="25"/>
-      <c r="E835" s="24"/>
+      <c r="C835" s="29"/>
+      <c r="D835" s="29"/>
+      <c r="E835" s="29"/>
     </row>
     <row r="836">
-      <c r="C836" s="24"/>
-      <c r="D836" s="25"/>
-      <c r="E836" s="24"/>
+      <c r="C836" s="29"/>
+      <c r="D836" s="29"/>
+      <c r="E836" s="29"/>
     </row>
     <row r="837">
-      <c r="C837" s="24"/>
-      <c r="D837" s="25"/>
-      <c r="E837" s="24"/>
+      <c r="C837" s="29"/>
+      <c r="D837" s="29"/>
+      <c r="E837" s="29"/>
     </row>
     <row r="838">
-      <c r="C838" s="24"/>
-      <c r="D838" s="25"/>
-      <c r="E838" s="24"/>
+      <c r="C838" s="29"/>
+      <c r="D838" s="29"/>
+      <c r="E838" s="29"/>
     </row>
     <row r="839">
-      <c r="C839" s="24"/>
-      <c r="D839" s="25"/>
-      <c r="E839" s="24"/>
+      <c r="C839" s="29"/>
+      <c r="D839" s="29"/>
+      <c r="E839" s="29"/>
     </row>
     <row r="840">
-      <c r="C840" s="24"/>
-      <c r="D840" s="25"/>
-      <c r="E840" s="24"/>
+      <c r="C840" s="29"/>
+      <c r="D840" s="29"/>
+      <c r="E840" s="29"/>
     </row>
     <row r="841">
-      <c r="C841" s="24"/>
-      <c r="D841" s="25"/>
-      <c r="E841" s="24"/>
+      <c r="C841" s="29"/>
+      <c r="D841" s="29"/>
+      <c r="E841" s="29"/>
     </row>
     <row r="842">
-      <c r="C842" s="24"/>
-      <c r="D842" s="25"/>
-      <c r="E842" s="24"/>
+      <c r="C842" s="29"/>
+      <c r="D842" s="29"/>
+      <c r="E842" s="29"/>
     </row>
     <row r="843">
-      <c r="C843" s="24"/>
-      <c r="D843" s="25"/>
-      <c r="E843" s="24"/>
+      <c r="C843" s="29"/>
+      <c r="D843" s="29"/>
+      <c r="E843" s="29"/>
     </row>
     <row r="844">
-      <c r="C844" s="24"/>
-      <c r="D844" s="25"/>
-      <c r="E844" s="24"/>
+      <c r="C844" s="29"/>
+      <c r="D844" s="29"/>
+      <c r="E844" s="29"/>
     </row>
     <row r="845">
-      <c r="C845" s="24"/>
-      <c r="D845" s="25"/>
-      <c r="E845" s="24"/>
+      <c r="C845" s="29"/>
+      <c r="D845" s="29"/>
+      <c r="E845" s="29"/>
     </row>
     <row r="846">
-      <c r="C846" s="24"/>
-      <c r="D846" s="25"/>
-      <c r="E846" s="24"/>
+      <c r="C846" s="29"/>
+      <c r="D846" s="29"/>
+      <c r="E846" s="29"/>
     </row>
     <row r="847">
-      <c r="C847" s="24"/>
-      <c r="D847" s="25"/>
-      <c r="E847" s="24"/>
+      <c r="C847" s="29"/>
+      <c r="D847" s="29"/>
+      <c r="E847" s="29"/>
     </row>
     <row r="848">
-      <c r="C848" s="24"/>
-      <c r="D848" s="25"/>
-      <c r="E848" s="24"/>
+      <c r="C848" s="29"/>
+      <c r="D848" s="29"/>
+      <c r="E848" s="29"/>
     </row>
     <row r="849">
-      <c r="C849" s="24"/>
-      <c r="D849" s="25"/>
-      <c r="E849" s="24"/>
+      <c r="C849" s="29"/>
+      <c r="D849" s="29"/>
+      <c r="E849" s="29"/>
     </row>
     <row r="850">
-      <c r="C850" s="24"/>
-      <c r="D850" s="25"/>
-      <c r="E850" s="24"/>
+      <c r="C850" s="29"/>
+      <c r="D850" s="29"/>
+      <c r="E850" s="29"/>
     </row>
     <row r="851">
-      <c r="C851" s="24"/>
-      <c r="D851" s="25"/>
-      <c r="E851" s="24"/>
+      <c r="C851" s="29"/>
+      <c r="D851" s="29"/>
+      <c r="E851" s="29"/>
     </row>
     <row r="852">
-      <c r="C852" s="24"/>
-      <c r="D852" s="25"/>
-      <c r="E852" s="24"/>
+      <c r="C852" s="29"/>
+      <c r="D852" s="29"/>
+      <c r="E852" s="29"/>
     </row>
     <row r="853">
-      <c r="C853" s="24"/>
-      <c r="D853" s="25"/>
-      <c r="E853" s="24"/>
+      <c r="C853" s="29"/>
+      <c r="D853" s="29"/>
+      <c r="E853" s="29"/>
     </row>
     <row r="854">
-      <c r="C854" s="24"/>
-      <c r="D854" s="25"/>
-      <c r="E854" s="24"/>
+      <c r="C854" s="29"/>
+      <c r="D854" s="29"/>
+      <c r="E854" s="29"/>
     </row>
     <row r="855">
-      <c r="C855" s="24"/>
-      <c r="D855" s="25"/>
-      <c r="E855" s="24"/>
+      <c r="C855" s="29"/>
+      <c r="D855" s="29"/>
+      <c r="E855" s="29"/>
     </row>
     <row r="856">
-      <c r="C856" s="24"/>
-      <c r="D856" s="25"/>
-      <c r="E856" s="24"/>
+      <c r="C856" s="29"/>
+      <c r="D856" s="29"/>
+      <c r="E856" s="29"/>
     </row>
     <row r="857">
-      <c r="C857" s="24"/>
-      <c r="D857" s="25"/>
-      <c r="E857" s="24"/>
+      <c r="C857" s="29"/>
+      <c r="D857" s="29"/>
+      <c r="E857" s="29"/>
     </row>
     <row r="858">
-      <c r="C858" s="24"/>
-      <c r="D858" s="25"/>
-      <c r="E858" s="24"/>
+      <c r="C858" s="29"/>
+      <c r="D858" s="29"/>
+      <c r="E858" s="29"/>
     </row>
     <row r="859">
-      <c r="C859" s="24"/>
-      <c r="D859" s="25"/>
-      <c r="E859" s="24"/>
+      <c r="C859" s="29"/>
+      <c r="D859" s="29"/>
+      <c r="E859" s="29"/>
     </row>
     <row r="860">
-      <c r="C860" s="24"/>
-      <c r="D860" s="25"/>
-      <c r="E860" s="24"/>
+      <c r="C860" s="29"/>
+      <c r="D860" s="29"/>
+      <c r="E860" s="29"/>
     </row>
     <row r="861">
-      <c r="C861" s="24"/>
-      <c r="D861" s="25"/>
-      <c r="E861" s="24"/>
+      <c r="C861" s="29"/>
+      <c r="D861" s="29"/>
+      <c r="E861" s="29"/>
     </row>
     <row r="862">
-      <c r="C862" s="24"/>
-      <c r="D862" s="25"/>
-      <c r="E862" s="24"/>
+      <c r="C862" s="29"/>
+      <c r="D862" s="29"/>
+      <c r="E862" s="29"/>
     </row>
     <row r="863">
-      <c r="C863" s="24"/>
-      <c r="D863" s="25"/>
-      <c r="E863" s="24"/>
+      <c r="C863" s="29"/>
+      <c r="D863" s="29"/>
+      <c r="E863" s="29"/>
     </row>
     <row r="864">
-      <c r="C864" s="24"/>
-      <c r="D864" s="25"/>
-      <c r="E864" s="24"/>
+      <c r="C864" s="29"/>
+      <c r="D864" s="29"/>
+      <c r="E864" s="29"/>
     </row>
     <row r="865">
-      <c r="C865" s="24"/>
-      <c r="D865" s="25"/>
-      <c r="E865" s="24"/>
+      <c r="C865" s="29"/>
+      <c r="D865" s="29"/>
+      <c r="E865" s="29"/>
     </row>
     <row r="866">
-      <c r="C866" s="24"/>
-      <c r="D866" s="25"/>
-      <c r="E866" s="24"/>
+      <c r="C866" s="29"/>
+      <c r="D866" s="29"/>
+      <c r="E866" s="29"/>
     </row>
     <row r="867">
-      <c r="C867" s="24"/>
-      <c r="D867" s="25"/>
-      <c r="E867" s="24"/>
+      <c r="C867" s="29"/>
+      <c r="D867" s="29"/>
+      <c r="E867" s="29"/>
     </row>
     <row r="868">
-      <c r="C868" s="24"/>
-      <c r="D868" s="25"/>
-      <c r="E868" s="24"/>
+      <c r="C868" s="29"/>
+      <c r="D868" s="29"/>
+      <c r="E868" s="29"/>
     </row>
     <row r="869">
-      <c r="C869" s="24"/>
-      <c r="D869" s="25"/>
-      <c r="E869" s="24"/>
+      <c r="C869" s="29"/>
+      <c r="D869" s="29"/>
+      <c r="E869" s="29"/>
     </row>
     <row r="870">
-      <c r="C870" s="24"/>
-      <c r="D870" s="25"/>
-      <c r="E870" s="24"/>
+      <c r="C870" s="29"/>
+      <c r="D870" s="29"/>
+      <c r="E870" s="29"/>
     </row>
     <row r="871">
-      <c r="C871" s="24"/>
-      <c r="D871" s="25"/>
-      <c r="E871" s="24"/>
+      <c r="C871" s="29"/>
+      <c r="D871" s="29"/>
+      <c r="E871" s="29"/>
     </row>
     <row r="872">
-      <c r="C872" s="24"/>
-      <c r="D872" s="25"/>
-      <c r="E872" s="24"/>
+      <c r="C872" s="29"/>
+      <c r="D872" s="29"/>
+      <c r="E872" s="29"/>
     </row>
     <row r="873">
-      <c r="C873" s="24"/>
-      <c r="D873" s="25"/>
-      <c r="E873" s="24"/>
+      <c r="C873" s="29"/>
+      <c r="D873" s="29"/>
+      <c r="E873" s="29"/>
     </row>
     <row r="874">
-      <c r="C874" s="24"/>
-      <c r="D874" s="25"/>
-      <c r="E874" s="24"/>
+      <c r="C874" s="29"/>
+      <c r="D874" s="29"/>
+      <c r="E874" s="29"/>
     </row>
     <row r="875">
-      <c r="C875" s="24"/>
-      <c r="D875" s="25"/>
-      <c r="E875" s="24"/>
+      <c r="C875" s="29"/>
+      <c r="D875" s="29"/>
+      <c r="E875" s="29"/>
     </row>
     <row r="876">
-      <c r="C876" s="24"/>
-      <c r="D876" s="25"/>
-      <c r="E876" s="24"/>
+      <c r="C876" s="29"/>
+      <c r="D876" s="29"/>
+      <c r="E876" s="29"/>
     </row>
     <row r="877">
-      <c r="C877" s="24"/>
-      <c r="D877" s="25"/>
-      <c r="E877" s="24"/>
+      <c r="C877" s="29"/>
+      <c r="D877" s="29"/>
+      <c r="E877" s="29"/>
     </row>
     <row r="878">
-      <c r="C878" s="24"/>
-      <c r="D878" s="25"/>
-      <c r="E878" s="24"/>
+      <c r="C878" s="29"/>
+      <c r="D878" s="29"/>
+      <c r="E878" s="29"/>
     </row>
     <row r="879">
-      <c r="C879" s="24"/>
-      <c r="D879" s="25"/>
-      <c r="E879" s="24"/>
+      <c r="C879" s="29"/>
+      <c r="D879" s="29"/>
+      <c r="E879" s="29"/>
     </row>
     <row r="880">
-      <c r="C880" s="24"/>
-      <c r="D880" s="25"/>
-      <c r="E880" s="24"/>
+      <c r="C880" s="29"/>
+      <c r="D880" s="29"/>
+      <c r="E880" s="29"/>
     </row>
     <row r="881">
-      <c r="C881" s="24"/>
-      <c r="D881" s="25"/>
-      <c r="E881" s="24"/>
+      <c r="C881" s="29"/>
+      <c r="D881" s="29"/>
+      <c r="E881" s="29"/>
     </row>
     <row r="882">
-      <c r="C882" s="24"/>
-      <c r="D882" s="25"/>
-      <c r="E882" s="24"/>
+      <c r="C882" s="29"/>
+      <c r="D882" s="29"/>
+      <c r="E882" s="29"/>
     </row>
     <row r="883">
-      <c r="C883" s="24"/>
-      <c r="D883" s="25"/>
-      <c r="E883" s="24"/>
+      <c r="C883" s="29"/>
+      <c r="D883" s="29"/>
+      <c r="E883" s="29"/>
     </row>
     <row r="884">
-      <c r="C884" s="24"/>
-      <c r="D884" s="25"/>
-      <c r="E884" s="24"/>
+      <c r="C884" s="29"/>
+      <c r="D884" s="29"/>
+      <c r="E884" s="29"/>
     </row>
     <row r="885">
-      <c r="C885" s="24"/>
-      <c r="D885" s="25"/>
-      <c r="E885" s="24"/>
+      <c r="C885" s="29"/>
+      <c r="D885" s="29"/>
+      <c r="E885" s="29"/>
     </row>
     <row r="886">
-      <c r="C886" s="24"/>
-      <c r="D886" s="25"/>
-      <c r="E886" s="24"/>
+      <c r="C886" s="29"/>
+      <c r="D886" s="29"/>
+      <c r="E886" s="29"/>
     </row>
     <row r="887">
-      <c r="C887" s="24"/>
-      <c r="D887" s="25"/>
-      <c r="E887" s="24"/>
+      <c r="C887" s="29"/>
+      <c r="D887" s="29"/>
+      <c r="E887" s="29"/>
     </row>
     <row r="888">
-      <c r="C888" s="24"/>
-      <c r="D888" s="25"/>
-      <c r="E888" s="24"/>
+      <c r="C888" s="29"/>
+      <c r="D888" s="29"/>
+      <c r="E888" s="29"/>
     </row>
     <row r="889">
-      <c r="C889" s="24"/>
-      <c r="D889" s="25"/>
-      <c r="E889" s="24"/>
+      <c r="C889" s="29"/>
+      <c r="D889" s="29"/>
+      <c r="E889" s="29"/>
     </row>
     <row r="890">
-      <c r="C890" s="24"/>
-      <c r="D890" s="25"/>
-      <c r="E890" s="24"/>
+      <c r="C890" s="29"/>
+      <c r="D890" s="29"/>
+      <c r="E890" s="29"/>
     </row>
     <row r="891">
-      <c r="C891" s="24"/>
-      <c r="D891" s="25"/>
-      <c r="E891" s="24"/>
+      <c r="C891" s="29"/>
+      <c r="D891" s="29"/>
+      <c r="E891" s="29"/>
     </row>
     <row r="892">
-      <c r="C892" s="24"/>
-      <c r="D892" s="25"/>
-      <c r="E892" s="24"/>
+      <c r="C892" s="29"/>
+      <c r="D892" s="29"/>
+      <c r="E892" s="29"/>
     </row>
     <row r="893">
-      <c r="C893" s="24"/>
-      <c r="D893" s="25"/>
-      <c r="E893" s="24"/>
+      <c r="C893" s="29"/>
+      <c r="D893" s="29"/>
+      <c r="E893" s="29"/>
     </row>
     <row r="894">
-      <c r="C894" s="24"/>
-      <c r="D894" s="25"/>
-      <c r="E894" s="24"/>
+      <c r="C894" s="29"/>
+      <c r="D894" s="29"/>
+      <c r="E894" s="29"/>
     </row>
     <row r="895">
-      <c r="C895" s="24"/>
-      <c r="D895" s="25"/>
-      <c r="E895" s="24"/>
+      <c r="C895" s="29"/>
+      <c r="D895" s="29"/>
+      <c r="E895" s="29"/>
     </row>
     <row r="896">
-      <c r="C896" s="24"/>
-      <c r="D896" s="25"/>
-      <c r="E896" s="24"/>
+      <c r="C896" s="29"/>
+      <c r="D896" s="29"/>
+      <c r="E896" s="29"/>
     </row>
     <row r="897">
-      <c r="C897" s="24"/>
-      <c r="D897" s="25"/>
-      <c r="E897" s="24"/>
+      <c r="C897" s="29"/>
+      <c r="D897" s="29"/>
+      <c r="E897" s="29"/>
     </row>
     <row r="898">
-      <c r="C898" s="24"/>
-      <c r="D898" s="25"/>
-      <c r="E898" s="24"/>
+      <c r="C898" s="29"/>
+      <c r="D898" s="29"/>
+      <c r="E898" s="29"/>
     </row>
     <row r="899">
-      <c r="C899" s="24"/>
-      <c r="D899" s="25"/>
-      <c r="E899" s="24"/>
+      <c r="C899" s="29"/>
+      <c r="D899" s="29"/>
+      <c r="E899" s="29"/>
     </row>
     <row r="900">
-      <c r="C900" s="24"/>
-      <c r="D900" s="25"/>
-      <c r="E900" s="24"/>
+      <c r="C900" s="29"/>
+      <c r="D900" s="29"/>
+      <c r="E900" s="29"/>
     </row>
     <row r="901">
-      <c r="C901" s="24"/>
-      <c r="D901" s="25"/>
-      <c r="E901" s="24"/>
+      <c r="C901" s="29"/>
+      <c r="D901" s="29"/>
+      <c r="E901" s="29"/>
     </row>
     <row r="902">
-      <c r="C902" s="24"/>
-      <c r="D902" s="25"/>
-      <c r="E902" s="24"/>
+      <c r="C902" s="29"/>
+      <c r="D902" s="29"/>
+      <c r="E902" s="29"/>
     </row>
     <row r="903">
-      <c r="C903" s="24"/>
-      <c r="D903" s="25"/>
-      <c r="E903" s="24"/>
+      <c r="C903" s="29"/>
+      <c r="D903" s="29"/>
+      <c r="E903" s="29"/>
     </row>
     <row r="904">
-      <c r="C904" s="24"/>
-      <c r="D904" s="25"/>
-      <c r="E904" s="24"/>
+      <c r="C904" s="29"/>
+      <c r="D904" s="29"/>
+      <c r="E904" s="29"/>
     </row>
     <row r="905">
-      <c r="C905" s="24"/>
-      <c r="D905" s="25"/>
-      <c r="E905" s="24"/>
+      <c r="C905" s="29"/>
+      <c r="D905" s="29"/>
+      <c r="E905" s="29"/>
     </row>
     <row r="906">
-      <c r="C906" s="24"/>
-      <c r="D906" s="25"/>
-      <c r="E906" s="24"/>
+      <c r="C906" s="29"/>
+      <c r="D906" s="29"/>
+      <c r="E906" s="29"/>
     </row>
     <row r="907">
-      <c r="C907" s="24"/>
-      <c r="D907" s="25"/>
-      <c r="E907" s="24"/>
+      <c r="C907" s="29"/>
+      <c r="D907" s="29"/>
+      <c r="E907" s="29"/>
     </row>
     <row r="908">
-      <c r="C908" s="24"/>
-      <c r="D908" s="25"/>
-      <c r="E908" s="24"/>
+      <c r="C908" s="29"/>
+      <c r="D908" s="29"/>
+      <c r="E908" s="29"/>
     </row>
     <row r="909">
-      <c r="C909" s="24"/>
-      <c r="D909" s="25"/>
-      <c r="E909" s="24"/>
+      <c r="C909" s="29"/>
+      <c r="D909" s="29"/>
+      <c r="E909" s="29"/>
     </row>
     <row r="910">
-      <c r="C910" s="24"/>
-      <c r="D910" s="25"/>
-      <c r="E910" s="24"/>
+      <c r="C910" s="29"/>
+      <c r="D910" s="29"/>
+      <c r="E910" s="29"/>
     </row>
     <row r="911">
-      <c r="C911" s="24"/>
-      <c r="D911" s="25"/>
-      <c r="E911" s="24"/>
+      <c r="C911" s="29"/>
+      <c r="D911" s="29"/>
+      <c r="E911" s="29"/>
     </row>
     <row r="912">
-      <c r="C912" s="24"/>
-      <c r="D912" s="25"/>
-      <c r="E912" s="24"/>
+      <c r="C912" s="29"/>
+      <c r="D912" s="29"/>
+      <c r="E912" s="29"/>
     </row>
     <row r="913">
-      <c r="C913" s="24"/>
-      <c r="D913" s="25"/>
-      <c r="E913" s="24"/>
+      <c r="C913" s="29"/>
+      <c r="D913" s="29"/>
+      <c r="E913" s="29"/>
     </row>
     <row r="914">
-      <c r="C914" s="24"/>
-      <c r="D914" s="25"/>
-      <c r="E914" s="24"/>
+      <c r="C914" s="29"/>
+      <c r="D914" s="29"/>
+      <c r="E914" s="29"/>
     </row>
     <row r="915">
-      <c r="C915" s="24"/>
-      <c r="D915" s="25"/>
-      <c r="E915" s="24"/>
+      <c r="C915" s="29"/>
+      <c r="D915" s="29"/>
+      <c r="E915" s="29"/>
     </row>
     <row r="916">
-      <c r="C916" s="24"/>
-      <c r="D916" s="25"/>
-      <c r="E916" s="24"/>
+      <c r="C916" s="29"/>
+      <c r="D916" s="29"/>
+      <c r="E916" s="29"/>
     </row>
     <row r="917">
-      <c r="C917" s="24"/>
-      <c r="D917" s="25"/>
-      <c r="E917" s="24"/>
+      <c r="C917" s="29"/>
+      <c r="D917" s="29"/>
+      <c r="E917" s="29"/>
     </row>
     <row r="918">
-      <c r="C918" s="24"/>
-      <c r="D918" s="25"/>
-      <c r="E918" s="24"/>
+      <c r="C918" s="29"/>
+      <c r="D918" s="29"/>
+      <c r="E918" s="29"/>
     </row>
     <row r="919">
-      <c r="C919" s="24"/>
-      <c r="D919" s="25"/>
-      <c r="E919" s="24"/>
+      <c r="C919" s="29"/>
+      <c r="D919" s="29"/>
+      <c r="E919" s="29"/>
     </row>
     <row r="920">
-      <c r="C920" s="24"/>
-      <c r="D920" s="25"/>
-      <c r="E920" s="24"/>
+      <c r="C920" s="29"/>
+      <c r="D920" s="29"/>
+      <c r="E920" s="29"/>
     </row>
     <row r="921">
-      <c r="C921" s="24"/>
-      <c r="D921" s="25"/>
-      <c r="E921" s="24"/>
+      <c r="C921" s="29"/>
+      <c r="D921" s="29"/>
+      <c r="E921" s="29"/>
     </row>
     <row r="922">
-      <c r="C922" s="24"/>
-      <c r="D922" s="25"/>
-      <c r="E922" s="24"/>
+      <c r="C922" s="29"/>
+      <c r="D922" s="29"/>
+      <c r="E922" s="29"/>
     </row>
     <row r="923">
-      <c r="C923" s="24"/>
-      <c r="D923" s="25"/>
-      <c r="E923" s="24"/>
+      <c r="C923" s="29"/>
+      <c r="D923" s="29"/>
+      <c r="E923" s="29"/>
     </row>
     <row r="924">
-      <c r="C924" s="24"/>
-      <c r="D924" s="25"/>
-      <c r="E924" s="24"/>
+      <c r="C924" s="29"/>
+      <c r="D924" s="29"/>
+      <c r="E924" s="29"/>
     </row>
     <row r="925">
-      <c r="C925" s="24"/>
-      <c r="D925" s="25"/>
-      <c r="E925" s="24"/>
+      <c r="C925" s="29"/>
+      <c r="D925" s="29"/>
+      <c r="E925" s="29"/>
     </row>
     <row r="926">
-      <c r="C926" s="24"/>
-      <c r="D926" s="25"/>
-      <c r="E926" s="24"/>
+      <c r="C926" s="29"/>
+      <c r="D926" s="29"/>
+      <c r="E926" s="29"/>
     </row>
     <row r="927">
-      <c r="C927" s="24"/>
-      <c r="D927" s="25"/>
-      <c r="E927" s="24"/>
+      <c r="C927" s="29"/>
+      <c r="D927" s="29"/>
+      <c r="E927" s="29"/>
     </row>
     <row r="928">
-      <c r="C928" s="24"/>
-      <c r="D928" s="25"/>
-      <c r="E928" s="24"/>
+      <c r="C928" s="29"/>
+      <c r="D928" s="29"/>
+      <c r="E928" s="29"/>
     </row>
     <row r="929">
-      <c r="C929" s="24"/>
-      <c r="D929" s="25"/>
-      <c r="E929" s="24"/>
+      <c r="C929" s="29"/>
+      <c r="D929" s="29"/>
+      <c r="E929" s="29"/>
     </row>
     <row r="930">
-      <c r="C930" s="24"/>
-      <c r="D930" s="25"/>
-      <c r="E930" s="24"/>
+      <c r="C930" s="29"/>
+      <c r="D930" s="29"/>
+      <c r="E930" s="29"/>
     </row>
     <row r="931">
-      <c r="C931" s="24"/>
-      <c r="D931" s="25"/>
-      <c r="E931" s="24"/>
+      <c r="C931" s="29"/>
+      <c r="D931" s="29"/>
+      <c r="E931" s="29"/>
     </row>
     <row r="932">
-      <c r="C932" s="24"/>
-      <c r="D932" s="25"/>
-      <c r="E932" s="24"/>
+      <c r="C932" s="29"/>
+      <c r="D932" s="29"/>
+      <c r="E932" s="29"/>
     </row>
     <row r="933">
-      <c r="C933" s="24"/>
-      <c r="D933" s="25"/>
-      <c r="E933" s="24"/>
+      <c r="C933" s="29"/>
+      <c r="D933" s="29"/>
+      <c r="E933" s="29"/>
     </row>
     <row r="934">
-      <c r="C934" s="24"/>
-      <c r="D934" s="25"/>
-      <c r="E934" s="24"/>
+      <c r="C934" s="29"/>
+      <c r="D934" s="29"/>
+      <c r="E934" s="29"/>
     </row>
     <row r="935">
-      <c r="C935" s="24"/>
-      <c r="D935" s="25"/>
-      <c r="E935" s="24"/>
+      <c r="C935" s="29"/>
+      <c r="D935" s="29"/>
+      <c r="E935" s="29"/>
     </row>
     <row r="936">
-      <c r="C936" s="24"/>
-      <c r="D936" s="25"/>
-      <c r="E936" s="24"/>
+      <c r="C936" s="29"/>
+      <c r="D936" s="29"/>
+      <c r="E936" s="29"/>
     </row>
     <row r="937">
-      <c r="C937" s="24"/>
-      <c r="D937" s="25"/>
-      <c r="E937" s="24"/>
+      <c r="C937" s="29"/>
+      <c r="D937" s="29"/>
+      <c r="E937" s="29"/>
     </row>
     <row r="938">
-      <c r="C938" s="24"/>
-      <c r="D938" s="25"/>
-      <c r="E938" s="24"/>
+      <c r="C938" s="29"/>
+      <c r="D938" s="29"/>
+      <c r="E938" s="29"/>
     </row>
     <row r="939">
-      <c r="C939" s="24"/>
-      <c r="D939" s="25"/>
-      <c r="E939" s="24"/>
+      <c r="C939" s="29"/>
+      <c r="D939" s="29"/>
+      <c r="E939" s="29"/>
     </row>
     <row r="940">
-      <c r="C940" s="24"/>
-      <c r="D940" s="25"/>
-      <c r="E940" s="24"/>
+      <c r="C940" s="29"/>
+      <c r="D940" s="29"/>
+      <c r="E940" s="29"/>
     </row>
     <row r="941">
-      <c r="C941" s="24"/>
-      <c r="D941" s="25"/>
-      <c r="E941" s="24"/>
+      <c r="C941" s="29"/>
+      <c r="D941" s="29"/>
+      <c r="E941" s="29"/>
     </row>
     <row r="942">
-      <c r="C942" s="24"/>
-      <c r="D942" s="25"/>
-      <c r="E942" s="24"/>
+      <c r="C942" s="29"/>
+      <c r="D942" s="29"/>
+      <c r="E942" s="29"/>
     </row>
     <row r="943">
-      <c r="C943" s="24"/>
-      <c r="D943" s="25"/>
-      <c r="E943" s="24"/>
+      <c r="C943" s="29"/>
+      <c r="D943" s="29"/>
+      <c r="E943" s="29"/>
     </row>
     <row r="944">
-      <c r="C944" s="24"/>
-      <c r="D944" s="25"/>
-      <c r="E944" s="24"/>
+      <c r="C944" s="29"/>
+      <c r="D944" s="29"/>
+      <c r="E944" s="29"/>
     </row>
     <row r="945">
-      <c r="C945" s="24"/>
-      <c r="D945" s="25"/>
-      <c r="E945" s="24"/>
+      <c r="C945" s="29"/>
+      <c r="D945" s="29"/>
+      <c r="E945" s="29"/>
     </row>
     <row r="946">
-      <c r="C946" s="24"/>
-      <c r="D946" s="25"/>
-      <c r="E946" s="24"/>
+      <c r="C946" s="29"/>
+      <c r="D946" s="29"/>
+      <c r="E946" s="29"/>
     </row>
     <row r="947">
-      <c r="C947" s="24"/>
-      <c r="D947" s="25"/>
-      <c r="E947" s="24"/>
+      <c r="C947" s="29"/>
+      <c r="D947" s="29"/>
+      <c r="E947" s="29"/>
     </row>
     <row r="948">
-      <c r="C948" s="24"/>
-      <c r="D948" s="25"/>
-      <c r="E948" s="24"/>
+      <c r="C948" s="29"/>
+      <c r="D948" s="29"/>
+      <c r="E948" s="29"/>
     </row>
     <row r="949">
-      <c r="C949" s="24"/>
-      <c r="D949" s="25"/>
-      <c r="E949" s="24"/>
+      <c r="C949" s="29"/>
+      <c r="D949" s="29"/>
+      <c r="E949" s="29"/>
     </row>
     <row r="950">
-      <c r="C950" s="24"/>
-      <c r="D950" s="25"/>
-      <c r="E950" s="24"/>
+      <c r="C950" s="29"/>
+      <c r="D950" s="29"/>
+      <c r="E950" s="29"/>
     </row>
     <row r="951">
-      <c r="C951" s="24"/>
-      <c r="D951" s="25"/>
-      <c r="E951" s="24"/>
+      <c r="C951" s="29"/>
+      <c r="D951" s="29"/>
+      <c r="E951" s="29"/>
     </row>
     <row r="952">
-      <c r="C952" s="24"/>
-      <c r="D952" s="25"/>
-      <c r="E952" s="24"/>
+      <c r="C952" s="29"/>
+      <c r="D952" s="29"/>
+      <c r="E952" s="29"/>
     </row>
     <row r="953">
-      <c r="C953" s="24"/>
-      <c r="D953" s="25"/>
-      <c r="E953" s="24"/>
+      <c r="C953" s="29"/>
+      <c r="D953" s="29"/>
+      <c r="E953" s="29"/>
     </row>
     <row r="954">
-      <c r="C954" s="24"/>
-      <c r="D954" s="25"/>
-      <c r="E954" s="24"/>
+      <c r="C954" s="29"/>
+      <c r="D954" s="29"/>
+      <c r="E954" s="29"/>
     </row>
     <row r="955">
-      <c r="C955" s="24"/>
-      <c r="D955" s="25"/>
-      <c r="E955" s="24"/>
+      <c r="C955" s="29"/>
+      <c r="D955" s="29"/>
+      <c r="E955" s="29"/>
     </row>
     <row r="956">
-      <c r="C956" s="24"/>
-      <c r="D956" s="25"/>
-      <c r="E956" s="24"/>
+      <c r="C956" s="29"/>
+      <c r="D956" s="29"/>
+      <c r="E956" s="29"/>
     </row>
     <row r="957">
-      <c r="C957" s="24"/>
-      <c r="D957" s="25"/>
-      <c r="E957" s="24"/>
+      <c r="C957" s="29"/>
+      <c r="D957" s="29"/>
+      <c r="E957" s="29"/>
     </row>
     <row r="958">
-      <c r="C958" s="24"/>
-      <c r="D958" s="25"/>
-      <c r="E958" s="24"/>
+      <c r="C958" s="29"/>
+      <c r="D958" s="29"/>
+      <c r="E958" s="29"/>
     </row>
     <row r="959">
-      <c r="C959" s="24"/>
-      <c r="D959" s="25"/>
-      <c r="E959" s="24"/>
+      <c r="C959" s="29"/>
+      <c r="D959" s="29"/>
+      <c r="E959" s="29"/>
     </row>
     <row r="960">
-      <c r="C960" s="24"/>
-      <c r="D960" s="25"/>
-      <c r="E960" s="24"/>
+      <c r="C960" s="29"/>
+      <c r="D960" s="29"/>
+      <c r="E960" s="29"/>
     </row>
     <row r="961">
-      <c r="C961" s="24"/>
-      <c r="D961" s="25"/>
-      <c r="E961" s="24"/>
+      <c r="C961" s="29"/>
+      <c r="D961" s="29"/>
+      <c r="E961" s="29"/>
     </row>
     <row r="962">
-      <c r="C962" s="24"/>
-      <c r="D962" s="25"/>
-      <c r="E962" s="24"/>
+      <c r="C962" s="29"/>
+      <c r="D962" s="29"/>
+      <c r="E962" s="29"/>
     </row>
     <row r="963">
-      <c r="C963" s="24"/>
-      <c r="D963" s="25"/>
-      <c r="E963" s="24"/>
+      <c r="C963" s="29"/>
+      <c r="D963" s="29"/>
+      <c r="E963" s="29"/>
     </row>
     <row r="964">
-      <c r="C964" s="24"/>
-      <c r="D964" s="25"/>
-      <c r="E964" s="24"/>
+      <c r="C964" s="29"/>
+      <c r="D964" s="29"/>
+      <c r="E964" s="29"/>
     </row>
     <row r="965">
-      <c r="C965" s="24"/>
-      <c r="D965" s="25"/>
-      <c r="E965" s="24"/>
+      <c r="C965" s="29"/>
+      <c r="D965" s="29"/>
+      <c r="E965" s="29"/>
     </row>
     <row r="966">
-      <c r="C966" s="24"/>
-      <c r="D966" s="25"/>
-      <c r="E966" s="24"/>
+      <c r="C966" s="29"/>
+      <c r="D966" s="29"/>
+      <c r="E966" s="29"/>
     </row>
     <row r="967">
-      <c r="C967" s="24"/>
-      <c r="D967" s="25"/>
-      <c r="E967" s="24"/>
+      <c r="C967" s="29"/>
+      <c r="D967" s="29"/>
+      <c r="E967" s="29"/>
     </row>
     <row r="968">
-      <c r="C968" s="24"/>
-      <c r="D968" s="25"/>
-      <c r="E968" s="24"/>
+      <c r="C968" s="29"/>
+      <c r="D968" s="29"/>
+      <c r="E968" s="29"/>
     </row>
     <row r="969">
-      <c r="C969" s="24"/>
-      <c r="D969" s="25"/>
-      <c r="E969" s="24"/>
+      <c r="C969" s="29"/>
+      <c r="D969" s="29"/>
+      <c r="E969" s="29"/>
     </row>
     <row r="970">
-      <c r="C970" s="24"/>
-      <c r="D970" s="25"/>
-      <c r="E970" s="24"/>
+      <c r="C970" s="29"/>
+      <c r="D970" s="29"/>
+      <c r="E970" s="29"/>
     </row>
     <row r="971">
-      <c r="C971" s="24"/>
-      <c r="D971" s="25"/>
-      <c r="E971" s="24"/>
+      <c r="C971" s="29"/>
+      <c r="D971" s="29"/>
+      <c r="E971" s="29"/>
     </row>
     <row r="972">
-      <c r="C972" s="24"/>
-      <c r="D972" s="25"/>
-      <c r="E972" s="24"/>
+      <c r="C972" s="29"/>
+      <c r="D972" s="29"/>
+      <c r="E972" s="29"/>
     </row>
     <row r="973">
-      <c r="C973" s="24"/>
-      <c r="D973" s="25"/>
-      <c r="E973" s="24"/>
+      <c r="C973" s="29"/>
+      <c r="D973" s="29"/>
+      <c r="E973" s="29"/>
     </row>
     <row r="974">
-      <c r="C974" s="24"/>
-      <c r="D974" s="25"/>
-      <c r="E974" s="24"/>
+      <c r="C974" s="29"/>
+      <c r="D974" s="29"/>
+      <c r="E974" s="29"/>
     </row>
     <row r="975">
-      <c r="C975" s="24"/>
-      <c r="D975" s="25"/>
-      <c r="E975" s="24"/>
+      <c r="C975" s="29"/>
+      <c r="D975" s="29"/>
+      <c r="E975" s="29"/>
     </row>
     <row r="976">
-      <c r="C976" s="24"/>
-      <c r="D976" s="25"/>
-      <c r="E976" s="24"/>
+      <c r="C976" s="29"/>
+      <c r="D976" s="29"/>
+      <c r="E976" s="29"/>
     </row>
     <row r="977">
-      <c r="C977" s="24"/>
-      <c r="D977" s="25"/>
-      <c r="E977" s="24"/>
+      <c r="C977" s="29"/>
+      <c r="D977" s="29"/>
+      <c r="E977" s="29"/>
     </row>
     <row r="978">
-      <c r="C978" s="24"/>
-      <c r="D978" s="25"/>
-      <c r="E978" s="24"/>
+      <c r="C978" s="29"/>
+      <c r="D978" s="29"/>
+      <c r="E978" s="29"/>
     </row>
     <row r="979">
-      <c r="C979" s="24"/>
-      <c r="D979" s="25"/>
-      <c r="E979" s="24"/>
+      <c r="C979" s="29"/>
+      <c r="D979" s="29"/>
+      <c r="E979" s="29"/>
     </row>
     <row r="980">
-      <c r="C980" s="24"/>
-      <c r="D980" s="25"/>
-      <c r="E980" s="24"/>
+      <c r="C980" s="29"/>
+      <c r="D980" s="29"/>
+      <c r="E980" s="29"/>
     </row>
     <row r="981">
-      <c r="C981" s="24"/>
-      <c r="D981" s="25"/>
-      <c r="E981" s="24"/>
+      <c r="C981" s="29"/>
+      <c r="D981" s="29"/>
+      <c r="E981" s="29"/>
     </row>
     <row r="982">
-      <c r="C982" s="24"/>
-      <c r="D982" s="25"/>
-      <c r="E982" s="24"/>
+      <c r="C982" s="29"/>
+      <c r="D982" s="29"/>
+      <c r="E982" s="29"/>
     </row>
     <row r="983">
-      <c r="C983" s="24"/>
-      <c r="D983" s="25"/>
-      <c r="E983" s="24"/>
+      <c r="C983" s="29"/>
+      <c r="D983" s="29"/>
+      <c r="E983" s="29"/>
     </row>
     <row r="984">
-      <c r="C984" s="24"/>
-      <c r="D984" s="25"/>
-      <c r="E984" s="24"/>
+      <c r="C984" s="29"/>
+      <c r="D984" s="29"/>
+      <c r="E984" s="29"/>
     </row>
     <row r="985">
-      <c r="C985" s="24"/>
-      <c r="D985" s="25"/>
-      <c r="E985" s="24"/>
+      <c r="C985" s="29"/>
+      <c r="D985" s="29"/>
+      <c r="E985" s="29"/>
     </row>
     <row r="986">
-      <c r="C986" s="24"/>
-      <c r="D986" s="25"/>
-      <c r="E986" s="24"/>
+      <c r="C986" s="29"/>
+      <c r="D986" s="29"/>
+      <c r="E986" s="29"/>
     </row>
     <row r="987">
-      <c r="C987" s="24"/>
-      <c r="D987" s="25"/>
-      <c r="E987" s="24"/>
+      <c r="C987" s="29"/>
+      <c r="D987" s="29"/>
+      <c r="E987" s="29"/>
     </row>
     <row r="988">
-      <c r="C988" s="24"/>
-      <c r="D988" s="25"/>
-      <c r="E988" s="24"/>
+      <c r="C988" s="29"/>
+      <c r="D988" s="29"/>
+      <c r="E988" s="29"/>
     </row>
     <row r="989">
-      <c r="C989" s="24"/>
-      <c r="D989" s="25"/>
-      <c r="E989" s="24"/>
+      <c r="C989" s="29"/>
+      <c r="D989" s="29"/>
+      <c r="E989" s="29"/>
     </row>
     <row r="990">
-      <c r="C990" s="24"/>
-      <c r="D990" s="25"/>
-      <c r="E990" s="24"/>
+      <c r="C990" s="29"/>
+      <c r="D990" s="29"/>
+      <c r="E990" s="29"/>
     </row>
     <row r="991">
-      <c r="C991" s="24"/>
-      <c r="D991" s="25"/>
-      <c r="E991" s="24"/>
+      <c r="C991" s="29"/>
+      <c r="D991" s="29"/>
+      <c r="E991" s="29"/>
     </row>
     <row r="992">
-      <c r="C992" s="24"/>
-      <c r="D992" s="25"/>
-      <c r="E992" s="24"/>
+      <c r="C992" s="29"/>
+      <c r="D992" s="29"/>
+      <c r="E992" s="29"/>
     </row>
     <row r="993">
-      <c r="C993" s="24"/>
-      <c r="D993" s="25"/>
-      <c r="E993" s="24"/>
+      <c r="C993" s="29"/>
+      <c r="D993" s="29"/>
+      <c r="E993" s="29"/>
     </row>
     <row r="994">
-      <c r="C994" s="24"/>
-      <c r="D994" s="25"/>
-      <c r="E994" s="24"/>
+      <c r="C994" s="29"/>
+      <c r="D994" s="29"/>
+      <c r="E994" s="29"/>
     </row>
     <row r="995">
-      <c r="C995" s="24"/>
-      <c r="D995" s="25"/>
-      <c r="E995" s="24"/>
+      <c r="C995" s="29"/>
+      <c r="D995" s="29"/>
+      <c r="E995" s="29"/>
     </row>
     <row r="996">
-      <c r="C996" s="24"/>
-      <c r="D996" s="25"/>
-      <c r="E996" s="24"/>
+      <c r="C996" s="29"/>
+      <c r="D996" s="29"/>
+      <c r="E996" s="29"/>
     </row>
     <row r="997">
-      <c r="C997" s="24"/>
-      <c r="D997" s="25"/>
-      <c r="E997" s="24"/>
+      <c r="C997" s="29"/>
+      <c r="D997" s="29"/>
+      <c r="E997" s="29"/>
     </row>
     <row r="998">
-      <c r="C998" s="24"/>
-      <c r="D998" s="25"/>
-      <c r="E998" s="24"/>
-    </row>
-    <row r="999">
-      <c r="C999" s="24"/>
-      <c r="D999" s="25"/>
-      <c r="E999" s="24"/>
-    </row>
-    <row r="1000">
-      <c r="C1000" s="24"/>
-      <c r="D1000" s="25"/>
-      <c r="E1000" s="24"/>
+      <c r="C998" s="29"/>
+      <c r="D998" s="29"/>
+      <c r="E998" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6757,21 +6835,28 @@
     <hyperlink r:id="rId90" ref="E43"/>
     <hyperlink r:id="rId91" ref="C44"/>
     <hyperlink r:id="rId92" ref="E44"/>
-    <hyperlink r:id="rId93" ref="C45"/>
-    <hyperlink r:id="rId94" ref="E45"/>
-    <hyperlink r:id="rId95" ref="C46"/>
-    <hyperlink r:id="rId96" ref="E46"/>
-    <hyperlink r:id="rId97" ref="C47"/>
-    <hyperlink r:id="rId98" ref="E47"/>
-    <hyperlink r:id="rId99" ref="C48"/>
-    <hyperlink r:id="rId100" ref="E48"/>
-    <hyperlink r:id="rId101" ref="C49"/>
-    <hyperlink r:id="rId102" ref="E49"/>
-    <hyperlink r:id="rId103" ref="C50"/>
-    <hyperlink r:id="rId104" ref="E50"/>
-    <hyperlink r:id="rId105" ref="C51"/>
-    <hyperlink r:id="rId106" ref="E51"/>
+    <hyperlink r:id="rId93" ref="B45"/>
+    <hyperlink r:id="rId94" ref="C45"/>
+    <hyperlink r:id="rId95" ref="E45"/>
+    <hyperlink r:id="rId96" ref="C46"/>
+    <hyperlink r:id="rId97" ref="E46"/>
+    <hyperlink r:id="rId98" ref="C47"/>
+    <hyperlink r:id="rId99" ref="E47"/>
+    <hyperlink r:id="rId100" ref="C48"/>
+    <hyperlink r:id="rId101" ref="E48"/>
+    <hyperlink r:id="rId102" ref="C49"/>
+    <hyperlink r:id="rId103" ref="E49"/>
+    <hyperlink r:id="rId104" ref="C50"/>
+    <hyperlink r:id="rId105" ref="E50"/>
+    <hyperlink r:id="rId106" ref="C51"/>
+    <hyperlink r:id="rId107" ref="E51"/>
+    <hyperlink r:id="rId108" ref="C52"/>
+    <hyperlink r:id="rId109" ref="E52"/>
+    <hyperlink r:id="rId110" ref="C53"/>
+    <hyperlink r:id="rId111" ref="E53"/>
+    <hyperlink r:id="rId112" ref="C54"/>
+    <hyperlink r:id="rId113" ref="E54"/>
   </hyperlinks>
-  <drawing r:id="rId107"/>
+  <drawing r:id="rId114"/>
 </worksheet>
 </file>